--- a/resources/Repository Setup.xlsx
+++ b/resources/Repository Setup.xlsx
@@ -1,270 +1,272 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12585"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12585" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Attributes" sheetId="1" r:id="rId1"/>
+    <sheet name="BettableEvent" sheetId="2" r:id="rId2"/>
+    <sheet name="Participant" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="AD" localSheetId="0">Attributes!$C$377</definedName>
-    <definedName name="AE" localSheetId="0">Attributes!$C$438</definedName>
-    <definedName name="AG" localSheetId="0">Attributes!$C$381</definedName>
-    <definedName name="AI" localSheetId="0">Attributes!$C$379</definedName>
-    <definedName name="AL" localSheetId="0">Attributes!$C$374</definedName>
-    <definedName name="AM" localSheetId="0">Attributes!$C$384</definedName>
-    <definedName name="AO" localSheetId="0">Attributes!$C$378</definedName>
-    <definedName name="AQ" localSheetId="0">Attributes!$C$380</definedName>
-    <definedName name="AR" localSheetId="0">Attributes!$C$383</definedName>
-    <definedName name="AS" localSheetId="0">Attributes!$C$575</definedName>
-    <definedName name="AT" localSheetId="0">Attributes!$C$387</definedName>
-    <definedName name="AU" localSheetId="0">Attributes!$C$386</definedName>
-    <definedName name="AW" localSheetId="0">Attributes!$C$385</definedName>
-    <definedName name="AX" localSheetId="0">Attributes!$C$373</definedName>
-    <definedName name="AZ" localSheetId="0">Attributes!$C$388</definedName>
-    <definedName name="BA" localSheetId="0">Attributes!$C$401</definedName>
-    <definedName name="BB" localSheetId="0">Attributes!$C$392</definedName>
-    <definedName name="BD" localSheetId="0">Attributes!$C$391</definedName>
-    <definedName name="BE" localSheetId="0">Attributes!$C$394</definedName>
-    <definedName name="BF" localSheetId="0">Attributes!$C$407</definedName>
-    <definedName name="BG" localSheetId="0">Attributes!$C$406</definedName>
-    <definedName name="BH" localSheetId="0">Attributes!$C$390</definedName>
-    <definedName name="BI" localSheetId="0">Attributes!$C$408</definedName>
-    <definedName name="BJ" localSheetId="0">Attributes!$C$396</definedName>
-    <definedName name="BL" localSheetId="0">Attributes!$C$563</definedName>
-    <definedName name="BM" localSheetId="0">Attributes!$C$397</definedName>
-    <definedName name="BN" localSheetId="0">Attributes!$C$405</definedName>
-    <definedName name="BO" localSheetId="0">Attributes!$C$399</definedName>
-    <definedName name="BQ" localSheetId="0">Attributes!$C$400</definedName>
-    <definedName name="BR" localSheetId="0">Attributes!$C$404</definedName>
-    <definedName name="BS" localSheetId="0">Attributes!$C$389</definedName>
-    <definedName name="BT" localSheetId="0">Attributes!$C$398</definedName>
-    <definedName name="BV" localSheetId="0">Attributes!$C$403</definedName>
-    <definedName name="BW" localSheetId="0">Attributes!$C$402</definedName>
-    <definedName name="BY" localSheetId="0">Attributes!$C$393</definedName>
-    <definedName name="BZ" localSheetId="0">Attributes!$C$395</definedName>
-    <definedName name="CA" localSheetId="0">Attributes!$C$412</definedName>
-    <definedName name="CC" localSheetId="0">Attributes!$C$419</definedName>
-    <definedName name="CD" localSheetId="0">Attributes!$C$423</definedName>
-    <definedName name="CF" localSheetId="0">Attributes!$C$414</definedName>
-    <definedName name="CG" localSheetId="0">Attributes!$C$422</definedName>
-    <definedName name="CH" localSheetId="0">Attributes!$C$589</definedName>
-    <definedName name="CI" localSheetId="0">Attributes!$C$428</definedName>
-    <definedName name="CK" localSheetId="0">Attributes!$C$424</definedName>
-    <definedName name="CL" localSheetId="0">Attributes!$C$415</definedName>
-    <definedName name="CM" localSheetId="0">Attributes!$C$411</definedName>
-    <definedName name="CN" localSheetId="0">Attributes!$C$416</definedName>
-    <definedName name="CO" localSheetId="0">Attributes!$C$420</definedName>
-    <definedName name="CR" localSheetId="0">Attributes!$C$427</definedName>
-    <definedName name="CU" localSheetId="0">Attributes!$C$430</definedName>
-    <definedName name="CV" localSheetId="0">Attributes!$C$413</definedName>
-    <definedName name="CW" localSheetId="0">Attributes!$C$431</definedName>
-    <definedName name="CX" localSheetId="0">Attributes!$C$417</definedName>
-    <definedName name="CY" localSheetId="0">Attributes!$C$418</definedName>
-    <definedName name="CZ" localSheetId="0">Attributes!$C$598</definedName>
-    <definedName name="DE" localSheetId="0">Attributes!$C$376</definedName>
-    <definedName name="DJ" localSheetId="0">Attributes!$C$433</definedName>
-    <definedName name="DK" localSheetId="0">Attributes!$C$432</definedName>
-    <definedName name="DM" localSheetId="0">Attributes!$C$435</definedName>
-    <definedName name="DO" localSheetId="0">Attributes!$C$434</definedName>
-    <definedName name="DZ" localSheetId="0">Attributes!$C$375</definedName>
-    <definedName name="EC" localSheetId="0">Attributes!$C$439</definedName>
-    <definedName name="EE" localSheetId="0">Attributes!$C$442</definedName>
-    <definedName name="EG" localSheetId="0">Attributes!$C$436</definedName>
-    <definedName name="EH" localSheetId="0">Attributes!$C$562</definedName>
-    <definedName name="ER" localSheetId="0">Attributes!$C$440</definedName>
-    <definedName name="ES" localSheetId="0">Attributes!$C$441</definedName>
-    <definedName name="ET" localSheetId="0">Attributes!$C$444</definedName>
-    <definedName name="FI" localSheetId="0">Attributes!$C$448</definedName>
-    <definedName name="FJ" localSheetId="0">Attributes!$C$447</definedName>
-    <definedName name="FK" localSheetId="0">Attributes!$C$445</definedName>
-    <definedName name="FM" localSheetId="0">Attributes!$C$519</definedName>
-    <definedName name="FO" localSheetId="0">Attributes!$C$446</definedName>
-    <definedName name="FR" localSheetId="0">Attributes!$C$449</definedName>
-    <definedName name="GA" localSheetId="0">Attributes!$C$450</definedName>
-    <definedName name="GB" localSheetId="0">Attributes!$C$559</definedName>
-    <definedName name="GD" localSheetId="0">Attributes!$C$457</definedName>
-    <definedName name="GE" localSheetId="0">Attributes!$C$452</definedName>
-    <definedName name="GF" localSheetId="0">Attributes!$C$467</definedName>
-    <definedName name="GG" localSheetId="0">Attributes!$C$462</definedName>
-    <definedName name="GH" localSheetId="0">Attributes!$C$454</definedName>
-    <definedName name="GI" localSheetId="0">Attributes!$C$455</definedName>
-    <definedName name="GL" localSheetId="0">Attributes!$C$458</definedName>
-    <definedName name="GM" localSheetId="0">Attributes!$C$451</definedName>
-    <definedName name="GN" localSheetId="0">Attributes!$C$463</definedName>
-    <definedName name="GP" localSheetId="0">Attributes!$C$459</definedName>
-    <definedName name="GQ" localSheetId="0">Attributes!$C$465</definedName>
-    <definedName name="GR" localSheetId="0">Attributes!$C$456</definedName>
-    <definedName name="GS" localSheetId="0">Attributes!$C$453</definedName>
-    <definedName name="GT" localSheetId="0">Attributes!$C$461</definedName>
-    <definedName name="GU" localSheetId="0">Attributes!$C$460</definedName>
-    <definedName name="GW" localSheetId="0">Attributes!$C$464</definedName>
-    <definedName name="GY" localSheetId="0">Attributes!$C$466</definedName>
-    <definedName name="HK" localSheetId="0">Attributes!$C$471</definedName>
-    <definedName name="HM" localSheetId="0">Attributes!$C$469</definedName>
-    <definedName name="HN" localSheetId="0">Attributes!$C$470</definedName>
-    <definedName name="HR" localSheetId="0">Attributes!$C$429</definedName>
-    <definedName name="HT" localSheetId="0">Attributes!$C$468</definedName>
-    <definedName name="HU" localSheetId="0">Attributes!$C$472</definedName>
-    <definedName name="ID" localSheetId="0">Attributes!$C$478</definedName>
-    <definedName name="IE" localSheetId="0">Attributes!$C$481</definedName>
-    <definedName name="IL" localSheetId="0">Attributes!$C$483</definedName>
-    <definedName name="IM" localSheetId="0">Attributes!$C$473</definedName>
-    <definedName name="IN" localSheetId="0">Attributes!$C$477</definedName>
-    <definedName name="IO" localSheetId="0">Attributes!$C$538</definedName>
-    <definedName name="IQ" localSheetId="0">Attributes!$C$480</definedName>
-    <definedName name="IR" localSheetId="0">Attributes!$C$479</definedName>
-    <definedName name="IS" localSheetId="0">Attributes!$C$482</definedName>
-    <definedName name="IT" localSheetId="0">Attributes!$C$484</definedName>
-    <definedName name="JE" localSheetId="0">Attributes!$C$487</definedName>
-    <definedName name="JM" localSheetId="0">Attributes!$C$485</definedName>
-    <definedName name="JO" localSheetId="0">Attributes!$C$488</definedName>
-    <definedName name="JP" localSheetId="0">Attributes!$C$486</definedName>
-    <definedName name="KE" localSheetId="0">Attributes!$C$490</definedName>
-    <definedName name="KG" localSheetId="0">Attributes!$C$491</definedName>
-    <definedName name="KH" localSheetId="0">Attributes!$C$410</definedName>
-    <definedName name="KI" localSheetId="0">Attributes!$C$492</definedName>
-    <definedName name="KM" localSheetId="0">Attributes!$C$421</definedName>
-    <definedName name="KN" localSheetId="0">Attributes!$C$566</definedName>
-    <definedName name="KP" localSheetId="0">Attributes!$C$426</definedName>
-    <definedName name="KR" localSheetId="0">Attributes!$C$425</definedName>
-    <definedName name="KW" localSheetId="0">Attributes!$C$493</definedName>
-    <definedName name="KY" localSheetId="0">Attributes!$C$409</definedName>
-    <definedName name="KZ" localSheetId="0">Attributes!$C$489</definedName>
-    <definedName name="LA" localSheetId="0">Attributes!$C$494</definedName>
-    <definedName name="LB" localSheetId="0">Attributes!$C$497</definedName>
-    <definedName name="LC" localSheetId="0">Attributes!$C$565</definedName>
-    <definedName name="LI" localSheetId="0">Attributes!$C$500</definedName>
-    <definedName name="LK" localSheetId="0">Attributes!$C$587</definedName>
-    <definedName name="LR" localSheetId="0">Attributes!$C$498</definedName>
-    <definedName name="LS" localSheetId="0">Attributes!$C$495</definedName>
-    <definedName name="LT" localSheetId="0">Attributes!$C$501</definedName>
-    <definedName name="LU" localSheetId="0">Attributes!$C$502</definedName>
-    <definedName name="LV" localSheetId="0">Attributes!$C$496</definedName>
-    <definedName name="LY" localSheetId="0">Attributes!$C$499</definedName>
-    <definedName name="MA" localSheetId="0">Attributes!$C$512</definedName>
-    <definedName name="MC" localSheetId="0">Attributes!$C$521</definedName>
-    <definedName name="MD" localSheetId="0">Attributes!$C$520</definedName>
-    <definedName name="ME" localSheetId="0">Attributes!$C$523</definedName>
-    <definedName name="MF" localSheetId="0">Attributes!$C$568</definedName>
-    <definedName name="MG" localSheetId="0">Attributes!$C$505</definedName>
-    <definedName name="MH" localSheetId="0">Attributes!$C$513</definedName>
-    <definedName name="MK" localSheetId="0">Attributes!$C$504</definedName>
-    <definedName name="ML" localSheetId="0">Attributes!$C$509</definedName>
-    <definedName name="MM" localSheetId="0">Attributes!$C$526</definedName>
-    <definedName name="MN" localSheetId="0">Attributes!$C$522</definedName>
-    <definedName name="MO" localSheetId="0">Attributes!$C$503</definedName>
-    <definedName name="MP" localSheetId="0">Attributes!$C$511</definedName>
-    <definedName name="MQ" localSheetId="0">Attributes!$C$514</definedName>
-    <definedName name="MR" localSheetId="0">Attributes!$C$516</definedName>
-    <definedName name="MS" localSheetId="0">Attributes!$C$524</definedName>
-    <definedName name="MT" localSheetId="0">Attributes!$C$510</definedName>
-    <definedName name="MU" localSheetId="0">Attributes!$C$515</definedName>
-    <definedName name="MV" localSheetId="0">Attributes!$C$508</definedName>
-    <definedName name="MW" localSheetId="0">Attributes!$C$507</definedName>
-    <definedName name="MX" localSheetId="0">Attributes!$C$518</definedName>
-    <definedName name="MY" localSheetId="0">Attributes!$C$506</definedName>
-    <definedName name="MZ" localSheetId="0">Attributes!$C$525</definedName>
-    <definedName name="NA" localSheetId="0">Attributes!$C$527</definedName>
-    <definedName name="NC" localSheetId="0">Attributes!$C$536</definedName>
-    <definedName name="NE" localSheetId="0">Attributes!$C$531</definedName>
-    <definedName name="NF" localSheetId="0">Attributes!$C$534</definedName>
-    <definedName name="NG" localSheetId="0">Attributes!$C$532</definedName>
-    <definedName name="NI" localSheetId="0">Attributes!$C$530</definedName>
-    <definedName name="NL" localSheetId="0">Attributes!$C$548</definedName>
-    <definedName name="NO" localSheetId="0">Attributes!$C$535</definedName>
-    <definedName name="NP" localSheetId="0">Attributes!$C$529</definedName>
-    <definedName name="NR" localSheetId="0">Attributes!$C$528</definedName>
-    <definedName name="NU" localSheetId="0">Attributes!$C$533</definedName>
-    <definedName name="NZ" localSheetId="0">Attributes!$C$537</definedName>
-    <definedName name="OM" localSheetId="0">Attributes!$C$539</definedName>
-    <definedName name="PA" localSheetId="0">Attributes!$C$545</definedName>
-    <definedName name="PE" localSheetId="0">Attributes!$C$549</definedName>
-    <definedName name="PF" localSheetId="0">Attributes!$C$553</definedName>
-    <definedName name="PG" localSheetId="0">Attributes!$C$546</definedName>
-    <definedName name="PH" localSheetId="0">Attributes!$C$550</definedName>
-    <definedName name="PK" localSheetId="0">Attributes!$C$542</definedName>
-    <definedName name="PL" localSheetId="0">Attributes!$C$552</definedName>
-    <definedName name="PM" localSheetId="0">Attributes!$C$570</definedName>
-    <definedName name="PN" localSheetId="0">Attributes!$C$551</definedName>
-    <definedName name="PR" localSheetId="0">Attributes!$C$554</definedName>
-    <definedName name="PS" localSheetId="0">Attributes!$C$544</definedName>
-    <definedName name="PT" localSheetId="0">Attributes!$C$555</definedName>
-    <definedName name="PW" localSheetId="0">Attributes!$C$543</definedName>
-    <definedName name="PY" localSheetId="0">Attributes!$C$547</definedName>
-    <definedName name="QA" localSheetId="0">Attributes!$C$556</definedName>
-    <definedName name="RE" localSheetId="0">Attributes!$C$557</definedName>
-    <definedName name="RO" localSheetId="0">Attributes!$C$558</definedName>
-    <definedName name="RS" localSheetId="0">Attributes!$C$578</definedName>
-    <definedName name="RU" localSheetId="0">Attributes!$C$560</definedName>
-    <definedName name="RW" localSheetId="0">Attributes!$C$561</definedName>
-    <definedName name="SA" localSheetId="0">Attributes!$C$382</definedName>
-    <definedName name="SB" localSheetId="0">Attributes!$C$573</definedName>
-    <definedName name="SC" localSheetId="0">Attributes!$C$579</definedName>
-    <definedName name="SD" localSheetId="0">Attributes!$C$585</definedName>
-    <definedName name="SE" localSheetId="0">Attributes!$C$588</definedName>
-    <definedName name="SG" localSheetId="0">Attributes!$C$581</definedName>
-    <definedName name="SH" localSheetId="0">Attributes!$C$564</definedName>
-    <definedName name="SI" localSheetId="0">Attributes!$C$583</definedName>
-    <definedName name="SJ" localSheetId="0">Attributes!$C$591</definedName>
-    <definedName name="SK" localSheetId="0">Attributes!$C$582</definedName>
-    <definedName name="SL" localSheetId="0">Attributes!$C$580</definedName>
-    <definedName name="SM" localSheetId="0">Attributes!$C$567</definedName>
-    <definedName name="SN" localSheetId="0">Attributes!$C$577</definedName>
-    <definedName name="SO" localSheetId="0">Attributes!$C$584</definedName>
-    <definedName name="SR" localSheetId="0">Attributes!$C$590</definedName>
-    <definedName name="SS" localSheetId="0">Attributes!$C$586</definedName>
-    <definedName name="ST" localSheetId="0">Attributes!$C$576</definedName>
-    <definedName name="SV" localSheetId="0">Attributes!$C$437</definedName>
-    <definedName name="SX" localSheetId="0">Attributes!$C$569</definedName>
-    <definedName name="SY" localSheetId="0">Attributes!$C$593</definedName>
-    <definedName name="SZ" localSheetId="0">Attributes!$C$592</definedName>
-    <definedName name="TC" localSheetId="0">Attributes!$C$608</definedName>
-    <definedName name="TD" localSheetId="0">Attributes!$C$597</definedName>
-    <definedName name="TF" localSheetId="0">Attributes!$C$599</definedName>
-    <definedName name="TG" localSheetId="0">Attributes!$C$602</definedName>
-    <definedName name="TH" localSheetId="0">Attributes!$C$600</definedName>
-    <definedName name="TJ" localSheetId="0">Attributes!$C$594</definedName>
-    <definedName name="TK" localSheetId="0">Attributes!$C$603</definedName>
-    <definedName name="TL" localSheetId="0">Attributes!$C$601</definedName>
-    <definedName name="TM" localSheetId="0">Attributes!$C$607</definedName>
-    <definedName name="TN" localSheetId="0">Attributes!$C$606</definedName>
-    <definedName name="TO" localSheetId="0">Attributes!$C$604</definedName>
-    <definedName name="TR" localSheetId="0">Attributes!$C$609</definedName>
-    <definedName name="TT" localSheetId="0">Attributes!$C$605</definedName>
-    <definedName name="TV" localSheetId="0">Attributes!$C$610</definedName>
-    <definedName name="TW" localSheetId="0">Attributes!$C$595</definedName>
-    <definedName name="TZ" localSheetId="0">Attributes!$C$596</definedName>
-    <definedName name="UA" localSheetId="0">Attributes!$C$611</definedName>
-    <definedName name="UG" localSheetId="0">Attributes!$C$540</definedName>
-    <definedName name="UM" localSheetId="0">Attributes!$C$474</definedName>
-    <definedName name="US" localSheetId="0">Attributes!$C$443</definedName>
-    <definedName name="UY" localSheetId="0">Attributes!$C$612</definedName>
-    <definedName name="UZ" localSheetId="0">Attributes!$C$541</definedName>
-    <definedName name="VA" localSheetId="0">Attributes!$C$571</definedName>
-    <definedName name="VC" localSheetId="0">Attributes!$C$572</definedName>
-    <definedName name="VE" localSheetId="0">Attributes!$C$614</definedName>
-    <definedName name="VG" localSheetId="0">Attributes!$C$475</definedName>
-    <definedName name="VI" localSheetId="0">Attributes!$C$476</definedName>
-    <definedName name="VN" localSheetId="0">Attributes!$C$615</definedName>
-    <definedName name="VU" localSheetId="0">Attributes!$C$613</definedName>
-    <definedName name="WF" localSheetId="0">Attributes!$C$616</definedName>
-    <definedName name="WS" localSheetId="0">Attributes!$C$574</definedName>
-    <definedName name="YE" localSheetId="0">Attributes!$C$617</definedName>
-    <definedName name="YT" localSheetId="0">Attributes!$C$517</definedName>
-    <definedName name="ZA" localSheetId="0">Attributes!$C$372</definedName>
-    <definedName name="ZM" localSheetId="0">Attributes!$C$618</definedName>
-    <definedName name="ZW" localSheetId="0">Attributes!$C$619</definedName>
+    <definedName name="AD" localSheetId="0">Attributes!$C$378</definedName>
+    <definedName name="AE" localSheetId="0">Attributes!$C$439</definedName>
+    <definedName name="AG" localSheetId="0">Attributes!$C$382</definedName>
+    <definedName name="AI" localSheetId="0">Attributes!$C$380</definedName>
+    <definedName name="AL" localSheetId="0">Attributes!$C$375</definedName>
+    <definedName name="AM" localSheetId="0">Attributes!$C$385</definedName>
+    <definedName name="AO" localSheetId="0">Attributes!$C$379</definedName>
+    <definedName name="AQ" localSheetId="0">Attributes!$C$381</definedName>
+    <definedName name="AR" localSheetId="0">Attributes!$C$384</definedName>
+    <definedName name="AS" localSheetId="0">Attributes!$C$576</definedName>
+    <definedName name="AT" localSheetId="0">Attributes!$C$388</definedName>
+    <definedName name="AU" localSheetId="0">Attributes!$C$387</definedName>
+    <definedName name="AW" localSheetId="0">Attributes!$C$386</definedName>
+    <definedName name="AX" localSheetId="0">Attributes!$C$374</definedName>
+    <definedName name="AZ" localSheetId="0">Attributes!$C$389</definedName>
+    <definedName name="BA" localSheetId="0">Attributes!$C$402</definedName>
+    <definedName name="BB" localSheetId="0">Attributes!$C$393</definedName>
+    <definedName name="BD" localSheetId="0">Attributes!$C$392</definedName>
+    <definedName name="BE" localSheetId="0">Attributes!$C$395</definedName>
+    <definedName name="BF" localSheetId="0">Attributes!$C$408</definedName>
+    <definedName name="BG" localSheetId="0">Attributes!$C$407</definedName>
+    <definedName name="BH" localSheetId="0">Attributes!$C$391</definedName>
+    <definedName name="BI" localSheetId="0">Attributes!$C$409</definedName>
+    <definedName name="BJ" localSheetId="0">Attributes!$C$397</definedName>
+    <definedName name="BL" localSheetId="0">Attributes!$C$564</definedName>
+    <definedName name="BM" localSheetId="0">Attributes!$C$398</definedName>
+    <definedName name="BN" localSheetId="0">Attributes!$C$406</definedName>
+    <definedName name="BO" localSheetId="0">Attributes!$C$400</definedName>
+    <definedName name="BQ" localSheetId="0">Attributes!$C$401</definedName>
+    <definedName name="BR" localSheetId="0">Attributes!$C$405</definedName>
+    <definedName name="BS" localSheetId="0">Attributes!$C$390</definedName>
+    <definedName name="BT" localSheetId="0">Attributes!$C$399</definedName>
+    <definedName name="BV" localSheetId="0">Attributes!$C$404</definedName>
+    <definedName name="BW" localSheetId="0">Attributes!$C$403</definedName>
+    <definedName name="BY" localSheetId="0">Attributes!$C$394</definedName>
+    <definedName name="BZ" localSheetId="0">Attributes!$C$396</definedName>
+    <definedName name="CA" localSheetId="0">Attributes!$C$413</definedName>
+    <definedName name="CC" localSheetId="0">Attributes!$C$420</definedName>
+    <definedName name="CD" localSheetId="0">Attributes!$C$424</definedName>
+    <definedName name="CF" localSheetId="0">Attributes!$C$415</definedName>
+    <definedName name="CG" localSheetId="0">Attributes!$C$423</definedName>
+    <definedName name="CH" localSheetId="0">Attributes!$C$590</definedName>
+    <definedName name="CI" localSheetId="0">Attributes!$C$429</definedName>
+    <definedName name="CK" localSheetId="0">Attributes!$C$425</definedName>
+    <definedName name="CL" localSheetId="0">Attributes!$C$416</definedName>
+    <definedName name="CM" localSheetId="0">Attributes!$C$412</definedName>
+    <definedName name="CN" localSheetId="0">Attributes!$C$417</definedName>
+    <definedName name="CO" localSheetId="0">Attributes!$C$421</definedName>
+    <definedName name="CR" localSheetId="0">Attributes!$C$428</definedName>
+    <definedName name="CU" localSheetId="0">Attributes!$C$431</definedName>
+    <definedName name="CV" localSheetId="0">Attributes!$C$414</definedName>
+    <definedName name="CW" localSheetId="0">Attributes!$C$432</definedName>
+    <definedName name="CX" localSheetId="0">Attributes!$C$418</definedName>
+    <definedName name="CY" localSheetId="0">Attributes!$C$419</definedName>
+    <definedName name="CZ" localSheetId="0">Attributes!$C$599</definedName>
+    <definedName name="DE" localSheetId="0">Attributes!$C$377</definedName>
+    <definedName name="DJ" localSheetId="0">Attributes!$C$434</definedName>
+    <definedName name="DK" localSheetId="0">Attributes!$C$433</definedName>
+    <definedName name="DM" localSheetId="0">Attributes!$C$436</definedName>
+    <definedName name="DO" localSheetId="0">Attributes!$C$435</definedName>
+    <definedName name="DZ" localSheetId="0">Attributes!$C$376</definedName>
+    <definedName name="EC" localSheetId="0">Attributes!$C$440</definedName>
+    <definedName name="EE" localSheetId="0">Attributes!$C$443</definedName>
+    <definedName name="EG" localSheetId="0">Attributes!$C$437</definedName>
+    <definedName name="EH" localSheetId="0">Attributes!$C$563</definedName>
+    <definedName name="ER" localSheetId="0">Attributes!$C$441</definedName>
+    <definedName name="ES" localSheetId="0">Attributes!$C$442</definedName>
+    <definedName name="ET" localSheetId="0">Attributes!$C$445</definedName>
+    <definedName name="FI" localSheetId="0">Attributes!$C$449</definedName>
+    <definedName name="FJ" localSheetId="0">Attributes!$C$448</definedName>
+    <definedName name="FK" localSheetId="0">Attributes!$C$446</definedName>
+    <definedName name="FM" localSheetId="0">Attributes!$C$520</definedName>
+    <definedName name="FO" localSheetId="0">Attributes!$C$447</definedName>
+    <definedName name="FR" localSheetId="0">Attributes!$C$450</definedName>
+    <definedName name="GA" localSheetId="0">Attributes!$C$451</definedName>
+    <definedName name="GB" localSheetId="0">Attributes!$C$560</definedName>
+    <definedName name="GD" localSheetId="0">Attributes!$C$458</definedName>
+    <definedName name="GE" localSheetId="0">Attributes!$C$453</definedName>
+    <definedName name="GF" localSheetId="0">Attributes!$C$468</definedName>
+    <definedName name="GG" localSheetId="0">Attributes!$C$463</definedName>
+    <definedName name="GH" localSheetId="0">Attributes!$C$455</definedName>
+    <definedName name="GI" localSheetId="0">Attributes!$C$456</definedName>
+    <definedName name="GL" localSheetId="0">Attributes!$C$459</definedName>
+    <definedName name="GM" localSheetId="0">Attributes!$C$452</definedName>
+    <definedName name="GN" localSheetId="0">Attributes!$C$464</definedName>
+    <definedName name="GP" localSheetId="0">Attributes!$C$460</definedName>
+    <definedName name="GQ" localSheetId="0">Attributes!$C$466</definedName>
+    <definedName name="GR" localSheetId="0">Attributes!$C$457</definedName>
+    <definedName name="GS" localSheetId="0">Attributes!$C$454</definedName>
+    <definedName name="GT" localSheetId="0">Attributes!$C$462</definedName>
+    <definedName name="GU" localSheetId="0">Attributes!$C$461</definedName>
+    <definedName name="GW" localSheetId="0">Attributes!$C$465</definedName>
+    <definedName name="GY" localSheetId="0">Attributes!$C$467</definedName>
+    <definedName name="HK" localSheetId="0">Attributes!$C$472</definedName>
+    <definedName name="HM" localSheetId="0">Attributes!$C$470</definedName>
+    <definedName name="HN" localSheetId="0">Attributes!$C$471</definedName>
+    <definedName name="HR" localSheetId="0">Attributes!$C$430</definedName>
+    <definedName name="HT" localSheetId="0">Attributes!$C$469</definedName>
+    <definedName name="HU" localSheetId="0">Attributes!$C$473</definedName>
+    <definedName name="ID" localSheetId="0">Attributes!$C$479</definedName>
+    <definedName name="IE" localSheetId="0">Attributes!$C$482</definedName>
+    <definedName name="IL" localSheetId="0">Attributes!$C$484</definedName>
+    <definedName name="IM" localSheetId="0">Attributes!$C$474</definedName>
+    <definedName name="IN" localSheetId="0">Attributes!$C$478</definedName>
+    <definedName name="IO" localSheetId="0">Attributes!$C$539</definedName>
+    <definedName name="IQ" localSheetId="0">Attributes!$C$481</definedName>
+    <definedName name="IR" localSheetId="0">Attributes!$C$480</definedName>
+    <definedName name="IS" localSheetId="0">Attributes!$C$483</definedName>
+    <definedName name="IT" localSheetId="0">Attributes!$C$485</definedName>
+    <definedName name="JE" localSheetId="0">Attributes!$C$488</definedName>
+    <definedName name="JM" localSheetId="0">Attributes!$C$486</definedName>
+    <definedName name="JO" localSheetId="0">Attributes!$C$489</definedName>
+    <definedName name="JP" localSheetId="0">Attributes!$C$487</definedName>
+    <definedName name="KE" localSheetId="0">Attributes!$C$491</definedName>
+    <definedName name="KG" localSheetId="0">Attributes!$C$492</definedName>
+    <definedName name="KH" localSheetId="0">Attributes!$C$411</definedName>
+    <definedName name="KI" localSheetId="0">Attributes!$C$493</definedName>
+    <definedName name="KM" localSheetId="0">Attributes!$C$422</definedName>
+    <definedName name="KN" localSheetId="0">Attributes!$C$567</definedName>
+    <definedName name="KP" localSheetId="0">Attributes!$C$427</definedName>
+    <definedName name="KR" localSheetId="0">Attributes!$C$426</definedName>
+    <definedName name="KW" localSheetId="0">Attributes!$C$494</definedName>
+    <definedName name="KY" localSheetId="0">Attributes!$C$410</definedName>
+    <definedName name="KZ" localSheetId="0">Attributes!$C$490</definedName>
+    <definedName name="LA" localSheetId="0">Attributes!$C$495</definedName>
+    <definedName name="LB" localSheetId="0">Attributes!$C$498</definedName>
+    <definedName name="LC" localSheetId="0">Attributes!$C$566</definedName>
+    <definedName name="LI" localSheetId="0">Attributes!$C$501</definedName>
+    <definedName name="LK" localSheetId="0">Attributes!$C$588</definedName>
+    <definedName name="LR" localSheetId="0">Attributes!$C$499</definedName>
+    <definedName name="LS" localSheetId="0">Attributes!$C$496</definedName>
+    <definedName name="LT" localSheetId="0">Attributes!$C$502</definedName>
+    <definedName name="LU" localSheetId="0">Attributes!$C$503</definedName>
+    <definedName name="LV" localSheetId="0">Attributes!$C$497</definedName>
+    <definedName name="LY" localSheetId="0">Attributes!$C$500</definedName>
+    <definedName name="MA" localSheetId="0">Attributes!$C$513</definedName>
+    <definedName name="MC" localSheetId="0">Attributes!$C$522</definedName>
+    <definedName name="MD" localSheetId="0">Attributes!$C$521</definedName>
+    <definedName name="ME" localSheetId="0">Attributes!$C$524</definedName>
+    <definedName name="MF" localSheetId="0">Attributes!$C$569</definedName>
+    <definedName name="MG" localSheetId="0">Attributes!$C$506</definedName>
+    <definedName name="MH" localSheetId="0">Attributes!$C$514</definedName>
+    <definedName name="MK" localSheetId="0">Attributes!$C$505</definedName>
+    <definedName name="ML" localSheetId="0">Attributes!$C$510</definedName>
+    <definedName name="MM" localSheetId="0">Attributes!$C$527</definedName>
+    <definedName name="MN" localSheetId="0">Attributes!$C$523</definedName>
+    <definedName name="MO" localSheetId="0">Attributes!$C$504</definedName>
+    <definedName name="MP" localSheetId="0">Attributes!$C$512</definedName>
+    <definedName name="MQ" localSheetId="0">Attributes!$C$515</definedName>
+    <definedName name="MR" localSheetId="0">Attributes!$C$517</definedName>
+    <definedName name="MS" localSheetId="0">Attributes!$C$525</definedName>
+    <definedName name="MT" localSheetId="0">Attributes!$C$511</definedName>
+    <definedName name="MU" localSheetId="0">Attributes!$C$516</definedName>
+    <definedName name="MV" localSheetId="0">Attributes!$C$509</definedName>
+    <definedName name="MW" localSheetId="0">Attributes!$C$508</definedName>
+    <definedName name="MX" localSheetId="0">Attributes!$C$519</definedName>
+    <definedName name="MY" localSheetId="0">Attributes!$C$507</definedName>
+    <definedName name="MZ" localSheetId="0">Attributes!$C$526</definedName>
+    <definedName name="NA" localSheetId="0">Attributes!$C$528</definedName>
+    <definedName name="NC" localSheetId="0">Attributes!$C$537</definedName>
+    <definedName name="NE" localSheetId="0">Attributes!$C$532</definedName>
+    <definedName name="NF" localSheetId="0">Attributes!$C$535</definedName>
+    <definedName name="NG" localSheetId="0">Attributes!$C$533</definedName>
+    <definedName name="NI" localSheetId="0">Attributes!$C$531</definedName>
+    <definedName name="NL" localSheetId="0">Attributes!$C$549</definedName>
+    <definedName name="NO" localSheetId="0">Attributes!$C$536</definedName>
+    <definedName name="NP" localSheetId="0">Attributes!$C$530</definedName>
+    <definedName name="NR" localSheetId="0">Attributes!$C$529</definedName>
+    <definedName name="NU" localSheetId="0">Attributes!$C$534</definedName>
+    <definedName name="NZ" localSheetId="0">Attributes!$C$538</definedName>
+    <definedName name="OM" localSheetId="0">Attributes!$C$540</definedName>
+    <definedName name="PA" localSheetId="0">Attributes!$C$546</definedName>
+    <definedName name="PE" localSheetId="0">Attributes!$C$550</definedName>
+    <definedName name="PF" localSheetId="0">Attributes!$C$554</definedName>
+    <definedName name="PG" localSheetId="0">Attributes!$C$547</definedName>
+    <definedName name="PH" localSheetId="0">Attributes!$C$551</definedName>
+    <definedName name="PK" localSheetId="0">Attributes!$C$543</definedName>
+    <definedName name="PL" localSheetId="0">Attributes!$C$553</definedName>
+    <definedName name="PM" localSheetId="0">Attributes!$C$571</definedName>
+    <definedName name="PN" localSheetId="0">Attributes!$C$552</definedName>
+    <definedName name="PR" localSheetId="0">Attributes!$C$555</definedName>
+    <definedName name="PS" localSheetId="0">Attributes!$C$545</definedName>
+    <definedName name="PT" localSheetId="0">Attributes!$C$556</definedName>
+    <definedName name="PW" localSheetId="0">Attributes!$C$544</definedName>
+    <definedName name="PY" localSheetId="0">Attributes!$C$548</definedName>
+    <definedName name="QA" localSheetId="0">Attributes!$C$557</definedName>
+    <definedName name="RE" localSheetId="0">Attributes!$C$558</definedName>
+    <definedName name="RO" localSheetId="0">Attributes!$C$559</definedName>
+    <definedName name="RS" localSheetId="0">Attributes!$C$579</definedName>
+    <definedName name="RU" localSheetId="0">Attributes!$C$561</definedName>
+    <definedName name="RW" localSheetId="0">Attributes!$C$562</definedName>
+    <definedName name="SA" localSheetId="0">Attributes!$C$383</definedName>
+    <definedName name="SB" localSheetId="0">Attributes!$C$574</definedName>
+    <definedName name="SC" localSheetId="0">Attributes!$C$580</definedName>
+    <definedName name="SD" localSheetId="0">Attributes!$C$586</definedName>
+    <definedName name="SE" localSheetId="0">Attributes!$C$589</definedName>
+    <definedName name="SG" localSheetId="0">Attributes!$C$582</definedName>
+    <definedName name="SH" localSheetId="0">Attributes!$C$565</definedName>
+    <definedName name="SI" localSheetId="0">Attributes!$C$584</definedName>
+    <definedName name="SJ" localSheetId="0">Attributes!$C$592</definedName>
+    <definedName name="SK" localSheetId="0">Attributes!$C$583</definedName>
+    <definedName name="SL" localSheetId="0">Attributes!$C$581</definedName>
+    <definedName name="SM" localSheetId="0">Attributes!$C$568</definedName>
+    <definedName name="SN" localSheetId="0">Attributes!$C$578</definedName>
+    <definedName name="SO" localSheetId="0">Attributes!$C$585</definedName>
+    <definedName name="SR" localSheetId="0">Attributes!$C$591</definedName>
+    <definedName name="SS" localSheetId="0">Attributes!$C$587</definedName>
+    <definedName name="ST" localSheetId="0">Attributes!$C$577</definedName>
+    <definedName name="SV" localSheetId="0">Attributes!$C$438</definedName>
+    <definedName name="SX" localSheetId="0">Attributes!$C$570</definedName>
+    <definedName name="SY" localSheetId="0">Attributes!$C$594</definedName>
+    <definedName name="SZ" localSheetId="0">Attributes!$C$593</definedName>
+    <definedName name="TC" localSheetId="0">Attributes!$C$609</definedName>
+    <definedName name="TD" localSheetId="0">Attributes!$C$598</definedName>
+    <definedName name="TF" localSheetId="0">Attributes!$C$600</definedName>
+    <definedName name="TG" localSheetId="0">Attributes!$C$603</definedName>
+    <definedName name="TH" localSheetId="0">Attributes!$C$601</definedName>
+    <definedName name="TJ" localSheetId="0">Attributes!$C$595</definedName>
+    <definedName name="TK" localSheetId="0">Attributes!$C$604</definedName>
+    <definedName name="TL" localSheetId="0">Attributes!$C$602</definedName>
+    <definedName name="TM" localSheetId="0">Attributes!$C$608</definedName>
+    <definedName name="TN" localSheetId="0">Attributes!$C$607</definedName>
+    <definedName name="TO" localSheetId="0">Attributes!$C$605</definedName>
+    <definedName name="TR" localSheetId="0">Attributes!$C$610</definedName>
+    <definedName name="TT" localSheetId="0">Attributes!$C$606</definedName>
+    <definedName name="TV" localSheetId="0">Attributes!$C$611</definedName>
+    <definedName name="TW" localSheetId="0">Attributes!$C$596</definedName>
+    <definedName name="TZ" localSheetId="0">Attributes!$C$597</definedName>
+    <definedName name="UA" localSheetId="0">Attributes!$C$612</definedName>
+    <definedName name="UG" localSheetId="0">Attributes!$C$541</definedName>
+    <definedName name="UM" localSheetId="0">Attributes!$C$475</definedName>
+    <definedName name="US" localSheetId="0">Attributes!$C$444</definedName>
+    <definedName name="UY" localSheetId="0">Attributes!$C$613</definedName>
+    <definedName name="UZ" localSheetId="0">Attributes!$C$542</definedName>
+    <definedName name="VA" localSheetId="0">Attributes!$C$572</definedName>
+    <definedName name="VC" localSheetId="0">Attributes!$C$573</definedName>
+    <definedName name="VE" localSheetId="0">Attributes!$C$615</definedName>
+    <definedName name="VG" localSheetId="0">Attributes!$C$476</definedName>
+    <definedName name="VI" localSheetId="0">Attributes!$C$477</definedName>
+    <definedName name="VN" localSheetId="0">Attributes!$C$616</definedName>
+    <definedName name="VU" localSheetId="0">Attributes!$C$614</definedName>
+    <definedName name="WF" localSheetId="0">Attributes!$C$617</definedName>
+    <definedName name="WS" localSheetId="0">Attributes!$C$575</definedName>
+    <definedName name="YE" localSheetId="0">Attributes!$C$618</definedName>
+    <definedName name="YT" localSheetId="0">Attributes!$C$518</definedName>
+    <definedName name="ZA" localSheetId="0">Attributes!$C$373</definedName>
+    <definedName name="ZM" localSheetId="0">Attributes!$C$619</definedName>
+    <definedName name="ZW" localSheetId="0">Attributes!$C$620</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1773" uniqueCount="1333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1885" uniqueCount="1375">
   <si>
     <t>identifier</t>
   </si>
@@ -4263,19 +4265,149 @@
   </si>
   <si>
     <t>Third place</t>
+  </si>
+  <si>
+    <t>start_date</t>
+  </si>
+  <si>
+    <t>end_date</t>
+  </si>
+  <si>
+    <t>participants</t>
+  </si>
+  <si>
+    <t>matchs</t>
+  </si>
+  <si>
+    <t>World Cup 2014</t>
+  </si>
+  <si>
+    <t>Chile</t>
+  </si>
+  <si>
+    <t>Côte d'Ivoire</t>
+  </si>
+  <si>
+    <t>Uruguay</t>
+  </si>
+  <si>
+    <t>Costa Rica</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>Honduras</t>
+  </si>
+  <si>
+    <t>Iran</t>
+  </si>
+  <si>
+    <t>Portugal</t>
+  </si>
+  <si>
+    <t>Ghana</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>Croatia</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t>Greece</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>England</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
+    <t>Argentina</t>
+  </si>
+  <si>
+    <t>Nigeria</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>Belgium</t>
+  </si>
+  <si>
+    <t>Algeria</t>
+  </si>
+  <si>
+    <t>Russia</t>
+  </si>
+  <si>
+    <t>South Korea</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>Ecuador</t>
+  </si>
+  <si>
+    <t>Cameroon</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>ISO2_COUNTRY_EN</t>
+  </si>
+  <si>
+    <t>ENGLAND</t>
+  </si>
+  <si>
+    <t>EN</t>
+  </si>
+  <si>
+    <t>Bosnia and Herzegovina</t>
+  </si>
+  <si>
+    <t>Brazil,Croatia,Mexico,Cameroon,Spain,Netherlands,Chile,Australia,Colombia,Greece,Côte d'Ivoire,Japan,Uruguay,Costa Rica,England,Italy,Switzerland,Ecuador,France,Honduras,Argentina,Bosnia and Herzegovina,Iran,Nigeria,Germany,Portugal,Ghana,USA,Belgium,Algeria,Russia,South Korea</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="2">
@@ -4295,18 +4427,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -4605,10 +4740,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1081"/>
+  <dimension ref="A1:E1082"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8:E8"/>
+    <sheetView topLeftCell="A295" workbookViewId="0">
+      <selection activeCell="A361" sqref="A361"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9110,13 +9245,13 @@
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>769</v>
+        <v>1370</v>
       </c>
       <c r="B265" t="s">
-        <v>770</v>
+        <v>1371</v>
       </c>
       <c r="C265" t="s">
-        <v>771</v>
+        <v>1372</v>
       </c>
       <c r="D265" t="s">
         <v>561</v>
@@ -9127,13 +9262,13 @@
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="B266" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="C266" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="D266" t="s">
         <v>561</v>
@@ -9144,13 +9279,13 @@
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="B267" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="C267" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="D267" t="s">
         <v>561</v>
@@ -9161,13 +9296,13 @@
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="B268" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="C268" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="D268" t="s">
         <v>561</v>
@@ -9178,13 +9313,13 @@
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="B269" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="C269" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="D269" t="s">
         <v>561</v>
@@ -9195,13 +9330,13 @@
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="B270" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="C270" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="D270" t="s">
         <v>561</v>
@@ -9212,13 +9347,13 @@
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="B271" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="C271" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="D271" t="s">
         <v>561</v>
@@ -9229,13 +9364,13 @@
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="B272" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="C272" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="D272" t="s">
         <v>561</v>
@@ -9246,13 +9381,13 @@
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="B273" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="C273" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="D273" t="s">
         <v>561</v>
@@ -9263,13 +9398,13 @@
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="B274" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="C274" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="D274" t="s">
         <v>561</v>
@@ -9280,13 +9415,13 @@
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="B275" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="C275" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="D275" t="s">
         <v>561</v>
@@ -9297,13 +9432,13 @@
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="B276" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="C276" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="D276" t="s">
         <v>561</v>
@@ -9314,13 +9449,13 @@
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="B277" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="C277" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="D277" t="s">
         <v>561</v>
@@ -9331,13 +9466,13 @@
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="B278" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="C278" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="D278" t="s">
         <v>561</v>
@@ -9348,13 +9483,13 @@
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="B279" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="C279" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="D279" t="s">
         <v>561</v>
@@ -9365,13 +9500,13 @@
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="B280" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="C280" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="D280" t="s">
         <v>561</v>
@@ -9382,13 +9517,13 @@
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="B281" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="C281" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="D281" t="s">
         <v>561</v>
@@ -9399,13 +9534,13 @@
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="B282" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="C282" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="D282" t="s">
         <v>561</v>
@@ -9416,13 +9551,13 @@
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="B283" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="C283" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="D283" t="s">
         <v>561</v>
@@ -9433,13 +9568,13 @@
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="B284" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="C284" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="D284" t="s">
         <v>561</v>
@@ -9450,13 +9585,13 @@
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="B285" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="C285" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="D285" t="s">
         <v>561</v>
@@ -9467,13 +9602,13 @@
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="B286" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="C286" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="D286" t="s">
         <v>561</v>
@@ -9484,13 +9619,13 @@
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="B287" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="C287" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="D287" t="s">
         <v>561</v>
@@ -9501,13 +9636,13 @@
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="B288" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="C288" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="D288" t="s">
         <v>561</v>
@@ -9518,13 +9653,13 @@
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="B289" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="C289" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="D289" t="s">
         <v>561</v>
@@ -9535,13 +9670,13 @@
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="B290" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="C290" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="D290" t="s">
         <v>561</v>
@@ -9552,13 +9687,13 @@
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="B291" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="C291" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="D291" t="s">
         <v>561</v>
@@ -9569,13 +9704,13 @@
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="B292" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="C292" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="D292" t="s">
         <v>561</v>
@@ -9586,13 +9721,13 @@
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="B293" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="C293" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="D293" t="s">
         <v>561</v>
@@ -9603,13 +9738,13 @@
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="B294" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="C294" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="D294" t="s">
         <v>561</v>
@@ -9620,13 +9755,13 @@
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="B295" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="C295" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="D295" t="s">
         <v>561</v>
@@ -9637,13 +9772,13 @@
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="B296" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="C296" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="D296" t="s">
         <v>561</v>
@@ -9654,13 +9789,13 @@
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="B297" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="C297" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="D297" t="s">
         <v>561</v>
@@ -9671,13 +9806,13 @@
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="B298" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="C298" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="D298" t="s">
         <v>561</v>
@@ -9688,13 +9823,13 @@
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="B299" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="C299" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="D299" t="s">
         <v>561</v>
@@ -9705,13 +9840,13 @@
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="B300" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="C300" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="D300" t="s">
         <v>561</v>
@@ -9722,13 +9857,13 @@
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="B301" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="C301" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="D301" t="s">
         <v>561</v>
@@ -9739,13 +9874,13 @@
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="B302" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="C302" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="D302" t="s">
         <v>561</v>
@@ -9756,13 +9891,13 @@
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="B303" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="C303" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="D303" t="s">
         <v>561</v>
@@ -9773,13 +9908,13 @@
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="B304" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="C304" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="D304" t="s">
         <v>561</v>
@@ -9790,13 +9925,13 @@
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="B305" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="C305" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="D305" t="s">
         <v>561</v>
@@ -9807,13 +9942,13 @@
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="B306" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="C306" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="D306" t="s">
         <v>561</v>
@@ -9824,13 +9959,13 @@
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="B307" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="C307" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="D307" t="s">
         <v>561</v>
@@ -9841,13 +9976,13 @@
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="B308" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="C308" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="D308" t="s">
         <v>561</v>
@@ -9858,13 +9993,13 @@
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="B309" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="C309" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="D309" t="s">
         <v>561</v>
@@ -9875,13 +10010,13 @@
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="B310" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="C310" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="D310" t="s">
         <v>561</v>
@@ -9892,13 +10027,13 @@
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="B311" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="C311" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="D311" t="s">
         <v>561</v>
@@ -9909,13 +10044,13 @@
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="B312" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="C312" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="D312" t="s">
         <v>561</v>
@@ -9926,13 +10061,13 @@
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="B313" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="C313" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
       <c r="D313" t="s">
         <v>561</v>
@@ -9943,13 +10078,13 @@
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="B314" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="C314" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
       <c r="D314" t="s">
         <v>561</v>
@@ -9960,13 +10095,13 @@
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="B315" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="C315" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="D315" t="s">
         <v>561</v>
@@ -9977,13 +10112,13 @@
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="B316" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="C316" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="D316" t="s">
         <v>561</v>
@@ -9994,13 +10129,13 @@
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="B317" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="C317" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="D317" t="s">
         <v>561</v>
@@ -10011,13 +10146,13 @@
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="B318" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="C318" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="D318" t="s">
         <v>561</v>
@@ -10028,13 +10163,13 @@
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="B319" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="C319" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="D319" t="s">
         <v>561</v>
@@ -10045,13 +10180,13 @@
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="B320" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="C320" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="D320" t="s">
         <v>561</v>
@@ -10062,13 +10197,13 @@
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="B321" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="C321" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="D321" t="s">
         <v>561</v>
@@ -10079,13 +10214,13 @@
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="B322" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="C322" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="D322" t="s">
         <v>561</v>
@@ -10096,13 +10231,13 @@
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="B323" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="C323" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="D323" t="s">
         <v>561</v>
@@ -10113,13 +10248,13 @@
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="B324" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="C324" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="D324" t="s">
         <v>561</v>
@@ -10130,13 +10265,13 @@
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="B325" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="C325" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="D325" t="s">
         <v>561</v>
@@ -10147,13 +10282,13 @@
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="B326" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="C326" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="D326" t="s">
         <v>561</v>
@@ -10164,13 +10299,13 @@
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="B327" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="C327" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
       <c r="D327" t="s">
         <v>561</v>
@@ -10181,13 +10316,13 @@
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
       <c r="B328" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
       <c r="C328" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
       <c r="D328" t="s">
         <v>561</v>
@@ -10198,13 +10333,13 @@
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="B329" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
       <c r="C329" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="D329" t="s">
         <v>561</v>
@@ -10215,13 +10350,13 @@
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
       <c r="B330" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="C330" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
       <c r="D330" t="s">
         <v>561</v>
@@ -10232,13 +10367,13 @@
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
       <c r="B331" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="C331" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
       <c r="D331" t="s">
         <v>561</v>
@@ -10249,13 +10384,13 @@
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
       <c r="B332" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
       <c r="C332" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
       <c r="D332" t="s">
         <v>561</v>
@@ -10266,13 +10401,13 @@
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
       <c r="B333" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
       <c r="C333" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="D333" t="s">
         <v>561</v>
@@ -10283,13 +10418,13 @@
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="B334" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="C334" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
       <c r="D334" t="s">
         <v>561</v>
@@ -10300,13 +10435,13 @@
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
       <c r="B335" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
       <c r="C335" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
       <c r="D335" t="s">
         <v>561</v>
@@ -10317,13 +10452,13 @@
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="B336" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
       <c r="C336" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
       <c r="D336" t="s">
         <v>561</v>
@@ -10334,13 +10469,13 @@
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
       <c r="B337" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
       <c r="C337" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
       <c r="D337" t="s">
         <v>561</v>
@@ -10351,13 +10486,13 @@
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
       <c r="B338" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
       <c r="C338" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
       <c r="D338" t="s">
         <v>561</v>
@@ -10368,13 +10503,13 @@
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="B339" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
       <c r="C339" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
       <c r="D339" t="s">
         <v>561</v>
@@ -10385,13 +10520,13 @@
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
       <c r="B340" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
       <c r="C340" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
       <c r="D340" t="s">
         <v>561</v>
@@ -10402,13 +10537,13 @@
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
       <c r="B341" t="s">
-        <v>998</v>
+        <v>995</v>
       </c>
       <c r="C341" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
       <c r="D341" t="s">
         <v>561</v>
@@ -10419,13 +10554,13 @@
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
       <c r="B342" t="s">
-        <v>1001</v>
+        <v>998</v>
       </c>
       <c r="C342" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="D342" t="s">
         <v>561</v>
@@ -10436,13 +10571,13 @@
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="B343" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="C343" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="D343" t="s">
         <v>561</v>
@@ -10453,13 +10588,13 @@
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="B344" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="C344" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="D344" t="s">
         <v>561</v>
@@ -10470,13 +10605,13 @@
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="B345" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="C345" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
       <c r="D345" t="s">
         <v>561</v>
@@ -10487,13 +10622,13 @@
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
       <c r="B346" t="s">
-        <v>1013</v>
+        <v>1010</v>
       </c>
       <c r="C346" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="D346" t="s">
         <v>561</v>
@@ -10504,13 +10639,13 @@
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="B347" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
       <c r="C347" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
       <c r="D347" t="s">
         <v>561</v>
@@ -10521,13 +10656,13 @@
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>1018</v>
+        <v>1015</v>
       </c>
       <c r="B348" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="C348" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="D348" t="s">
         <v>561</v>
@@ -10538,13 +10673,13 @@
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="B349" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
       <c r="C349" t="s">
-        <v>1023</v>
+        <v>1020</v>
       </c>
       <c r="D349" t="s">
         <v>561</v>
@@ -10555,13 +10690,13 @@
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
       <c r="B350" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
       <c r="C350" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
       <c r="D350" t="s">
         <v>561</v>
@@ -10572,13 +10707,13 @@
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
       <c r="B351" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
       <c r="C351" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
       <c r="D351" t="s">
         <v>561</v>
@@ -10589,13 +10724,13 @@
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
       <c r="B352" t="s">
-        <v>1031</v>
+        <v>1028</v>
       </c>
       <c r="C352" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="D352" t="s">
         <v>561</v>
@@ -10606,13 +10741,13 @@
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
       <c r="B353" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
       <c r="C353" t="s">
-        <v>1035</v>
+        <v>1032</v>
       </c>
       <c r="D353" t="s">
         <v>561</v>
@@ -10623,13 +10758,13 @@
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
       <c r="B354" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
       <c r="C354" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="D354" t="s">
         <v>561</v>
@@ -10640,13 +10775,13 @@
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
       <c r="B355" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
       <c r="C355" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
       <c r="D355" t="s">
         <v>561</v>
@@ -10657,13 +10792,13 @@
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>1042</v>
+        <v>1039</v>
       </c>
       <c r="B356" t="s">
-        <v>1043</v>
+        <v>1040</v>
       </c>
       <c r="C356" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
       <c r="D356" t="s">
         <v>561</v>
@@ -10674,13 +10809,13 @@
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
       <c r="B357" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
       <c r="C357" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="D357" t="s">
         <v>561</v>
@@ -10691,13 +10826,13 @@
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
       <c r="B358" t="s">
-        <v>1049</v>
+        <v>1046</v>
       </c>
       <c r="C358" t="s">
-        <v>1050</v>
+        <v>1047</v>
       </c>
       <c r="D358" t="s">
         <v>561</v>
@@ -10708,13 +10843,13 @@
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>1051</v>
+        <v>1048</v>
       </c>
       <c r="B359" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="C359" t="s">
-        <v>1053</v>
+        <v>1050</v>
       </c>
       <c r="D359" t="s">
         <v>561</v>
@@ -10725,13 +10860,13 @@
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="B360" t="s">
-        <v>1055</v>
+        <v>1052</v>
       </c>
       <c r="C360" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
       <c r="D360" t="s">
         <v>561</v>
@@ -10742,13 +10877,13 @@
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>1057</v>
+        <v>1054</v>
       </c>
       <c r="B361" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
       <c r="C361" t="s">
-        <v>1059</v>
+        <v>1056</v>
       </c>
       <c r="D361" t="s">
         <v>561</v>
@@ -10759,13 +10894,13 @@
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
       <c r="B362" t="s">
-        <v>1061</v>
+        <v>1058</v>
       </c>
       <c r="C362" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
       <c r="D362" t="s">
         <v>561</v>
@@ -10776,13 +10911,13 @@
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>1063</v>
+        <v>1060</v>
       </c>
       <c r="B363" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="C363" t="s">
-        <v>1065</v>
+        <v>1062</v>
       </c>
       <c r="D363" t="s">
         <v>561</v>
@@ -10793,13 +10928,13 @@
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>1066</v>
+        <v>1063</v>
       </c>
       <c r="B364" t="s">
-        <v>1067</v>
+        <v>1064</v>
       </c>
       <c r="C364" t="s">
-        <v>1068</v>
+        <v>1065</v>
       </c>
       <c r="D364" t="s">
         <v>561</v>
@@ -10810,13 +10945,13 @@
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>1069</v>
+        <v>1066</v>
       </c>
       <c r="B365" t="s">
-        <v>1070</v>
+        <v>1067</v>
       </c>
       <c r="C365" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
       <c r="D365" t="s">
         <v>561</v>
@@ -10827,13 +10962,13 @@
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="B366" t="s">
-        <v>1073</v>
+        <v>1070</v>
       </c>
       <c r="C366" t="s">
-        <v>1074</v>
+        <v>1071</v>
       </c>
       <c r="D366" t="s">
         <v>561</v>
@@ -10844,13 +10979,13 @@
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>1075</v>
+        <v>1072</v>
       </c>
       <c r="B367" t="s">
-        <v>1076</v>
+        <v>1073</v>
       </c>
       <c r="C367" t="s">
-        <v>1077</v>
+        <v>1074</v>
       </c>
       <c r="D367" t="s">
         <v>561</v>
@@ -10861,13 +10996,13 @@
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>1078</v>
+        <v>1075</v>
       </c>
       <c r="B368" t="s">
-        <v>1079</v>
+        <v>1076</v>
       </c>
       <c r="C368" t="s">
-        <v>1080</v>
+        <v>1077</v>
       </c>
       <c r="D368" t="s">
         <v>561</v>
@@ -10878,13 +11013,13 @@
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>1081</v>
+        <v>1078</v>
       </c>
       <c r="B369" t="s">
-        <v>1082</v>
+        <v>1079</v>
       </c>
       <c r="C369" t="s">
-        <v>1083</v>
+        <v>1080</v>
       </c>
       <c r="D369" t="s">
         <v>561</v>
@@ -10895,13 +11030,13 @@
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>1084</v>
+        <v>1081</v>
       </c>
       <c r="B370" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="C370" t="s">
-        <v>1086</v>
+        <v>1083</v>
       </c>
       <c r="D370" t="s">
         <v>561</v>
@@ -10912,13 +11047,13 @@
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>1087</v>
-      </c>
-      <c r="B371" s="1" t="s">
-        <v>1088</v>
-      </c>
-      <c r="C371" s="1" t="s">
-        <v>1089</v>
+        <v>1084</v>
+      </c>
+      <c r="B371" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C371" t="s">
+        <v>1086</v>
       </c>
       <c r="D371" t="s">
         <v>561</v>
@@ -10929,13 +11064,13 @@
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
       <c r="C372" s="1" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="D372" t="s">
         <v>561</v>
@@ -10946,13 +11081,13 @@
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="B373" s="1" t="s">
-        <v>1094</v>
+        <v>1091</v>
       </c>
       <c r="C373" s="1" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="D373" t="s">
         <v>561</v>
@@ -10963,13 +11098,13 @@
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>1097</v>
+        <v>1094</v>
       </c>
       <c r="C374" s="1" t="s">
-        <v>1098</v>
+        <v>1095</v>
       </c>
       <c r="D374" t="s">
         <v>561</v>
@@ -10980,13 +11115,13 @@
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B375" s="1" t="s">
-        <v>1100</v>
+        <v>1097</v>
       </c>
       <c r="C375" s="1" t="s">
-        <v>1101</v>
+        <v>1098</v>
       </c>
       <c r="D375" t="s">
         <v>561</v>
@@ -10997,13 +11132,13 @@
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>1102</v>
+        <v>1099</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>1103</v>
+        <v>1100</v>
       </c>
       <c r="C376" s="1" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="D376" t="s">
         <v>561</v>
@@ -11014,13 +11149,13 @@
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>1105</v>
+        <v>1102</v>
       </c>
       <c r="B377" s="1" t="s">
-        <v>1106</v>
+        <v>1103</v>
       </c>
       <c r="C377" s="1" t="s">
-        <v>1107</v>
+        <v>1104</v>
       </c>
       <c r="D377" t="s">
         <v>561</v>
@@ -11031,13 +11166,13 @@
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>1108</v>
+        <v>1105</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>1109</v>
+        <v>1106</v>
       </c>
       <c r="C378" s="1" t="s">
-        <v>1110</v>
+        <v>1107</v>
       </c>
       <c r="D378" t="s">
         <v>561</v>
@@ -11048,13 +11183,13 @@
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="B379" s="1" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
       <c r="C379" s="1" t="s">
-        <v>1113</v>
+        <v>1110</v>
       </c>
       <c r="D379" t="s">
         <v>561</v>
@@ -11065,13 +11200,13 @@
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>1114</v>
+        <v>1111</v>
       </c>
       <c r="B380" s="1" t="s">
-        <v>1115</v>
+        <v>1112</v>
       </c>
       <c r="C380" s="1" t="s">
-        <v>1116</v>
+        <v>1113</v>
       </c>
       <c r="D380" t="s">
         <v>561</v>
@@ -11082,13 +11217,13 @@
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>1117</v>
+        <v>1114</v>
       </c>
       <c r="B381" s="1" t="s">
-        <v>1118</v>
+        <v>1115</v>
       </c>
       <c r="C381" s="1" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
       <c r="D381" t="s">
         <v>561</v>
@@ -11099,13 +11234,13 @@
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>1120</v>
+        <v>1117</v>
       </c>
       <c r="B382" s="1" t="s">
-        <v>1121</v>
+        <v>1118</v>
       </c>
       <c r="C382" s="1" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
       <c r="D382" t="s">
         <v>561</v>
@@ -11116,13 +11251,13 @@
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="B383" s="1" t="s">
-        <v>1124</v>
+        <v>1121</v>
       </c>
       <c r="C383" s="1" t="s">
-        <v>1125</v>
+        <v>1122</v>
       </c>
       <c r="D383" t="s">
         <v>561</v>
@@ -11133,13 +11268,13 @@
     </row>
     <row r="384" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="B384" s="1" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="C384" s="1" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="D384" t="s">
         <v>561</v>
@@ -11150,13 +11285,13 @@
     </row>
     <row r="385" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>1129</v>
+        <v>1126</v>
       </c>
       <c r="B385" s="1" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
       <c r="C385" s="1" t="s">
-        <v>1131</v>
+        <v>1128</v>
       </c>
       <c r="D385" t="s">
         <v>561</v>
@@ -11167,13 +11302,13 @@
     </row>
     <row r="386" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>1132</v>
+        <v>1129</v>
       </c>
       <c r="B386" s="1" t="s">
-        <v>1133</v>
+        <v>1130</v>
       </c>
       <c r="C386" s="1" t="s">
-        <v>1134</v>
+        <v>1131</v>
       </c>
       <c r="D386" t="s">
         <v>561</v>
@@ -11184,13 +11319,13 @@
     </row>
     <row r="387" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>1135</v>
+        <v>1132</v>
       </c>
       <c r="B387" s="1" t="s">
-        <v>1136</v>
+        <v>1133</v>
       </c>
       <c r="C387" s="1" t="s">
-        <v>1137</v>
+        <v>1134</v>
       </c>
       <c r="D387" t="s">
         <v>561</v>
@@ -11201,13 +11336,13 @@
     </row>
     <row r="388" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>1138</v>
+        <v>1135</v>
       </c>
       <c r="B388" s="1" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
       <c r="C388" s="1" t="s">
-        <v>1140</v>
+        <v>1137</v>
       </c>
       <c r="D388" t="s">
         <v>561</v>
@@ -11218,13 +11353,13 @@
     </row>
     <row r="389" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>1141</v>
+        <v>1138</v>
       </c>
       <c r="B389" s="1" t="s">
-        <v>1142</v>
+        <v>1139</v>
       </c>
       <c r="C389" s="1" t="s">
-        <v>1143</v>
+        <v>1140</v>
       </c>
       <c r="D389" t="s">
         <v>561</v>
@@ -11235,13 +11370,13 @@
     </row>
     <row r="390" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>1144</v>
+        <v>1141</v>
       </c>
       <c r="B390" s="1" t="s">
-        <v>1145</v>
+        <v>1142</v>
       </c>
       <c r="C390" s="1" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
       <c r="D390" t="s">
         <v>561</v>
@@ -11252,13 +11387,13 @@
     </row>
     <row r="391" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>1147</v>
+        <v>1144</v>
       </c>
       <c r="B391" s="1" t="s">
-        <v>1148</v>
+        <v>1145</v>
       </c>
       <c r="C391" s="1" t="s">
-        <v>1149</v>
+        <v>1146</v>
       </c>
       <c r="D391" t="s">
         <v>561</v>
@@ -11269,13 +11404,13 @@
     </row>
     <row r="392" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>1150</v>
+        <v>1147</v>
       </c>
       <c r="B392" s="1" t="s">
-        <v>1151</v>
+        <v>1148</v>
       </c>
       <c r="C392" s="1" t="s">
-        <v>1152</v>
+        <v>1149</v>
       </c>
       <c r="D392" t="s">
         <v>561</v>
@@ -11286,13 +11421,13 @@
     </row>
     <row r="393" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>1153</v>
+        <v>1150</v>
       </c>
       <c r="B393" s="1" t="s">
-        <v>1154</v>
+        <v>1151</v>
       </c>
       <c r="C393" s="1" t="s">
-        <v>1155</v>
+        <v>1152</v>
       </c>
       <c r="D393" t="s">
         <v>561</v>
@@ -11303,13 +11438,13 @@
     </row>
     <row r="394" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>1156</v>
+        <v>1153</v>
       </c>
       <c r="B394" s="1" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
       <c r="C394" s="1" t="s">
-        <v>1158</v>
+        <v>1155</v>
       </c>
       <c r="D394" t="s">
         <v>561</v>
@@ -11320,13 +11455,13 @@
     </row>
     <row r="395" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>1159</v>
+        <v>1156</v>
       </c>
       <c r="B395" s="1" t="s">
-        <v>1160</v>
+        <v>1157</v>
       </c>
       <c r="C395" s="1" t="s">
-        <v>1161</v>
+        <v>1158</v>
       </c>
       <c r="D395" t="s">
         <v>561</v>
@@ -11337,13 +11472,13 @@
     </row>
     <row r="396" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>1162</v>
+        <v>1159</v>
       </c>
       <c r="B396" s="1" t="s">
-        <v>1163</v>
+        <v>1160</v>
       </c>
       <c r="C396" s="1" t="s">
-        <v>1164</v>
+        <v>1161</v>
       </c>
       <c r="D396" t="s">
         <v>561</v>
@@ -11354,13 +11489,13 @@
     </row>
     <row r="397" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>1165</v>
+        <v>1162</v>
       </c>
       <c r="B397" s="1" t="s">
-        <v>1166</v>
+        <v>1163</v>
       </c>
       <c r="C397" s="1" t="s">
-        <v>1167</v>
+        <v>1164</v>
       </c>
       <c r="D397" t="s">
         <v>561</v>
@@ -11371,13 +11506,13 @@
     </row>
     <row r="398" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>1168</v>
+        <v>1165</v>
       </c>
       <c r="B398" s="1" t="s">
-        <v>1169</v>
+        <v>1166</v>
       </c>
       <c r="C398" s="1" t="s">
-        <v>1170</v>
+        <v>1167</v>
       </c>
       <c r="D398" t="s">
         <v>561</v>
@@ -11388,13 +11523,13 @@
     </row>
     <row r="399" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>1171</v>
+        <v>1168</v>
       </c>
       <c r="B399" s="1" t="s">
-        <v>1172</v>
+        <v>1169</v>
       </c>
       <c r="C399" s="1" t="s">
-        <v>1173</v>
+        <v>1170</v>
       </c>
       <c r="D399" t="s">
         <v>561</v>
@@ -11405,13 +11540,13 @@
     </row>
     <row r="400" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>1174</v>
+        <v>1171</v>
       </c>
       <c r="B400" s="1" t="s">
-        <v>1175</v>
+        <v>1172</v>
       </c>
       <c r="C400" s="1" t="s">
-        <v>1176</v>
+        <v>1173</v>
       </c>
       <c r="D400" t="s">
         <v>561</v>
@@ -11422,13 +11557,13 @@
     </row>
     <row r="401" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>1177</v>
+        <v>1174</v>
       </c>
       <c r="B401" s="1" t="s">
-        <v>1178</v>
+        <v>1175</v>
       </c>
       <c r="C401" s="1" t="s">
-        <v>1179</v>
+        <v>1176</v>
       </c>
       <c r="D401" t="s">
         <v>561</v>
@@ -11439,13 +11574,13 @@
     </row>
     <row r="402" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>1180</v>
+        <v>1177</v>
       </c>
       <c r="B402" s="1" t="s">
-        <v>1181</v>
+        <v>1178</v>
       </c>
       <c r="C402" s="1" t="s">
-        <v>1182</v>
+        <v>1179</v>
       </c>
       <c r="D402" t="s">
         <v>561</v>
@@ -11456,13 +11591,13 @@
     </row>
     <row r="403" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
       <c r="B403" s="1" t="s">
-        <v>1184</v>
+        <v>1181</v>
       </c>
       <c r="C403" s="1" t="s">
-        <v>1185</v>
+        <v>1182</v>
       </c>
       <c r="D403" t="s">
         <v>561</v>
@@ -11473,13 +11608,13 @@
     </row>
     <row r="404" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>1186</v>
+        <v>1183</v>
       </c>
       <c r="B404" s="1" t="s">
-        <v>1187</v>
+        <v>1184</v>
       </c>
       <c r="C404" s="1" t="s">
-        <v>1188</v>
+        <v>1185</v>
       </c>
       <c r="D404" t="s">
         <v>561</v>
@@ -11490,13 +11625,13 @@
     </row>
     <row r="405" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>1189</v>
+        <v>1186</v>
       </c>
       <c r="B405" s="1" t="s">
-        <v>1190</v>
+        <v>1187</v>
       </c>
       <c r="C405" s="1" t="s">
-        <v>1191</v>
+        <v>1188</v>
       </c>
       <c r="D405" t="s">
         <v>561</v>
@@ -11507,13 +11642,13 @@
     </row>
     <row r="406" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
-        <v>1192</v>
+        <v>1189</v>
       </c>
       <c r="B406" s="1" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
       <c r="C406" s="1" t="s">
-        <v>1194</v>
+        <v>1191</v>
       </c>
       <c r="D406" t="s">
         <v>561</v>
@@ -11524,13 +11659,13 @@
     </row>
     <row r="407" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
       <c r="B407" s="1" t="s">
-        <v>1196</v>
+        <v>1193</v>
       </c>
       <c r="C407" s="1" t="s">
-        <v>1197</v>
+        <v>1194</v>
       </c>
       <c r="D407" t="s">
         <v>561</v>
@@ -11541,13 +11676,13 @@
     </row>
     <row r="408" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>1198</v>
+        <v>1195</v>
       </c>
       <c r="B408" s="1" t="s">
-        <v>1199</v>
+        <v>1196</v>
       </c>
       <c r="C408" s="1" t="s">
-        <v>1200</v>
+        <v>1197</v>
       </c>
       <c r="D408" t="s">
         <v>561</v>
@@ -11558,13 +11693,13 @@
     </row>
     <row r="409" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
-        <v>1201</v>
+        <v>1198</v>
       </c>
       <c r="B409" s="1" t="s">
-        <v>1202</v>
+        <v>1199</v>
       </c>
       <c r="C409" s="1" t="s">
-        <v>1203</v>
+        <v>1200</v>
       </c>
       <c r="D409" t="s">
         <v>561</v>
@@ -11575,13 +11710,13 @@
     </row>
     <row r="410" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
-        <v>1204</v>
+        <v>1201</v>
       </c>
       <c r="B410" s="1" t="s">
-        <v>1205</v>
+        <v>1202</v>
       </c>
       <c r="C410" s="1" t="s">
-        <v>1206</v>
+        <v>1203</v>
       </c>
       <c r="D410" t="s">
         <v>561</v>
@@ -11592,13 +11727,13 @@
     </row>
     <row r="411" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>1207</v>
+        <v>1204</v>
       </c>
       <c r="B411" s="1" t="s">
-        <v>1208</v>
+        <v>1205</v>
       </c>
       <c r="C411" s="1" t="s">
-        <v>1209</v>
+        <v>1206</v>
       </c>
       <c r="D411" t="s">
         <v>561</v>
@@ -11609,13 +11744,13 @@
     </row>
     <row r="412" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
-        <v>1210</v>
+        <v>1207</v>
       </c>
       <c r="B412" s="1" t="s">
-        <v>1211</v>
+        <v>1208</v>
       </c>
       <c r="C412" s="1" t="s">
-        <v>1212</v>
+        <v>1209</v>
       </c>
       <c r="D412" t="s">
         <v>561</v>
@@ -11626,13 +11761,13 @@
     </row>
     <row r="413" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
       <c r="B413" s="1" t="s">
-        <v>1214</v>
+        <v>1211</v>
       </c>
       <c r="C413" s="1" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
       <c r="D413" t="s">
         <v>561</v>
@@ -11643,13 +11778,13 @@
     </row>
     <row r="414" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
-        <v>1216</v>
+        <v>1213</v>
       </c>
       <c r="B414" s="1" t="s">
-        <v>1217</v>
+        <v>1214</v>
       </c>
       <c r="C414" s="1" t="s">
-        <v>1218</v>
+        <v>1215</v>
       </c>
       <c r="D414" t="s">
         <v>561</v>
@@ -11660,13 +11795,13 @@
     </row>
     <row r="415" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
-        <v>1219</v>
+        <v>1216</v>
       </c>
       <c r="B415" s="1" t="s">
-        <v>1220</v>
+        <v>1217</v>
       </c>
       <c r="C415" s="1" t="s">
-        <v>1221</v>
+        <v>1218</v>
       </c>
       <c r="D415" t="s">
         <v>561</v>
@@ -11677,13 +11812,13 @@
     </row>
     <row r="416" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
-        <v>1222</v>
+        <v>1219</v>
       </c>
       <c r="B416" s="1" t="s">
-        <v>1223</v>
+        <v>1220</v>
       </c>
       <c r="C416" s="1" t="s">
-        <v>1224</v>
+        <v>1221</v>
       </c>
       <c r="D416" t="s">
         <v>561</v>
@@ -11694,13 +11829,13 @@
     </row>
     <row r="417" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
-        <v>1225</v>
+        <v>1222</v>
       </c>
       <c r="B417" s="1" t="s">
-        <v>1226</v>
+        <v>1223</v>
       </c>
       <c r="C417" s="1" t="s">
-        <v>1227</v>
+        <v>1224</v>
       </c>
       <c r="D417" t="s">
         <v>561</v>
@@ -11711,13 +11846,13 @@
     </row>
     <row r="418" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
-        <v>1228</v>
+        <v>1225</v>
       </c>
       <c r="B418" s="1" t="s">
-        <v>1229</v>
+        <v>1226</v>
       </c>
       <c r="C418" s="1" t="s">
-        <v>1230</v>
+        <v>1227</v>
       </c>
       <c r="D418" t="s">
         <v>561</v>
@@ -11728,13 +11863,13 @@
     </row>
     <row r="419" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
-        <v>1231</v>
+        <v>1228</v>
       </c>
       <c r="B419" s="1" t="s">
-        <v>1232</v>
+        <v>1229</v>
       </c>
       <c r="C419" s="1" t="s">
-        <v>1233</v>
+        <v>1230</v>
       </c>
       <c r="D419" t="s">
         <v>561</v>
@@ -11745,13 +11880,13 @@
     </row>
     <row r="420" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
-        <v>1234</v>
+        <v>1231</v>
       </c>
       <c r="B420" s="1" t="s">
-        <v>1235</v>
+        <v>1232</v>
       </c>
       <c r="C420" s="1" t="s">
-        <v>1236</v>
+        <v>1233</v>
       </c>
       <c r="D420" t="s">
         <v>561</v>
@@ -11762,13 +11897,13 @@
     </row>
     <row r="421" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
-        <v>1237</v>
+        <v>1234</v>
       </c>
       <c r="B421" s="1" t="s">
-        <v>1238</v>
+        <v>1235</v>
       </c>
       <c r="C421" s="1" t="s">
-        <v>1239</v>
+        <v>1236</v>
       </c>
       <c r="D421" t="s">
         <v>561</v>
@@ -11779,13 +11914,13 @@
     </row>
     <row r="422" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
-        <v>1240</v>
+        <v>1237</v>
       </c>
       <c r="B422" s="1" t="s">
-        <v>1241</v>
+        <v>1238</v>
       </c>
       <c r="C422" s="1" t="s">
-        <v>1242</v>
+        <v>1239</v>
       </c>
       <c r="D422" t="s">
         <v>561</v>
@@ -11796,13 +11931,13 @@
     </row>
     <row r="423" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
-        <v>1243</v>
+        <v>1240</v>
       </c>
       <c r="B423" s="1" t="s">
-        <v>1244</v>
+        <v>1241</v>
       </c>
       <c r="C423" s="1" t="s">
-        <v>1245</v>
+        <v>1242</v>
       </c>
       <c r="D423" t="s">
         <v>561</v>
@@ -11813,13 +11948,13 @@
     </row>
     <row r="424" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
-        <v>1246</v>
+        <v>1243</v>
       </c>
       <c r="B424" s="1" t="s">
-        <v>1247</v>
+        <v>1244</v>
       </c>
       <c r="C424" s="1" t="s">
-        <v>1248</v>
+        <v>1245</v>
       </c>
       <c r="D424" t="s">
         <v>561</v>
@@ -11830,13 +11965,13 @@
     </row>
     <row r="425" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
-        <v>1249</v>
+        <v>1246</v>
       </c>
       <c r="B425" s="1" t="s">
-        <v>1250</v>
+        <v>1247</v>
       </c>
       <c r="C425" s="1" t="s">
-        <v>1251</v>
+        <v>1248</v>
       </c>
       <c r="D425" t="s">
         <v>561</v>
@@ -11847,13 +11982,13 @@
     </row>
     <row r="426" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
-        <v>1252</v>
+        <v>1249</v>
       </c>
       <c r="B426" s="1" t="s">
-        <v>1253</v>
+        <v>1250</v>
       </c>
       <c r="C426" s="1" t="s">
-        <v>1254</v>
+        <v>1251</v>
       </c>
       <c r="D426" t="s">
         <v>561</v>
@@ -11864,13 +11999,13 @@
     </row>
     <row r="427" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
-        <v>1255</v>
+        <v>1252</v>
       </c>
       <c r="B427" s="1" t="s">
-        <v>1256</v>
+        <v>1253</v>
       </c>
       <c r="C427" s="1" t="s">
-        <v>1257</v>
+        <v>1254</v>
       </c>
       <c r="D427" t="s">
         <v>561</v>
@@ -11881,13 +12016,13 @@
     </row>
     <row r="428" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
       <c r="B428" s="1" t="s">
-        <v>1259</v>
+        <v>1256</v>
       </c>
       <c r="C428" s="1" t="s">
-        <v>1260</v>
+        <v>1257</v>
       </c>
       <c r="D428" t="s">
         <v>561</v>
@@ -11898,13 +12033,13 @@
     </row>
     <row r="429" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
-        <v>1261</v>
+        <v>1258</v>
       </c>
       <c r="B429" s="1" t="s">
-        <v>1262</v>
+        <v>1259</v>
       </c>
       <c r="C429" s="1" t="s">
-        <v>1263</v>
+        <v>1260</v>
       </c>
       <c r="D429" t="s">
         <v>561</v>
@@ -11915,13 +12050,13 @@
     </row>
     <row r="430" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
-        <v>1264</v>
+        <v>1261</v>
       </c>
       <c r="B430" s="1" t="s">
-        <v>1265</v>
+        <v>1262</v>
       </c>
       <c r="C430" s="1" t="s">
-        <v>1266</v>
+        <v>1263</v>
       </c>
       <c r="D430" t="s">
         <v>561</v>
@@ -11932,13 +12067,13 @@
     </row>
     <row r="431" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
-        <v>1267</v>
+        <v>1264</v>
       </c>
       <c r="B431" s="1" t="s">
-        <v>1268</v>
+        <v>1265</v>
       </c>
       <c r="C431" s="1" t="s">
-        <v>1269</v>
+        <v>1266</v>
       </c>
       <c r="D431" t="s">
         <v>561</v>
@@ -11949,13 +12084,13 @@
     </row>
     <row r="432" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
-        <v>1270</v>
+        <v>1267</v>
       </c>
       <c r="B432" s="1" t="s">
-        <v>1271</v>
+        <v>1268</v>
       </c>
       <c r="C432" s="1" t="s">
-        <v>1272</v>
+        <v>1269</v>
       </c>
       <c r="D432" t="s">
         <v>561</v>
@@ -11966,13 +12101,13 @@
     </row>
     <row r="433" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
-        <v>1273</v>
+        <v>1270</v>
       </c>
       <c r="B433" s="1" t="s">
-        <v>1274</v>
+        <v>1271</v>
       </c>
       <c r="C433" s="1" t="s">
-        <v>1275</v>
+        <v>1272</v>
       </c>
       <c r="D433" t="s">
         <v>561</v>
@@ -11983,13 +12118,13 @@
     </row>
     <row r="434" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
-        <v>1276</v>
+        <v>1273</v>
       </c>
       <c r="B434" s="1" t="s">
-        <v>1277</v>
+        <v>1274</v>
       </c>
       <c r="C434" s="1" t="s">
-        <v>1278</v>
+        <v>1275</v>
       </c>
       <c r="D434" t="s">
         <v>561</v>
@@ -12000,13 +12135,13 @@
     </row>
     <row r="435" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
-        <v>1279</v>
+        <v>1276</v>
       </c>
       <c r="B435" s="1" t="s">
-        <v>1280</v>
+        <v>1277</v>
       </c>
       <c r="C435" s="1" t="s">
-        <v>1281</v>
+        <v>1278</v>
       </c>
       <c r="D435" t="s">
         <v>561</v>
@@ -12017,13 +12152,13 @@
     </row>
     <row r="436" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
-        <v>1282</v>
+        <v>1279</v>
       </c>
       <c r="B436" s="1" t="s">
-        <v>1283</v>
+        <v>1280</v>
       </c>
       <c r="C436" s="1" t="s">
-        <v>1284</v>
+        <v>1281</v>
       </c>
       <c r="D436" t="s">
         <v>561</v>
@@ -12034,13 +12169,13 @@
     </row>
     <row r="437" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
-        <v>1285</v>
+        <v>1282</v>
       </c>
       <c r="B437" s="1" t="s">
-        <v>1286</v>
+        <v>1283</v>
       </c>
       <c r="C437" s="1" t="s">
-        <v>1287</v>
+        <v>1284</v>
       </c>
       <c r="D437" t="s">
         <v>561</v>
@@ -12051,13 +12186,13 @@
     </row>
     <row r="438" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
-        <v>1288</v>
+        <v>1285</v>
       </c>
       <c r="B438" s="1" t="s">
-        <v>1289</v>
+        <v>1286</v>
       </c>
       <c r="C438" s="1" t="s">
-        <v>1290</v>
+        <v>1287</v>
       </c>
       <c r="D438" t="s">
         <v>561</v>
@@ -12068,13 +12203,13 @@
     </row>
     <row r="439" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
-        <v>1291</v>
+        <v>1288</v>
       </c>
       <c r="B439" s="1" t="s">
-        <v>1292</v>
+        <v>1289</v>
       </c>
       <c r="C439" s="1" t="s">
-        <v>1293</v>
+        <v>1290</v>
       </c>
       <c r="D439" t="s">
         <v>561</v>
@@ -12085,13 +12220,13 @@
     </row>
     <row r="440" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
-        <v>1294</v>
+        <v>1291</v>
       </c>
       <c r="B440" s="1" t="s">
-        <v>1295</v>
+        <v>1292</v>
       </c>
       <c r="C440" s="1" t="s">
-        <v>1296</v>
+        <v>1293</v>
       </c>
       <c r="D440" t="s">
         <v>561</v>
@@ -12102,13 +12237,13 @@
     </row>
     <row r="441" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
-        <v>1297</v>
+        <v>1294</v>
       </c>
       <c r="B441" s="1" t="s">
-        <v>1298</v>
+        <v>1295</v>
       </c>
       <c r="C441" s="1" t="s">
-        <v>1299</v>
+        <v>1296</v>
       </c>
       <c r="D441" t="s">
         <v>561</v>
@@ -12119,13 +12254,13 @@
     </row>
     <row r="442" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
-        <v>1300</v>
+        <v>1297</v>
       </c>
       <c r="B442" s="1" t="s">
-        <v>1301</v>
+        <v>1298</v>
       </c>
       <c r="C442" s="1" t="s">
-        <v>1302</v>
+        <v>1299</v>
       </c>
       <c r="D442" t="s">
         <v>561</v>
@@ -12136,24 +12271,37 @@
     </row>
     <row r="443" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
+        <v>1300</v>
+      </c>
+      <c r="B443" s="1" t="s">
+        <v>1301</v>
+      </c>
+      <c r="C443" s="1" t="s">
+        <v>1302</v>
+      </c>
+      <c r="D443" t="s">
+        <v>561</v>
+      </c>
+      <c r="E443" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="444" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A444" t="s">
         <v>1303</v>
       </c>
-      <c r="B443" s="1" t="s">
+      <c r="B444" s="1" t="s">
         <v>1304</v>
       </c>
-      <c r="C443" s="1" t="s">
+      <c r="C444" s="1" t="s">
         <v>1305</v>
       </c>
-      <c r="D443" t="s">
-        <v>561</v>
-      </c>
-      <c r="E443" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="444" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B444" s="1"/>
-      <c r="C444" s="1"/>
+      <c r="D444" t="s">
+        <v>561</v>
+      </c>
+      <c r="E444" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="445" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B445" s="1"/>
@@ -12887,12 +13035,12 @@
       <c r="B627" s="1"/>
       <c r="C627" s="1"/>
     </row>
-    <row r="1070" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C1070" s="2"/>
+    <row r="628" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B628" s="1"/>
+      <c r="C628" s="1"/>
     </row>
     <row r="1071" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C1071" s="2"/>
-      <c r="D1071" s="2"/>
     </row>
     <row r="1072" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C1072" s="2"/>
@@ -12919,6 +13067,7 @@
       <c r="D1077" s="2"/>
     </row>
     <row r="1078" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1078" s="2"/>
       <c r="D1078" s="2"/>
     </row>
     <row r="1079" spans="3:4" x14ac:dyDescent="0.25">
@@ -12929,9 +13078,454 @@
     </row>
     <row r="1081" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D1081" s="2"/>
+    </row>
+    <row r="1082" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D1082" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1308</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1333</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1334</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1335</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1337</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1306</v>
+      </c>
+      <c r="C2" s="3">
+        <v>41802</v>
+      </c>
+      <c r="D2" s="3">
+        <v>41833</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1374</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1366</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1347</v>
+      </c>
+      <c r="B2" t="s">
+        <v>652</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1348</v>
+      </c>
+      <c r="B3" t="s">
+        <v>724</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1349</v>
+      </c>
+      <c r="B4" t="s">
+        <v>988</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1368</v>
+      </c>
+      <c r="B5" t="s">
+        <v>673</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1350</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1369</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1338</v>
+      </c>
+      <c r="B8" t="s">
+        <v>691</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>1351</v>
+      </c>
+      <c r="B9" t="s">
+        <v>598</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>1352</v>
+      </c>
+      <c r="B10" t="s">
+        <v>703</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>1353</v>
+      </c>
+      <c r="B11" t="s">
+        <v>814</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>1339</v>
+      </c>
+      <c r="B12" t="s">
+        <v>721</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B13" t="s">
+        <v>892</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>1340</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1270</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>1341</v>
+      </c>
+      <c r="B15" t="s">
+        <v>718</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1370</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>1356</v>
+      </c>
+      <c r="B17" t="s">
+        <v>886</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>1357</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1204</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>1367</v>
+      </c>
+      <c r="B19" t="s">
+        <v>751</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B20" t="s">
+        <v>784</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B21" t="s">
+        <v>853</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>1358</v>
+      </c>
+      <c r="B22" t="s">
+        <v>589</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>1373</v>
+      </c>
+      <c r="B23" t="s">
+        <v>643</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>1344</v>
+      </c>
+      <c r="B24" t="s">
+        <v>871</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>1359</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>1360</v>
+      </c>
+      <c r="B26" t="s">
+        <v>805</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>1345</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>1346</v>
+      </c>
+      <c r="B28" t="s">
+        <v>808</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>1361</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1264</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>1362</v>
+      </c>
+      <c r="B30" t="s">
+        <v>622</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>1363</v>
+      </c>
+      <c r="B31" t="s">
+        <v>568</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>1364</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>1365</v>
+      </c>
+      <c r="B33" t="s">
+        <v>913</v>
+      </c>
+      <c r="C33" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/resources/Repository Setup.xlsx
+++ b/resources/Repository Setup.xlsx
@@ -4,269 +4,270 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12585" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12585" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Attributes" sheetId="1" r:id="rId1"/>
     <sheet name="BettableEvent" sheetId="2" r:id="rId2"/>
     <sheet name="Participant" sheetId="3" r:id="rId3"/>
+    <sheet name="Match" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="AD" localSheetId="0">Attributes!$C$378</definedName>
-    <definedName name="AE" localSheetId="0">Attributes!$C$439</definedName>
-    <definedName name="AG" localSheetId="0">Attributes!$C$382</definedName>
-    <definedName name="AI" localSheetId="0">Attributes!$C$380</definedName>
-    <definedName name="AL" localSheetId="0">Attributes!$C$375</definedName>
-    <definedName name="AM" localSheetId="0">Attributes!$C$385</definedName>
-    <definedName name="AO" localSheetId="0">Attributes!$C$379</definedName>
-    <definedName name="AQ" localSheetId="0">Attributes!$C$381</definedName>
-    <definedName name="AR" localSheetId="0">Attributes!$C$384</definedName>
-    <definedName name="AS" localSheetId="0">Attributes!$C$576</definedName>
-    <definedName name="AT" localSheetId="0">Attributes!$C$388</definedName>
-    <definedName name="AU" localSheetId="0">Attributes!$C$387</definedName>
-    <definedName name="AW" localSheetId="0">Attributes!$C$386</definedName>
-    <definedName name="AX" localSheetId="0">Attributes!$C$374</definedName>
-    <definedName name="AZ" localSheetId="0">Attributes!$C$389</definedName>
-    <definedName name="BA" localSheetId="0">Attributes!$C$402</definedName>
-    <definedName name="BB" localSheetId="0">Attributes!$C$393</definedName>
-    <definedName name="BD" localSheetId="0">Attributes!$C$392</definedName>
-    <definedName name="BE" localSheetId="0">Attributes!$C$395</definedName>
-    <definedName name="BF" localSheetId="0">Attributes!$C$408</definedName>
-    <definedName name="BG" localSheetId="0">Attributes!$C$407</definedName>
-    <definedName name="BH" localSheetId="0">Attributes!$C$391</definedName>
-    <definedName name="BI" localSheetId="0">Attributes!$C$409</definedName>
-    <definedName name="BJ" localSheetId="0">Attributes!$C$397</definedName>
-    <definedName name="BL" localSheetId="0">Attributes!$C$564</definedName>
-    <definedName name="BM" localSheetId="0">Attributes!$C$398</definedName>
-    <definedName name="BN" localSheetId="0">Attributes!$C$406</definedName>
-    <definedName name="BO" localSheetId="0">Attributes!$C$400</definedName>
-    <definedName name="BQ" localSheetId="0">Attributes!$C$401</definedName>
-    <definedName name="BR" localSheetId="0">Attributes!$C$405</definedName>
-    <definedName name="BS" localSheetId="0">Attributes!$C$390</definedName>
-    <definedName name="BT" localSheetId="0">Attributes!$C$399</definedName>
-    <definedName name="BV" localSheetId="0">Attributes!$C$404</definedName>
-    <definedName name="BW" localSheetId="0">Attributes!$C$403</definedName>
-    <definedName name="BY" localSheetId="0">Attributes!$C$394</definedName>
-    <definedName name="BZ" localSheetId="0">Attributes!$C$396</definedName>
-    <definedName name="CA" localSheetId="0">Attributes!$C$413</definedName>
-    <definedName name="CC" localSheetId="0">Attributes!$C$420</definedName>
-    <definedName name="CD" localSheetId="0">Attributes!$C$424</definedName>
-    <definedName name="CF" localSheetId="0">Attributes!$C$415</definedName>
-    <definedName name="CG" localSheetId="0">Attributes!$C$423</definedName>
-    <definedName name="CH" localSheetId="0">Attributes!$C$590</definedName>
-    <definedName name="CI" localSheetId="0">Attributes!$C$429</definedName>
-    <definedName name="CK" localSheetId="0">Attributes!$C$425</definedName>
-    <definedName name="CL" localSheetId="0">Attributes!$C$416</definedName>
-    <definedName name="CM" localSheetId="0">Attributes!$C$412</definedName>
-    <definedName name="CN" localSheetId="0">Attributes!$C$417</definedName>
-    <definedName name="CO" localSheetId="0">Attributes!$C$421</definedName>
-    <definedName name="CR" localSheetId="0">Attributes!$C$428</definedName>
-    <definedName name="CU" localSheetId="0">Attributes!$C$431</definedName>
-    <definedName name="CV" localSheetId="0">Attributes!$C$414</definedName>
-    <definedName name="CW" localSheetId="0">Attributes!$C$432</definedName>
-    <definedName name="CX" localSheetId="0">Attributes!$C$418</definedName>
-    <definedName name="CY" localSheetId="0">Attributes!$C$419</definedName>
-    <definedName name="CZ" localSheetId="0">Attributes!$C$599</definedName>
-    <definedName name="DE" localSheetId="0">Attributes!$C$377</definedName>
-    <definedName name="DJ" localSheetId="0">Attributes!$C$434</definedName>
-    <definedName name="DK" localSheetId="0">Attributes!$C$433</definedName>
-    <definedName name="DM" localSheetId="0">Attributes!$C$436</definedName>
-    <definedName name="DO" localSheetId="0">Attributes!$C$435</definedName>
-    <definedName name="DZ" localSheetId="0">Attributes!$C$376</definedName>
-    <definedName name="EC" localSheetId="0">Attributes!$C$440</definedName>
-    <definedName name="EE" localSheetId="0">Attributes!$C$443</definedName>
-    <definedName name="EG" localSheetId="0">Attributes!$C$437</definedName>
-    <definedName name="EH" localSheetId="0">Attributes!$C$563</definedName>
-    <definedName name="ER" localSheetId="0">Attributes!$C$441</definedName>
-    <definedName name="ES" localSheetId="0">Attributes!$C$442</definedName>
-    <definedName name="ET" localSheetId="0">Attributes!$C$445</definedName>
-    <definedName name="FI" localSheetId="0">Attributes!$C$449</definedName>
-    <definedName name="FJ" localSheetId="0">Attributes!$C$448</definedName>
-    <definedName name="FK" localSheetId="0">Attributes!$C$446</definedName>
-    <definedName name="FM" localSheetId="0">Attributes!$C$520</definedName>
-    <definedName name="FO" localSheetId="0">Attributes!$C$447</definedName>
-    <definedName name="FR" localSheetId="0">Attributes!$C$450</definedName>
-    <definedName name="GA" localSheetId="0">Attributes!$C$451</definedName>
-    <definedName name="GB" localSheetId="0">Attributes!$C$560</definedName>
-    <definedName name="GD" localSheetId="0">Attributes!$C$458</definedName>
-    <definedName name="GE" localSheetId="0">Attributes!$C$453</definedName>
-    <definedName name="GF" localSheetId="0">Attributes!$C$468</definedName>
-    <definedName name="GG" localSheetId="0">Attributes!$C$463</definedName>
-    <definedName name="GH" localSheetId="0">Attributes!$C$455</definedName>
-    <definedName name="GI" localSheetId="0">Attributes!$C$456</definedName>
-    <definedName name="GL" localSheetId="0">Attributes!$C$459</definedName>
-    <definedName name="GM" localSheetId="0">Attributes!$C$452</definedName>
-    <definedName name="GN" localSheetId="0">Attributes!$C$464</definedName>
-    <definedName name="GP" localSheetId="0">Attributes!$C$460</definedName>
-    <definedName name="GQ" localSheetId="0">Attributes!$C$466</definedName>
-    <definedName name="GR" localSheetId="0">Attributes!$C$457</definedName>
-    <definedName name="GS" localSheetId="0">Attributes!$C$454</definedName>
-    <definedName name="GT" localSheetId="0">Attributes!$C$462</definedName>
-    <definedName name="GU" localSheetId="0">Attributes!$C$461</definedName>
-    <definedName name="GW" localSheetId="0">Attributes!$C$465</definedName>
-    <definedName name="GY" localSheetId="0">Attributes!$C$467</definedName>
-    <definedName name="HK" localSheetId="0">Attributes!$C$472</definedName>
-    <definedName name="HM" localSheetId="0">Attributes!$C$470</definedName>
-    <definedName name="HN" localSheetId="0">Attributes!$C$471</definedName>
-    <definedName name="HR" localSheetId="0">Attributes!$C$430</definedName>
-    <definedName name="HT" localSheetId="0">Attributes!$C$469</definedName>
-    <definedName name="HU" localSheetId="0">Attributes!$C$473</definedName>
-    <definedName name="ID" localSheetId="0">Attributes!$C$479</definedName>
-    <definedName name="IE" localSheetId="0">Attributes!$C$482</definedName>
-    <definedName name="IL" localSheetId="0">Attributes!$C$484</definedName>
-    <definedName name="IM" localSheetId="0">Attributes!$C$474</definedName>
-    <definedName name="IN" localSheetId="0">Attributes!$C$478</definedName>
-    <definedName name="IO" localSheetId="0">Attributes!$C$539</definedName>
-    <definedName name="IQ" localSheetId="0">Attributes!$C$481</definedName>
-    <definedName name="IR" localSheetId="0">Attributes!$C$480</definedName>
-    <definedName name="IS" localSheetId="0">Attributes!$C$483</definedName>
-    <definedName name="IT" localSheetId="0">Attributes!$C$485</definedName>
-    <definedName name="JE" localSheetId="0">Attributes!$C$488</definedName>
-    <definedName name="JM" localSheetId="0">Attributes!$C$486</definedName>
-    <definedName name="JO" localSheetId="0">Attributes!$C$489</definedName>
-    <definedName name="JP" localSheetId="0">Attributes!$C$487</definedName>
-    <definedName name="KE" localSheetId="0">Attributes!$C$491</definedName>
-    <definedName name="KG" localSheetId="0">Attributes!$C$492</definedName>
-    <definedName name="KH" localSheetId="0">Attributes!$C$411</definedName>
-    <definedName name="KI" localSheetId="0">Attributes!$C$493</definedName>
-    <definedName name="KM" localSheetId="0">Attributes!$C$422</definedName>
-    <definedName name="KN" localSheetId="0">Attributes!$C$567</definedName>
-    <definedName name="KP" localSheetId="0">Attributes!$C$427</definedName>
-    <definedName name="KR" localSheetId="0">Attributes!$C$426</definedName>
-    <definedName name="KW" localSheetId="0">Attributes!$C$494</definedName>
-    <definedName name="KY" localSheetId="0">Attributes!$C$410</definedName>
-    <definedName name="KZ" localSheetId="0">Attributes!$C$490</definedName>
-    <definedName name="LA" localSheetId="0">Attributes!$C$495</definedName>
-    <definedName name="LB" localSheetId="0">Attributes!$C$498</definedName>
-    <definedName name="LC" localSheetId="0">Attributes!$C$566</definedName>
-    <definedName name="LI" localSheetId="0">Attributes!$C$501</definedName>
-    <definedName name="LK" localSheetId="0">Attributes!$C$588</definedName>
-    <definedName name="LR" localSheetId="0">Attributes!$C$499</definedName>
-    <definedName name="LS" localSheetId="0">Attributes!$C$496</definedName>
-    <definedName name="LT" localSheetId="0">Attributes!$C$502</definedName>
-    <definedName name="LU" localSheetId="0">Attributes!$C$503</definedName>
-    <definedName name="LV" localSheetId="0">Attributes!$C$497</definedName>
-    <definedName name="LY" localSheetId="0">Attributes!$C$500</definedName>
-    <definedName name="MA" localSheetId="0">Attributes!$C$513</definedName>
-    <definedName name="MC" localSheetId="0">Attributes!$C$522</definedName>
-    <definedName name="MD" localSheetId="0">Attributes!$C$521</definedName>
-    <definedName name="ME" localSheetId="0">Attributes!$C$524</definedName>
-    <definedName name="MF" localSheetId="0">Attributes!$C$569</definedName>
-    <definedName name="MG" localSheetId="0">Attributes!$C$506</definedName>
-    <definedName name="MH" localSheetId="0">Attributes!$C$514</definedName>
-    <definedName name="MK" localSheetId="0">Attributes!$C$505</definedName>
-    <definedName name="ML" localSheetId="0">Attributes!$C$510</definedName>
-    <definedName name="MM" localSheetId="0">Attributes!$C$527</definedName>
-    <definedName name="MN" localSheetId="0">Attributes!$C$523</definedName>
-    <definedName name="MO" localSheetId="0">Attributes!$C$504</definedName>
-    <definedName name="MP" localSheetId="0">Attributes!$C$512</definedName>
-    <definedName name="MQ" localSheetId="0">Attributes!$C$515</definedName>
-    <definedName name="MR" localSheetId="0">Attributes!$C$517</definedName>
-    <definedName name="MS" localSheetId="0">Attributes!$C$525</definedName>
-    <definedName name="MT" localSheetId="0">Attributes!$C$511</definedName>
-    <definedName name="MU" localSheetId="0">Attributes!$C$516</definedName>
-    <definedName name="MV" localSheetId="0">Attributes!$C$509</definedName>
-    <definedName name="MW" localSheetId="0">Attributes!$C$508</definedName>
-    <definedName name="MX" localSheetId="0">Attributes!$C$519</definedName>
-    <definedName name="MY" localSheetId="0">Attributes!$C$507</definedName>
-    <definedName name="MZ" localSheetId="0">Attributes!$C$526</definedName>
-    <definedName name="NA" localSheetId="0">Attributes!$C$528</definedName>
-    <definedName name="NC" localSheetId="0">Attributes!$C$537</definedName>
-    <definedName name="NE" localSheetId="0">Attributes!$C$532</definedName>
-    <definedName name="NF" localSheetId="0">Attributes!$C$535</definedName>
-    <definedName name="NG" localSheetId="0">Attributes!$C$533</definedName>
-    <definedName name="NI" localSheetId="0">Attributes!$C$531</definedName>
-    <definedName name="NL" localSheetId="0">Attributes!$C$549</definedName>
-    <definedName name="NO" localSheetId="0">Attributes!$C$536</definedName>
-    <definedName name="NP" localSheetId="0">Attributes!$C$530</definedName>
-    <definedName name="NR" localSheetId="0">Attributes!$C$529</definedName>
-    <definedName name="NU" localSheetId="0">Attributes!$C$534</definedName>
-    <definedName name="NZ" localSheetId="0">Attributes!$C$538</definedName>
-    <definedName name="OM" localSheetId="0">Attributes!$C$540</definedName>
-    <definedName name="PA" localSheetId="0">Attributes!$C$546</definedName>
-    <definedName name="PE" localSheetId="0">Attributes!$C$550</definedName>
-    <definedName name="PF" localSheetId="0">Attributes!$C$554</definedName>
-    <definedName name="PG" localSheetId="0">Attributes!$C$547</definedName>
-    <definedName name="PH" localSheetId="0">Attributes!$C$551</definedName>
-    <definedName name="PK" localSheetId="0">Attributes!$C$543</definedName>
-    <definedName name="PL" localSheetId="0">Attributes!$C$553</definedName>
-    <definedName name="PM" localSheetId="0">Attributes!$C$571</definedName>
-    <definedName name="PN" localSheetId="0">Attributes!$C$552</definedName>
-    <definedName name="PR" localSheetId="0">Attributes!$C$555</definedName>
-    <definedName name="PS" localSheetId="0">Attributes!$C$545</definedName>
-    <definedName name="PT" localSheetId="0">Attributes!$C$556</definedName>
-    <definedName name="PW" localSheetId="0">Attributes!$C$544</definedName>
-    <definedName name="PY" localSheetId="0">Attributes!$C$548</definedName>
-    <definedName name="QA" localSheetId="0">Attributes!$C$557</definedName>
-    <definedName name="RE" localSheetId="0">Attributes!$C$558</definedName>
-    <definedName name="RO" localSheetId="0">Attributes!$C$559</definedName>
-    <definedName name="RS" localSheetId="0">Attributes!$C$579</definedName>
-    <definedName name="RU" localSheetId="0">Attributes!$C$561</definedName>
-    <definedName name="RW" localSheetId="0">Attributes!$C$562</definedName>
-    <definedName name="SA" localSheetId="0">Attributes!$C$383</definedName>
-    <definedName name="SB" localSheetId="0">Attributes!$C$574</definedName>
-    <definedName name="SC" localSheetId="0">Attributes!$C$580</definedName>
-    <definedName name="SD" localSheetId="0">Attributes!$C$586</definedName>
-    <definedName name="SE" localSheetId="0">Attributes!$C$589</definedName>
-    <definedName name="SG" localSheetId="0">Attributes!$C$582</definedName>
-    <definedName name="SH" localSheetId="0">Attributes!$C$565</definedName>
-    <definedName name="SI" localSheetId="0">Attributes!$C$584</definedName>
-    <definedName name="SJ" localSheetId="0">Attributes!$C$592</definedName>
-    <definedName name="SK" localSheetId="0">Attributes!$C$583</definedName>
-    <definedName name="SL" localSheetId="0">Attributes!$C$581</definedName>
-    <definedName name="SM" localSheetId="0">Attributes!$C$568</definedName>
-    <definedName name="SN" localSheetId="0">Attributes!$C$578</definedName>
-    <definedName name="SO" localSheetId="0">Attributes!$C$585</definedName>
-    <definedName name="SR" localSheetId="0">Attributes!$C$591</definedName>
-    <definedName name="SS" localSheetId="0">Attributes!$C$587</definedName>
-    <definedName name="ST" localSheetId="0">Attributes!$C$577</definedName>
-    <definedName name="SV" localSheetId="0">Attributes!$C$438</definedName>
-    <definedName name="SX" localSheetId="0">Attributes!$C$570</definedName>
-    <definedName name="SY" localSheetId="0">Attributes!$C$594</definedName>
-    <definedName name="SZ" localSheetId="0">Attributes!$C$593</definedName>
-    <definedName name="TC" localSheetId="0">Attributes!$C$609</definedName>
-    <definedName name="TD" localSheetId="0">Attributes!$C$598</definedName>
-    <definedName name="TF" localSheetId="0">Attributes!$C$600</definedName>
-    <definedName name="TG" localSheetId="0">Attributes!$C$603</definedName>
-    <definedName name="TH" localSheetId="0">Attributes!$C$601</definedName>
-    <definedName name="TJ" localSheetId="0">Attributes!$C$595</definedName>
-    <definedName name="TK" localSheetId="0">Attributes!$C$604</definedName>
-    <definedName name="TL" localSheetId="0">Attributes!$C$602</definedName>
-    <definedName name="TM" localSheetId="0">Attributes!$C$608</definedName>
-    <definedName name="TN" localSheetId="0">Attributes!$C$607</definedName>
-    <definedName name="TO" localSheetId="0">Attributes!$C$605</definedName>
-    <definedName name="TR" localSheetId="0">Attributes!$C$610</definedName>
-    <definedName name="TT" localSheetId="0">Attributes!$C$606</definedName>
-    <definedName name="TV" localSheetId="0">Attributes!$C$611</definedName>
-    <definedName name="TW" localSheetId="0">Attributes!$C$596</definedName>
-    <definedName name="TZ" localSheetId="0">Attributes!$C$597</definedName>
-    <definedName name="UA" localSheetId="0">Attributes!$C$612</definedName>
-    <definedName name="UG" localSheetId="0">Attributes!$C$541</definedName>
-    <definedName name="UM" localSheetId="0">Attributes!$C$475</definedName>
-    <definedName name="US" localSheetId="0">Attributes!$C$444</definedName>
-    <definedName name="UY" localSheetId="0">Attributes!$C$613</definedName>
-    <definedName name="UZ" localSheetId="0">Attributes!$C$542</definedName>
-    <definedName name="VA" localSheetId="0">Attributes!$C$572</definedName>
-    <definedName name="VC" localSheetId="0">Attributes!$C$573</definedName>
-    <definedName name="VE" localSheetId="0">Attributes!$C$615</definedName>
-    <definedName name="VG" localSheetId="0">Attributes!$C$476</definedName>
-    <definedName name="VI" localSheetId="0">Attributes!$C$477</definedName>
-    <definedName name="VN" localSheetId="0">Attributes!$C$616</definedName>
-    <definedName name="VU" localSheetId="0">Attributes!$C$614</definedName>
-    <definedName name="WF" localSheetId="0">Attributes!$C$617</definedName>
-    <definedName name="WS" localSheetId="0">Attributes!$C$575</definedName>
-    <definedName name="YE" localSheetId="0">Attributes!$C$618</definedName>
-    <definedName name="YT" localSheetId="0">Attributes!$C$518</definedName>
-    <definedName name="ZA" localSheetId="0">Attributes!$C$373</definedName>
-    <definedName name="ZM" localSheetId="0">Attributes!$C$619</definedName>
-    <definedName name="ZW" localSheetId="0">Attributes!$C$620</definedName>
+    <definedName name="AD" localSheetId="0">Attributes!$C$379</definedName>
+    <definedName name="AE" localSheetId="0">Attributes!$C$440</definedName>
+    <definedName name="AG" localSheetId="0">Attributes!$C$383</definedName>
+    <definedName name="AI" localSheetId="0">Attributes!$C$381</definedName>
+    <definedName name="AL" localSheetId="0">Attributes!$C$376</definedName>
+    <definedName name="AM" localSheetId="0">Attributes!$C$386</definedName>
+    <definedName name="AO" localSheetId="0">Attributes!$C$380</definedName>
+    <definedName name="AQ" localSheetId="0">Attributes!$C$382</definedName>
+    <definedName name="AR" localSheetId="0">Attributes!$C$385</definedName>
+    <definedName name="AS" localSheetId="0">Attributes!$C$577</definedName>
+    <definedName name="AT" localSheetId="0">Attributes!$C$389</definedName>
+    <definedName name="AU" localSheetId="0">Attributes!$C$388</definedName>
+    <definedName name="AW" localSheetId="0">Attributes!$C$387</definedName>
+    <definedName name="AX" localSheetId="0">Attributes!$C$375</definedName>
+    <definedName name="AZ" localSheetId="0">Attributes!$C$390</definedName>
+    <definedName name="BA" localSheetId="0">Attributes!$C$403</definedName>
+    <definedName name="BB" localSheetId="0">Attributes!$C$394</definedName>
+    <definedName name="BD" localSheetId="0">Attributes!$C$393</definedName>
+    <definedName name="BE" localSheetId="0">Attributes!$C$396</definedName>
+    <definedName name="BF" localSheetId="0">Attributes!$C$409</definedName>
+    <definedName name="BG" localSheetId="0">Attributes!$C$408</definedName>
+    <definedName name="BH" localSheetId="0">Attributes!$C$392</definedName>
+    <definedName name="BI" localSheetId="0">Attributes!$C$410</definedName>
+    <definedName name="BJ" localSheetId="0">Attributes!$C$398</definedName>
+    <definedName name="BL" localSheetId="0">Attributes!$C$565</definedName>
+    <definedName name="BM" localSheetId="0">Attributes!$C$399</definedName>
+    <definedName name="BN" localSheetId="0">Attributes!$C$407</definedName>
+    <definedName name="BO" localSheetId="0">Attributes!$C$401</definedName>
+    <definedName name="BQ" localSheetId="0">Attributes!$C$402</definedName>
+    <definedName name="BR" localSheetId="0">Attributes!$C$406</definedName>
+    <definedName name="BS" localSheetId="0">Attributes!$C$391</definedName>
+    <definedName name="BT" localSheetId="0">Attributes!$C$400</definedName>
+    <definedName name="BV" localSheetId="0">Attributes!$C$405</definedName>
+    <definedName name="BW" localSheetId="0">Attributes!$C$404</definedName>
+    <definedName name="BY" localSheetId="0">Attributes!$C$395</definedName>
+    <definedName name="BZ" localSheetId="0">Attributes!$C$397</definedName>
+    <definedName name="CA" localSheetId="0">Attributes!$C$414</definedName>
+    <definedName name="CC" localSheetId="0">Attributes!$C$421</definedName>
+    <definedName name="CD" localSheetId="0">Attributes!$C$425</definedName>
+    <definedName name="CF" localSheetId="0">Attributes!$C$416</definedName>
+    <definedName name="CG" localSheetId="0">Attributes!$C$424</definedName>
+    <definedName name="CH" localSheetId="0">Attributes!$C$591</definedName>
+    <definedName name="CI" localSheetId="0">Attributes!$C$430</definedName>
+    <definedName name="CK" localSheetId="0">Attributes!$C$426</definedName>
+    <definedName name="CL" localSheetId="0">Attributes!$C$417</definedName>
+    <definedName name="CM" localSheetId="0">Attributes!$C$413</definedName>
+    <definedName name="CN" localSheetId="0">Attributes!$C$418</definedName>
+    <definedName name="CO" localSheetId="0">Attributes!$C$422</definedName>
+    <definedName name="CR" localSheetId="0">Attributes!$C$429</definedName>
+    <definedName name="CU" localSheetId="0">Attributes!$C$432</definedName>
+    <definedName name="CV" localSheetId="0">Attributes!$C$415</definedName>
+    <definedName name="CW" localSheetId="0">Attributes!$C$433</definedName>
+    <definedName name="CX" localSheetId="0">Attributes!$C$419</definedName>
+    <definedName name="CY" localSheetId="0">Attributes!$C$420</definedName>
+    <definedName name="CZ" localSheetId="0">Attributes!$C$600</definedName>
+    <definedName name="DE" localSheetId="0">Attributes!$C$378</definedName>
+    <definedName name="DJ" localSheetId="0">Attributes!$C$435</definedName>
+    <definedName name="DK" localSheetId="0">Attributes!$C$434</definedName>
+    <definedName name="DM" localSheetId="0">Attributes!$C$437</definedName>
+    <definedName name="DO" localSheetId="0">Attributes!$C$436</definedName>
+    <definedName name="DZ" localSheetId="0">Attributes!$C$377</definedName>
+    <definedName name="EC" localSheetId="0">Attributes!$C$441</definedName>
+    <definedName name="EE" localSheetId="0">Attributes!$C$444</definedName>
+    <definedName name="EG" localSheetId="0">Attributes!$C$438</definedName>
+    <definedName name="EH" localSheetId="0">Attributes!$C$564</definedName>
+    <definedName name="ER" localSheetId="0">Attributes!$C$442</definedName>
+    <definedName name="ES" localSheetId="0">Attributes!$C$443</definedName>
+    <definedName name="ET" localSheetId="0">Attributes!$C$446</definedName>
+    <definedName name="FI" localSheetId="0">Attributes!$C$450</definedName>
+    <definedName name="FJ" localSheetId="0">Attributes!$C$449</definedName>
+    <definedName name="FK" localSheetId="0">Attributes!$C$447</definedName>
+    <definedName name="FM" localSheetId="0">Attributes!$C$521</definedName>
+    <definedName name="FO" localSheetId="0">Attributes!$C$448</definedName>
+    <definedName name="FR" localSheetId="0">Attributes!$C$451</definedName>
+    <definedName name="GA" localSheetId="0">Attributes!$C$452</definedName>
+    <definedName name="GB" localSheetId="0">Attributes!$C$561</definedName>
+    <definedName name="GD" localSheetId="0">Attributes!$C$459</definedName>
+    <definedName name="GE" localSheetId="0">Attributes!$C$454</definedName>
+    <definedName name="GF" localSheetId="0">Attributes!$C$469</definedName>
+    <definedName name="GG" localSheetId="0">Attributes!$C$464</definedName>
+    <definedName name="GH" localSheetId="0">Attributes!$C$456</definedName>
+    <definedName name="GI" localSheetId="0">Attributes!$C$457</definedName>
+    <definedName name="GL" localSheetId="0">Attributes!$C$460</definedName>
+    <definedName name="GM" localSheetId="0">Attributes!$C$453</definedName>
+    <definedName name="GN" localSheetId="0">Attributes!$C$465</definedName>
+    <definedName name="GP" localSheetId="0">Attributes!$C$461</definedName>
+    <definedName name="GQ" localSheetId="0">Attributes!$C$467</definedName>
+    <definedName name="GR" localSheetId="0">Attributes!$C$458</definedName>
+    <definedName name="GS" localSheetId="0">Attributes!$C$455</definedName>
+    <definedName name="GT" localSheetId="0">Attributes!$C$463</definedName>
+    <definedName name="GU" localSheetId="0">Attributes!$C$462</definedName>
+    <definedName name="GW" localSheetId="0">Attributes!$C$466</definedName>
+    <definedName name="GY" localSheetId="0">Attributes!$C$468</definedName>
+    <definedName name="HK" localSheetId="0">Attributes!$C$473</definedName>
+    <definedName name="HM" localSheetId="0">Attributes!$C$471</definedName>
+    <definedName name="HN" localSheetId="0">Attributes!$C$472</definedName>
+    <definedName name="HR" localSheetId="0">Attributes!$C$431</definedName>
+    <definedName name="HT" localSheetId="0">Attributes!$C$470</definedName>
+    <definedName name="HU" localSheetId="0">Attributes!$C$474</definedName>
+    <definedName name="ID" localSheetId="0">Attributes!$C$480</definedName>
+    <definedName name="IE" localSheetId="0">Attributes!$C$483</definedName>
+    <definedName name="IL" localSheetId="0">Attributes!$C$485</definedName>
+    <definedName name="IM" localSheetId="0">Attributes!$C$475</definedName>
+    <definedName name="IN" localSheetId="0">Attributes!$C$479</definedName>
+    <definedName name="IO" localSheetId="0">Attributes!$C$540</definedName>
+    <definedName name="IQ" localSheetId="0">Attributes!$C$482</definedName>
+    <definedName name="IR" localSheetId="0">Attributes!$C$481</definedName>
+    <definedName name="IS" localSheetId="0">Attributes!$C$484</definedName>
+    <definedName name="IT" localSheetId="0">Attributes!$C$486</definedName>
+    <definedName name="JE" localSheetId="0">Attributes!$C$489</definedName>
+    <definedName name="JM" localSheetId="0">Attributes!$C$487</definedName>
+    <definedName name="JO" localSheetId="0">Attributes!$C$490</definedName>
+    <definedName name="JP" localSheetId="0">Attributes!$C$488</definedName>
+    <definedName name="KE" localSheetId="0">Attributes!$C$492</definedName>
+    <definedName name="KG" localSheetId="0">Attributes!$C$493</definedName>
+    <definedName name="KH" localSheetId="0">Attributes!$C$412</definedName>
+    <definedName name="KI" localSheetId="0">Attributes!$C$494</definedName>
+    <definedName name="KM" localSheetId="0">Attributes!$C$423</definedName>
+    <definedName name="KN" localSheetId="0">Attributes!$C$568</definedName>
+    <definedName name="KP" localSheetId="0">Attributes!$C$428</definedName>
+    <definedName name="KR" localSheetId="0">Attributes!$C$427</definedName>
+    <definedName name="KW" localSheetId="0">Attributes!$C$495</definedName>
+    <definedName name="KY" localSheetId="0">Attributes!$C$411</definedName>
+    <definedName name="KZ" localSheetId="0">Attributes!$C$491</definedName>
+    <definedName name="LA" localSheetId="0">Attributes!$C$496</definedName>
+    <definedName name="LB" localSheetId="0">Attributes!$C$499</definedName>
+    <definedName name="LC" localSheetId="0">Attributes!$C$567</definedName>
+    <definedName name="LI" localSheetId="0">Attributes!$C$502</definedName>
+    <definedName name="LK" localSheetId="0">Attributes!$C$589</definedName>
+    <definedName name="LR" localSheetId="0">Attributes!$C$500</definedName>
+    <definedName name="LS" localSheetId="0">Attributes!$C$497</definedName>
+    <definedName name="LT" localSheetId="0">Attributes!$C$503</definedName>
+    <definedName name="LU" localSheetId="0">Attributes!$C$504</definedName>
+    <definedName name="LV" localSheetId="0">Attributes!$C$498</definedName>
+    <definedName name="LY" localSheetId="0">Attributes!$C$501</definedName>
+    <definedName name="MA" localSheetId="0">Attributes!$C$514</definedName>
+    <definedName name="MC" localSheetId="0">Attributes!$C$523</definedName>
+    <definedName name="MD" localSheetId="0">Attributes!$C$522</definedName>
+    <definedName name="ME" localSheetId="0">Attributes!$C$525</definedName>
+    <definedName name="MF" localSheetId="0">Attributes!$C$570</definedName>
+    <definedName name="MG" localSheetId="0">Attributes!$C$507</definedName>
+    <definedName name="MH" localSheetId="0">Attributes!$C$515</definedName>
+    <definedName name="MK" localSheetId="0">Attributes!$C$506</definedName>
+    <definedName name="ML" localSheetId="0">Attributes!$C$511</definedName>
+    <definedName name="MM" localSheetId="0">Attributes!$C$528</definedName>
+    <definedName name="MN" localSheetId="0">Attributes!$C$524</definedName>
+    <definedName name="MO" localSheetId="0">Attributes!$C$505</definedName>
+    <definedName name="MP" localSheetId="0">Attributes!$C$513</definedName>
+    <definedName name="MQ" localSheetId="0">Attributes!$C$516</definedName>
+    <definedName name="MR" localSheetId="0">Attributes!$C$518</definedName>
+    <definedName name="MS" localSheetId="0">Attributes!$C$526</definedName>
+    <definedName name="MT" localSheetId="0">Attributes!$C$512</definedName>
+    <definedName name="MU" localSheetId="0">Attributes!$C$517</definedName>
+    <definedName name="MV" localSheetId="0">Attributes!$C$510</definedName>
+    <definedName name="MW" localSheetId="0">Attributes!$C$509</definedName>
+    <definedName name="MX" localSheetId="0">Attributes!$C$520</definedName>
+    <definedName name="MY" localSheetId="0">Attributes!$C$508</definedName>
+    <definedName name="MZ" localSheetId="0">Attributes!$C$527</definedName>
+    <definedName name="NA" localSheetId="0">Attributes!$C$529</definedName>
+    <definedName name="NC" localSheetId="0">Attributes!$C$538</definedName>
+    <definedName name="NE" localSheetId="0">Attributes!$C$533</definedName>
+    <definedName name="NF" localSheetId="0">Attributes!$C$536</definedName>
+    <definedName name="NG" localSheetId="0">Attributes!$C$534</definedName>
+    <definedName name="NI" localSheetId="0">Attributes!$C$532</definedName>
+    <definedName name="NL" localSheetId="0">Attributes!$C$550</definedName>
+    <definedName name="NO" localSheetId="0">Attributes!$C$537</definedName>
+    <definedName name="NP" localSheetId="0">Attributes!$C$531</definedName>
+    <definedName name="NR" localSheetId="0">Attributes!$C$530</definedName>
+    <definedName name="NU" localSheetId="0">Attributes!$C$535</definedName>
+    <definedName name="NZ" localSheetId="0">Attributes!$C$539</definedName>
+    <definedName name="OM" localSheetId="0">Attributes!$C$541</definedName>
+    <definedName name="PA" localSheetId="0">Attributes!$C$547</definedName>
+    <definedName name="PE" localSheetId="0">Attributes!$C$551</definedName>
+    <definedName name="PF" localSheetId="0">Attributes!$C$555</definedName>
+    <definedName name="PG" localSheetId="0">Attributes!$C$548</definedName>
+    <definedName name="PH" localSheetId="0">Attributes!$C$552</definedName>
+    <definedName name="PK" localSheetId="0">Attributes!$C$544</definedName>
+    <definedName name="PL" localSheetId="0">Attributes!$C$554</definedName>
+    <definedName name="PM" localSheetId="0">Attributes!$C$572</definedName>
+    <definedName name="PN" localSheetId="0">Attributes!$C$553</definedName>
+    <definedName name="PR" localSheetId="0">Attributes!$C$556</definedName>
+    <definedName name="PS" localSheetId="0">Attributes!$C$546</definedName>
+    <definedName name="PT" localSheetId="0">Attributes!$C$557</definedName>
+    <definedName name="PW" localSheetId="0">Attributes!$C$545</definedName>
+    <definedName name="PY" localSheetId="0">Attributes!$C$549</definedName>
+    <definedName name="QA" localSheetId="0">Attributes!$C$558</definedName>
+    <definedName name="RE" localSheetId="0">Attributes!$C$559</definedName>
+    <definedName name="RO" localSheetId="0">Attributes!$C$560</definedName>
+    <definedName name="RS" localSheetId="0">Attributes!$C$580</definedName>
+    <definedName name="RU" localSheetId="0">Attributes!$C$562</definedName>
+    <definedName name="RW" localSheetId="0">Attributes!$C$563</definedName>
+    <definedName name="SA" localSheetId="0">Attributes!$C$384</definedName>
+    <definedName name="SB" localSheetId="0">Attributes!$C$575</definedName>
+    <definedName name="SC" localSheetId="0">Attributes!$C$581</definedName>
+    <definedName name="SD" localSheetId="0">Attributes!$C$587</definedName>
+    <definedName name="SE" localSheetId="0">Attributes!$C$590</definedName>
+    <definedName name="SG" localSheetId="0">Attributes!$C$583</definedName>
+    <definedName name="SH" localSheetId="0">Attributes!$C$566</definedName>
+    <definedName name="SI" localSheetId="0">Attributes!$C$585</definedName>
+    <definedName name="SJ" localSheetId="0">Attributes!$C$593</definedName>
+    <definedName name="SK" localSheetId="0">Attributes!$C$584</definedName>
+    <definedName name="SL" localSheetId="0">Attributes!$C$582</definedName>
+    <definedName name="SM" localSheetId="0">Attributes!$C$569</definedName>
+    <definedName name="SN" localSheetId="0">Attributes!$C$579</definedName>
+    <definedName name="SO" localSheetId="0">Attributes!$C$586</definedName>
+    <definedName name="SR" localSheetId="0">Attributes!$C$592</definedName>
+    <definedName name="SS" localSheetId="0">Attributes!$C$588</definedName>
+    <definedName name="ST" localSheetId="0">Attributes!$C$578</definedName>
+    <definedName name="SV" localSheetId="0">Attributes!$C$439</definedName>
+    <definedName name="SX" localSheetId="0">Attributes!$C$571</definedName>
+    <definedName name="SY" localSheetId="0">Attributes!$C$595</definedName>
+    <definedName name="SZ" localSheetId="0">Attributes!$C$594</definedName>
+    <definedName name="TC" localSheetId="0">Attributes!$C$610</definedName>
+    <definedName name="TD" localSheetId="0">Attributes!$C$599</definedName>
+    <definedName name="TF" localSheetId="0">Attributes!$C$601</definedName>
+    <definedName name="TG" localSheetId="0">Attributes!$C$604</definedName>
+    <definedName name="TH" localSheetId="0">Attributes!$C$602</definedName>
+    <definedName name="TJ" localSheetId="0">Attributes!$C$596</definedName>
+    <definedName name="TK" localSheetId="0">Attributes!$C$605</definedName>
+    <definedName name="TL" localSheetId="0">Attributes!$C$603</definedName>
+    <definedName name="TM" localSheetId="0">Attributes!$C$609</definedName>
+    <definedName name="TN" localSheetId="0">Attributes!$C$608</definedName>
+    <definedName name="TO" localSheetId="0">Attributes!$C$606</definedName>
+    <definedName name="TR" localSheetId="0">Attributes!$C$611</definedName>
+    <definedName name="TT" localSheetId="0">Attributes!$C$607</definedName>
+    <definedName name="TV" localSheetId="0">Attributes!$C$612</definedName>
+    <definedName name="TW" localSheetId="0">Attributes!$C$597</definedName>
+    <definedName name="TZ" localSheetId="0">Attributes!$C$598</definedName>
+    <definedName name="UA" localSheetId="0">Attributes!$C$613</definedName>
+    <definedName name="UG" localSheetId="0">Attributes!$C$542</definedName>
+    <definedName name="UM" localSheetId="0">Attributes!$C$476</definedName>
+    <definedName name="US" localSheetId="0">Attributes!$C$445</definedName>
+    <definedName name="UY" localSheetId="0">Attributes!$C$614</definedName>
+    <definedName name="UZ" localSheetId="0">Attributes!$C$543</definedName>
+    <definedName name="VA" localSheetId="0">Attributes!$C$573</definedName>
+    <definedName name="VC" localSheetId="0">Attributes!$C$574</definedName>
+    <definedName name="VE" localSheetId="0">Attributes!$C$616</definedName>
+    <definedName name="VG" localSheetId="0">Attributes!$C$477</definedName>
+    <definedName name="VI" localSheetId="0">Attributes!$C$478</definedName>
+    <definedName name="VN" localSheetId="0">Attributes!$C$617</definedName>
+    <definedName name="VU" localSheetId="0">Attributes!$C$615</definedName>
+    <definedName name="WF" localSheetId="0">Attributes!$C$618</definedName>
+    <definedName name="WS" localSheetId="0">Attributes!$C$576</definedName>
+    <definedName name="YE" localSheetId="0">Attributes!$C$619</definedName>
+    <definedName name="YT" localSheetId="0">Attributes!$C$519</definedName>
+    <definedName name="ZA" localSheetId="0">Attributes!$C$374</definedName>
+    <definedName name="ZM" localSheetId="0">Attributes!$C$620</definedName>
+    <definedName name="ZW" localSheetId="0">Attributes!$C$621</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1885" uniqueCount="1375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2088" uniqueCount="1431">
   <si>
     <t>identifier</t>
   </si>
@@ -4391,6 +4392,174 @@
   </si>
   <si>
     <t>Brazil,Croatia,Mexico,Cameroon,Spain,Netherlands,Chile,Australia,Colombia,Greece,Côte d'Ivoire,Japan,Uruguay,Costa Rica,England,Italy,Switzerland,Ecuador,France,Honduras,Argentina,Bosnia and Herzegovina,Iran,Nigeria,Germany,Portugal,Ghana,USA,Belgium,Algeria,Russia,South Korea</t>
+  </si>
+  <si>
+    <t>when</t>
+  </si>
+  <si>
+    <t>first</t>
+  </si>
+  <si>
+    <t>second</t>
+  </si>
+  <si>
+    <t>result</t>
+  </si>
+  <si>
+    <t>Brazil vs Croatia [Group A]</t>
+  </si>
+  <si>
+    <t>Mexico vs Cameroon [Group A]</t>
+  </si>
+  <si>
+    <t>Spain vs Netherlands [Group B]</t>
+  </si>
+  <si>
+    <t>Chile vs Australia [Group B]</t>
+  </si>
+  <si>
+    <t>Colombia vs Greece [Group C]</t>
+  </si>
+  <si>
+    <t>England vs Italy [Group D]</t>
+  </si>
+  <si>
+    <t>Côte d'Ivoire vs Japan [Group C]</t>
+  </si>
+  <si>
+    <t>Switzerland vs Ecuador [Group E]</t>
+  </si>
+  <si>
+    <t>France vs Honduras [Group E]</t>
+  </si>
+  <si>
+    <t>Argentina vs Bosnia and Herzegovina [Group F]</t>
+  </si>
+  <si>
+    <t>Germany vs Portugal [Group G]</t>
+  </si>
+  <si>
+    <t>National team</t>
+  </si>
+  <si>
+    <t>SPORT_NATIONAL</t>
+  </si>
+  <si>
+    <t>National Team</t>
+  </si>
+  <si>
+    <t>Iran vs Nigeria [Group F]</t>
+  </si>
+  <si>
+    <t>Ghana vs USA [Group G]</t>
+  </si>
+  <si>
+    <t>Belgium vs Algeria [Group H]</t>
+  </si>
+  <si>
+    <t>Brazil vs Mexico [Group A]</t>
+  </si>
+  <si>
+    <t>Russia vs South Korea [Group H]</t>
+  </si>
+  <si>
+    <t>Australia vs Netherlands [Group B]</t>
+  </si>
+  <si>
+    <t>Spain vs Chile [Group B]</t>
+  </si>
+  <si>
+    <t>Cameroon vs Croatia [Group A]</t>
+  </si>
+  <si>
+    <t>Colombia vs Côte d'Ivoire [Group C]</t>
+  </si>
+  <si>
+    <t>Japan vs Greece [Group C]</t>
+  </si>
+  <si>
+    <t>Italy vs Costa Rica [Group D]</t>
+  </si>
+  <si>
+    <t>Switzerland vs France [Group E]</t>
+  </si>
+  <si>
+    <t>Honduras vs Ecuador [Group E]</t>
+  </si>
+  <si>
+    <t>Argentina vs Iran [Group F]</t>
+  </si>
+  <si>
+    <t>Germany vs Ghana [Group G]</t>
+  </si>
+  <si>
+    <t>Nigeria vs Bosnia and Herzegovina [Group F]</t>
+  </si>
+  <si>
+    <t>Belgium vs Russia [Group H]</t>
+  </si>
+  <si>
+    <t>South Korea vs Algeria [Group H]</t>
+  </si>
+  <si>
+    <t>USA vs Portugal [Group G]</t>
+  </si>
+  <si>
+    <t>Australia vs Spain [Group B]</t>
+  </si>
+  <si>
+    <t>Netherlands vs Chile [Group B]</t>
+  </si>
+  <si>
+    <t>Cameroon vs Brazil [Group A]</t>
+  </si>
+  <si>
+    <t>Croatia vs Mexico [Group A]</t>
+  </si>
+  <si>
+    <t>Costa Rica vs England [Group D]</t>
+  </si>
+  <si>
+    <t>Japan vs Colombia [Group C]</t>
+  </si>
+  <si>
+    <t>Greece vs Côte d'Ivoire [Group C]</t>
+  </si>
+  <si>
+    <t>Nigeria vs Argentina [Group F]</t>
+  </si>
+  <si>
+    <t>Bosnia and Herzegovina vs Iran [Group F]</t>
+  </si>
+  <si>
+    <t>Honduras vs Switzerland [Group E]</t>
+  </si>
+  <si>
+    <t>Ecuador vs France [Group E]</t>
+  </si>
+  <si>
+    <t>USA vs Germany [Group G]</t>
+  </si>
+  <si>
+    <t>Portugal vs Ghana [Group G]</t>
+  </si>
+  <si>
+    <t>South Korea vs Belgium [Group H]</t>
+  </si>
+  <si>
+    <t>Algeria vs Russia [Group H]</t>
+  </si>
+  <si>
+    <t>Brazil vs Croatia [Group A],Mexico vs Cameroon [Group A],Spain vs Netherlands [Group B],Chile vs Australia [Group B],Colombia vs Greece [Group C],Urugay vs Costa Rica [Group D],England vs Italy [Group D],Côte d'Ivoire vs Japan [Group C],Switzerland vs Ecuador [Group E],France vs Honduras [Group E],Argentina vs Bosnia and Herzegovina [Group F],Germany vs Portugal [Group G],Iran vs Nigeria [Group F],Ghana vs USA [Group G],Belgium vs Algeria [Group H],Brazil vs Mexico [Group A],Russia vs South Korea [Group H],Australia vs Netherlands [Group B],Spain vs Chile [Group B],Cameroon vs Croatia [Group A],Colombia vs Côte d'Ivoire [Group C],Urugay vs England [Group D],Japan vs Greece [Group C],Italy vs Costa Rica [Group D],Switzerland vs France [Group E],Honduras vs Ecuador [Group E],Argentina vs Iran [Group F],Germany vs Ghana [Group G],Nigeria vs Bosnia and Herzegovina [Group F],Belgium vs Russia [Group H],South Korea vs Algeria [Group H],USA vs Portugal [Group G],Australia vs Spain [Group B],Netherlands vs Chile [Group B],Cameroon vs Brazil [Group A],Croatia vs Mexico [Group A],Italy vs Urugay [Group D],Costa Rica vs England [Group D],Japan vs Colombia [Group C],Greece vs Côte d'Ivoire [Group C],Nigeria vs Argentina [Group F],Bosnia and Herzegovina vs Iran [Group F],Honduras vs Switzerland [Group E],Ecuador vs France [Group E],USA vs Germany [Group G],Portugal vs Ghana [Group G],South Korea vs Belgium [Group H],Algeria vs Russia [Group H]</t>
+  </si>
+  <si>
+    <t>Uruguay vs Costa Rica [Group D]</t>
+  </si>
+  <si>
+    <t>Uruguay vs England [Group D]</t>
+  </si>
+  <si>
+    <t>Italy vs Uruguay [Group D]</t>
   </si>
 </sst>
 </file>
@@ -4431,13 +4600,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4740,10 +4910,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1082"/>
+  <dimension ref="A1:E1083"/>
   <sheetViews>
-    <sheetView topLeftCell="A295" workbookViewId="0">
-      <selection activeCell="A361" sqref="A361"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4893,13 +5063,13 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>1306</v>
+        <v>1391</v>
       </c>
       <c r="B9" t="s">
-        <v>1307</v>
+        <v>1390</v>
       </c>
       <c r="C9" t="s">
-        <v>1307</v>
+        <v>1392</v>
       </c>
       <c r="D9" t="s">
         <v>1308</v>
@@ -4910,13 +5080,13 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>1309</v>
+        <v>1306</v>
       </c>
       <c r="B10" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
       <c r="C10" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
       <c r="D10" t="s">
         <v>1308</v>
@@ -4927,30 +5097,30 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>5</v>
+        <v>1309</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>1310</v>
       </c>
       <c r="C11" t="s">
-        <v>7</v>
+        <v>1310</v>
       </c>
       <c r="D11" t="s">
-        <v>8</v>
+        <v>1308</v>
       </c>
       <c r="E11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D12" t="s">
         <v>8</v>
@@ -4961,13 +5131,13 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D13" t="s">
         <v>8</v>
@@ -4978,13 +5148,13 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D14" t="s">
         <v>8</v>
@@ -4995,13 +5165,13 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D15" t="s">
         <v>8</v>
@@ -5012,13 +5182,13 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D16" t="s">
         <v>8</v>
@@ -5029,13 +5199,13 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D17" t="s">
         <v>8</v>
@@ -5046,13 +5216,13 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
         <v>8</v>
@@ -5063,13 +5233,13 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C19" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D19" t="s">
         <v>8</v>
@@ -5080,13 +5250,13 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C20" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D20" t="s">
         <v>8</v>
@@ -5097,13 +5267,13 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B21" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C21" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D21" t="s">
         <v>8</v>
@@ -5114,13 +5284,13 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B22" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C22" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D22" t="s">
         <v>8</v>
@@ -5131,13 +5301,13 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B23" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C23" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D23" t="s">
         <v>8</v>
@@ -5148,13 +5318,13 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B24" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C24" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D24" t="s">
         <v>8</v>
@@ -5165,13 +5335,13 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B25" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C25" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D25" t="s">
         <v>8</v>
@@ -5182,13 +5352,13 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B26" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C26" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D26" t="s">
         <v>8</v>
@@ -5199,13 +5369,13 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B27" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C27" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D27" t="s">
         <v>8</v>
@@ -5216,13 +5386,13 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B28" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C28" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D28" t="s">
         <v>8</v>
@@ -5233,13 +5403,13 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B29" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C29" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D29" t="s">
         <v>8</v>
@@ -5250,13 +5420,13 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B30" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C30" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D30" t="s">
         <v>8</v>
@@ -5267,13 +5437,13 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B31" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C31" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D31" t="s">
         <v>8</v>
@@ -5284,13 +5454,13 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B32" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C32" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D32" t="s">
         <v>8</v>
@@ -5301,13 +5471,13 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B33" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C33" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D33" t="s">
         <v>8</v>
@@ -5318,13 +5488,13 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B34" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C34" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D34" t="s">
         <v>8</v>
@@ -5335,13 +5505,13 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B35" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C35" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D35" t="s">
         <v>8</v>
@@ -5352,13 +5522,13 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B36" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C36" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D36" t="s">
         <v>8</v>
@@ -5369,13 +5539,13 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B37" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C37" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D37" t="s">
         <v>8</v>
@@ -5386,13 +5556,13 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B38" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C38" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D38" t="s">
         <v>8</v>
@@ -5403,13 +5573,13 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B39" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C39" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D39" t="s">
         <v>8</v>
@@ -5420,47 +5590,47 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B40" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C40" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D40" t="s">
         <v>8</v>
       </c>
       <c r="E40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B41" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C41" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D41" t="s">
         <v>8</v>
       </c>
       <c r="E41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B42" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C42" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D42" t="s">
         <v>8</v>
@@ -5471,13 +5641,13 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B43" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C43" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D43" t="s">
         <v>8</v>
@@ -5488,13 +5658,13 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B44" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C44" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D44" t="s">
         <v>8</v>
@@ -5505,13 +5675,13 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B45" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C45" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D45" t="s">
         <v>8</v>
@@ -5522,13 +5692,13 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B46" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C46" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D46" t="s">
         <v>8</v>
@@ -5539,13 +5709,13 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B47" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C47" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D47" t="s">
         <v>8</v>
@@ -5556,13 +5726,13 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B48" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C48" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D48" t="s">
         <v>8</v>
@@ -5573,13 +5743,13 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B49" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C49" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D49" t="s">
         <v>8</v>
@@ -5590,13 +5760,13 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B50" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C50" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D50" t="s">
         <v>8</v>
@@ -5607,13 +5777,13 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B51" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C51" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D51" t="s">
         <v>8</v>
@@ -5624,13 +5794,13 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B52" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C52" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D52" t="s">
         <v>8</v>
@@ -5641,13 +5811,13 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B53" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C53" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D53" t="s">
         <v>8</v>
@@ -5658,13 +5828,13 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B54" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C54" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D54" t="s">
         <v>8</v>
@@ -5675,13 +5845,13 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B55" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C55" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D55" t="s">
         <v>8</v>
@@ -5692,13 +5862,13 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B56" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C56" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D56" t="s">
         <v>8</v>
@@ -5709,13 +5879,13 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B57" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C57" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D57" t="s">
         <v>8</v>
@@ -5726,13 +5896,13 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B58" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C58" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D58" t="s">
         <v>8</v>
@@ -5743,13 +5913,13 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B59" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C59" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D59" t="s">
         <v>8</v>
@@ -5760,47 +5930,47 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B60" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C60" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D60" t="s">
         <v>8</v>
       </c>
       <c r="E60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B61" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C61" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D61" t="s">
         <v>8</v>
       </c>
       <c r="E61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B62" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C62" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D62" t="s">
         <v>8</v>
@@ -5811,47 +5981,47 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B63" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C63" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D63" t="s">
         <v>8</v>
       </c>
       <c r="E63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B64" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C64" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D64" t="s">
         <v>8</v>
       </c>
       <c r="E64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B65" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C65" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D65" t="s">
         <v>8</v>
@@ -5862,13 +6032,13 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B66" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C66" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D66" t="s">
         <v>8</v>
@@ -5879,13 +6049,13 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B67" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C67" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D67" t="s">
         <v>8</v>
@@ -5896,13 +6066,13 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B68" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C68" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D68" t="s">
         <v>8</v>
@@ -5913,13 +6083,13 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B69" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C69" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D69" t="s">
         <v>8</v>
@@ -5930,13 +6100,13 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B70" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C70" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D70" t="s">
         <v>8</v>
@@ -5947,13 +6117,13 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B71" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C71" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D71" t="s">
         <v>8</v>
@@ -5964,13 +6134,13 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B72" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C72" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D72" t="s">
         <v>8</v>
@@ -5981,13 +6151,13 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B73" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C73" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D73" t="s">
         <v>8</v>
@@ -5998,13 +6168,13 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B74" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C74" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D74" t="s">
         <v>8</v>
@@ -6015,13 +6185,13 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B75" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C75" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D75" t="s">
         <v>8</v>
@@ -6032,13 +6202,13 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B76" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C76" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D76" t="s">
         <v>8</v>
@@ -6049,13 +6219,13 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B77" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C77" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D77" t="s">
         <v>8</v>
@@ -6066,13 +6236,13 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B78" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C78" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D78" t="s">
         <v>8</v>
@@ -6083,13 +6253,13 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B79" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C79" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D79" t="s">
         <v>8</v>
@@ -6100,13 +6270,13 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B80" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C80" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D80" t="s">
         <v>8</v>
@@ -6117,13 +6287,13 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B81" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C81" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D81" t="s">
         <v>8</v>
@@ -6134,13 +6304,13 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B82" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C82" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D82" t="s">
         <v>8</v>
@@ -6151,13 +6321,13 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B83" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C83" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D83" t="s">
         <v>8</v>
@@ -6168,13 +6338,13 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B84" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C84" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D84" t="s">
         <v>8</v>
@@ -6185,47 +6355,47 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B85" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C85" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D85" t="s">
         <v>8</v>
       </c>
       <c r="E85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B86" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C86" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D86" t="s">
         <v>8</v>
       </c>
       <c r="E86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B87" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C87" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D87" t="s">
         <v>8</v>
@@ -6236,13 +6406,13 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B88" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C88" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D88" t="s">
         <v>8</v>
@@ -6253,13 +6423,13 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B89" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C89" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D89" t="s">
         <v>8</v>
@@ -6270,13 +6440,13 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B90" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C90" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D90" t="s">
         <v>8</v>
@@ -6287,13 +6457,13 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B91" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C91" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D91" t="s">
         <v>8</v>
@@ -6304,13 +6474,13 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B92" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C92" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D92" t="s">
         <v>8</v>
@@ -6321,13 +6491,13 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B93" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C93" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D93" t="s">
         <v>8</v>
@@ -6338,13 +6508,13 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B94" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C94" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D94" t="s">
         <v>8</v>
@@ -6355,13 +6525,13 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B95" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C95" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D95" t="s">
         <v>8</v>
@@ -6372,13 +6542,13 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B96" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C96" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D96" t="s">
         <v>8</v>
@@ -6389,13 +6559,13 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B97" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C97" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D97" t="s">
         <v>8</v>
@@ -6406,13 +6576,13 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B98" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C98" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D98" t="s">
         <v>8</v>
@@ -6423,13 +6593,13 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B99" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C99" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D99" t="s">
         <v>8</v>
@@ -6440,13 +6610,13 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B100" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C100" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D100" t="s">
         <v>8</v>
@@ -6457,13 +6627,13 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B101" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C101" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D101" t="s">
         <v>8</v>
@@ -6474,13 +6644,13 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B102" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C102" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D102" t="s">
         <v>8</v>
@@ -6491,13 +6661,13 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B103" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C103" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D103" t="s">
         <v>8</v>
@@ -6508,13 +6678,13 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B104" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C104" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D104" t="s">
         <v>8</v>
@@ -6525,13 +6695,13 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B105" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C105" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D105" t="s">
         <v>8</v>
@@ -6542,13 +6712,13 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B106" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C106" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D106" t="s">
         <v>8</v>
@@ -6559,13 +6729,13 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B107" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C107" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D107" t="s">
         <v>8</v>
@@ -6576,13 +6746,13 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B108" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C108" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D108" t="s">
         <v>8</v>
@@ -6593,13 +6763,13 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B109" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C109" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D109" t="s">
         <v>8</v>
@@ -6610,13 +6780,13 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B110" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C110" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D110" t="s">
         <v>8</v>
@@ -6627,13 +6797,13 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B111" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C111" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D111" t="s">
         <v>8</v>
@@ -6644,13 +6814,13 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B112" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C112" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="D112" t="s">
         <v>8</v>
@@ -6661,13 +6831,13 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B113" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C113" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="D113" t="s">
         <v>8</v>
@@ -6678,13 +6848,13 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B114" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C114" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D114" t="s">
         <v>8</v>
@@ -6695,13 +6865,13 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B115" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C115" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D115" t="s">
         <v>8</v>
@@ -6712,13 +6882,13 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B116" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C116" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="D116" t="s">
         <v>8</v>
@@ -6729,13 +6899,13 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B117" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C117" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D117" t="s">
         <v>8</v>
@@ -6746,13 +6916,13 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B118" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C118" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="D118" t="s">
         <v>8</v>
@@ -6763,13 +6933,13 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B119" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C119" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="D119" t="s">
         <v>8</v>
@@ -6780,13 +6950,13 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B120" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C120" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="D120" t="s">
         <v>8</v>
@@ -6797,13 +6967,13 @@
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B121" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C121" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="D121" t="s">
         <v>8</v>
@@ -6814,13 +6984,13 @@
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="B122" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C122" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="D122" t="s">
         <v>8</v>
@@ -6831,13 +7001,13 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B123" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C123" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="D123" t="s">
         <v>8</v>
@@ -6848,13 +7018,13 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B124" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C124" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="D124" t="s">
         <v>8</v>
@@ -6865,13 +7035,13 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="B125" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="C125" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="D125" t="s">
         <v>8</v>
@@ -6882,13 +7052,13 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B126" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C126" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D126" t="s">
         <v>8</v>
@@ -6899,13 +7069,13 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B127" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C127" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="D127" t="s">
         <v>8</v>
@@ -6916,13 +7086,13 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="B128" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C128" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D128" t="s">
         <v>8</v>
@@ -6933,13 +7103,13 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="B129" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C129" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="D129" t="s">
         <v>8</v>
@@ -6950,13 +7120,13 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B130" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C130" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="D130" t="s">
         <v>8</v>
@@ -6967,13 +7137,13 @@
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="B131" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C131" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D131" t="s">
         <v>8</v>
@@ -6984,13 +7154,13 @@
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B132" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C132" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="D132" t="s">
         <v>8</v>
@@ -7001,13 +7171,13 @@
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B133" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="C133" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="D133" t="s">
         <v>8</v>
@@ -7018,13 +7188,13 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B134" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C134" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="D134" t="s">
         <v>8</v>
@@ -7035,13 +7205,13 @@
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B135" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="C135" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="D135" t="s">
         <v>8</v>
@@ -7052,13 +7222,13 @@
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B136" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C136" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="D136" t="s">
         <v>8</v>
@@ -7069,13 +7239,13 @@
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="B137" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="C137" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="D137" t="s">
         <v>8</v>
@@ -7086,13 +7256,13 @@
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B138" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="C138" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="D138" t="s">
         <v>8</v>
@@ -7103,13 +7273,13 @@
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B139" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="C139" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="D139" t="s">
         <v>8</v>
@@ -7120,13 +7290,13 @@
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="B140" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C140" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="D140" t="s">
         <v>8</v>
@@ -7137,13 +7307,13 @@
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B141" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="C141" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="D141" t="s">
         <v>8</v>
@@ -7154,13 +7324,13 @@
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="B142" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="C142" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="D142" t="s">
         <v>8</v>
@@ -7171,13 +7341,13 @@
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="B143" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="C143" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="D143" t="s">
         <v>8</v>
@@ -7188,13 +7358,13 @@
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="B144" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="C144" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="D144" t="s">
         <v>8</v>
@@ -7205,13 +7375,13 @@
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="B145" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="C145" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="D145" t="s">
         <v>8</v>
@@ -7222,13 +7392,13 @@
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B146" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="C146" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="D146" t="s">
         <v>8</v>
@@ -7239,13 +7409,13 @@
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B147" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="C147" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="D147" t="s">
         <v>8</v>
@@ -7256,13 +7426,13 @@
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B148" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="C148" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="D148" t="s">
         <v>8</v>
@@ -7273,13 +7443,13 @@
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B149" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="C149" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="D149" t="s">
         <v>8</v>
@@ -7290,13 +7460,13 @@
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="B150" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C150" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="D150" t="s">
         <v>8</v>
@@ -7307,13 +7477,13 @@
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B151" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C151" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="D151" t="s">
         <v>8</v>
@@ -7324,13 +7494,13 @@
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B152" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="C152" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="D152" t="s">
         <v>8</v>
@@ -7341,13 +7511,13 @@
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B153" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="C153" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="D153" t="s">
         <v>8</v>
@@ -7358,13 +7528,13 @@
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="B154" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C154" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="D154" t="s">
         <v>8</v>
@@ -7375,13 +7545,13 @@
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="B155" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="C155" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="D155" t="s">
         <v>8</v>
@@ -7392,13 +7562,13 @@
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="B156" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="C156" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="D156" t="s">
         <v>8</v>
@@ -7409,13 +7579,13 @@
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="B157" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="C157" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="D157" t="s">
         <v>8</v>
@@ -7426,13 +7596,13 @@
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="B158" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="C158" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="D158" t="s">
         <v>8</v>
@@ -7443,13 +7613,13 @@
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="B159" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="C159" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="D159" t="s">
         <v>8</v>
@@ -7460,13 +7630,13 @@
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="B160" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="C160" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="D160" t="s">
         <v>8</v>
@@ -7477,13 +7647,13 @@
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="B161" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="C161" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="D161" t="s">
         <v>8</v>
@@ -7494,13 +7664,13 @@
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="B162" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="C162" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="D162" t="s">
         <v>8</v>
@@ -7511,47 +7681,47 @@
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="B163" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="C163" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="D163" t="s">
         <v>8</v>
       </c>
       <c r="E163" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="B164" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="C164" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="D164" t="s">
         <v>8</v>
       </c>
       <c r="E164" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="B165" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="C165" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="D165" t="s">
         <v>8</v>
@@ -7562,13 +7732,13 @@
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="B166" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="C166" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="D166" t="s">
         <v>8</v>
@@ -7579,13 +7749,13 @@
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="B167" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="C167" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="D167" t="s">
         <v>8</v>
@@ -7596,13 +7766,13 @@
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="B168" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="C168" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="D168" t="s">
         <v>8</v>
@@ -7613,13 +7783,13 @@
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="B169" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="C169" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D169" t="s">
         <v>8</v>
@@ -7630,13 +7800,13 @@
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="B170" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="C170" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="D170" t="s">
         <v>8</v>
@@ -7647,13 +7817,13 @@
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="B171" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="C171" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="D171" t="s">
         <v>8</v>
@@ -7664,13 +7834,13 @@
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="B172" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="C172" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D172" t="s">
         <v>8</v>
@@ -7681,13 +7851,13 @@
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="B173" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="C173" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="D173" t="s">
         <v>8</v>
@@ -7698,13 +7868,13 @@
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="B174" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="C174" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="D174" t="s">
         <v>8</v>
@@ -7715,13 +7885,13 @@
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="B175" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="C175" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="D175" t="s">
         <v>8</v>
@@ -7732,13 +7902,13 @@
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="B176" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="C176" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="D176" t="s">
         <v>8</v>
@@ -7749,13 +7919,13 @@
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="B177" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="C177" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="D177" t="s">
         <v>8</v>
@@ -7766,13 +7936,13 @@
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="B178" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="C178" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="D178" t="s">
         <v>8</v>
@@ -7783,13 +7953,13 @@
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="B179" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="C179" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="D179" t="s">
         <v>8</v>
@@ -7800,13 +7970,13 @@
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="B180" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="C180" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="D180" t="s">
         <v>8</v>
@@ -7817,13 +7987,13 @@
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="B181" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="C181" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="D181" t="s">
         <v>8</v>
@@ -7834,13 +8004,13 @@
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="B182" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="C182" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="D182" t="s">
         <v>8</v>
@@ -7851,13 +8021,13 @@
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="B183" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="C183" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="D183" t="s">
         <v>8</v>
@@ -7868,13 +8038,13 @@
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="B184" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="C184" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="D184" t="s">
         <v>8</v>
@@ -7885,13 +8055,13 @@
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="B185" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="C185" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="D185" t="s">
         <v>8</v>
@@ -7902,13 +8072,13 @@
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="B186" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="C186" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="D186" t="s">
         <v>8</v>
@@ -7919,13 +8089,13 @@
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="B187" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="C187" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="D187" t="s">
         <v>8</v>
@@ -7936,13 +8106,13 @@
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="B188" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="C188" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="D188" t="s">
         <v>8</v>
@@ -7953,13 +8123,13 @@
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="B189" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="C189" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="D189" t="s">
         <v>8</v>
@@ -7970,13 +8140,13 @@
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="B190" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="C190" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="D190" t="s">
         <v>8</v>
@@ -7987,13 +8157,13 @@
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="B191" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="C191" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="D191" t="s">
         <v>8</v>
@@ -8004,13 +8174,13 @@
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="B192" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="C192" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="D192" t="s">
         <v>8</v>
@@ -8021,13 +8191,13 @@
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="B193" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="C193" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="D193" t="s">
         <v>8</v>
@@ -8038,13 +8208,13 @@
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="B194" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="C194" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="D194" t="s">
         <v>8</v>
@@ -8055,30 +8225,30 @@
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="B195" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="C195" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="D195" t="s">
-        <v>561</v>
+        <v>8</v>
       </c>
       <c r="E195" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="B196" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="C196" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="D196" t="s">
         <v>561</v>
@@ -8089,13 +8259,13 @@
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="B197" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="C197" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="D197" t="s">
         <v>561</v>
@@ -8106,13 +8276,13 @@
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="B198" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="C198" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="D198" t="s">
         <v>561</v>
@@ -8123,13 +8293,13 @@
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="B199" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="C199" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="D199" t="s">
         <v>561</v>
@@ -8140,13 +8310,13 @@
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="B200" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="C200" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="D200" t="s">
         <v>561</v>
@@ -8157,13 +8327,13 @@
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="B201" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="C201" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="D201" t="s">
         <v>561</v>
@@ -8174,13 +8344,13 @@
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="B202" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="C202" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="D202" t="s">
         <v>561</v>
@@ -8191,13 +8361,13 @@
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="B203" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="C203" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="D203" t="s">
         <v>561</v>
@@ -8208,13 +8378,13 @@
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="B204" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="C204" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="D204" t="s">
         <v>561</v>
@@ -8225,13 +8395,13 @@
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="B205" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="C205" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="D205" t="s">
         <v>561</v>
@@ -8242,13 +8412,13 @@
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="B206" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="C206" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="D206" t="s">
         <v>561</v>
@@ -8259,13 +8429,13 @@
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="B207" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="C207" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="D207" t="s">
         <v>561</v>
@@ -8276,13 +8446,13 @@
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="B208" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="C208" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="D208" t="s">
         <v>561</v>
@@ -8293,13 +8463,13 @@
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="B209" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="C209" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="D209" t="s">
         <v>561</v>
@@ -8310,13 +8480,13 @@
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="B210" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="C210" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="D210" t="s">
         <v>561</v>
@@ -8327,13 +8497,13 @@
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="B211" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="C211" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="D211" t="s">
         <v>561</v>
@@ -8344,13 +8514,13 @@
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="B212" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="C212" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="D212" t="s">
         <v>561</v>
@@ -8361,13 +8531,13 @@
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="B213" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="C213" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="D213" t="s">
         <v>561</v>
@@ -8378,13 +8548,13 @@
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="B214" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C214" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="D214" t="s">
         <v>561</v>
@@ -8395,13 +8565,13 @@
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="B215" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="C215" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="D215" t="s">
         <v>561</v>
@@ -8412,13 +8582,13 @@
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="B216" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="C216" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="D216" t="s">
         <v>561</v>
@@ -8429,13 +8599,13 @@
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="B217" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="C217" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="D217" t="s">
         <v>561</v>
@@ -8446,13 +8616,13 @@
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="B218" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="C218" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="D218" t="s">
         <v>561</v>
@@ -8463,13 +8633,13 @@
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="B219" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="C219" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="D219" t="s">
         <v>561</v>
@@ -8480,13 +8650,13 @@
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="B220" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="C220" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="D220" t="s">
         <v>561</v>
@@ -8497,13 +8667,13 @@
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="B221" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="C221" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="D221" t="s">
         <v>561</v>
@@ -8514,13 +8684,13 @@
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="B222" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="C222" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="D222" t="s">
         <v>561</v>
@@ -8531,13 +8701,13 @@
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="B223" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="C223" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="D223" t="s">
         <v>561</v>
@@ -8548,13 +8718,13 @@
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="B224" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="C224" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="D224" t="s">
         <v>561</v>
@@ -8565,13 +8735,13 @@
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="B225" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="C225" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="D225" t="s">
         <v>561</v>
@@ -8582,13 +8752,13 @@
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="B226" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="C226" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="D226" t="s">
         <v>561</v>
@@ -8599,13 +8769,13 @@
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="B227" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="C227" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="D227" t="s">
         <v>561</v>
@@ -8616,13 +8786,13 @@
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="B228" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="C228" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="D228" t="s">
         <v>561</v>
@@ -8633,13 +8803,13 @@
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="B229" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="C229" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D229" t="s">
         <v>561</v>
@@ -8650,13 +8820,13 @@
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="B230" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="C230" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="D230" t="s">
         <v>561</v>
@@ -8667,13 +8837,13 @@
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="B231" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="C231" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="D231" t="s">
         <v>561</v>
@@ -8684,13 +8854,13 @@
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="B232" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="C232" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="D232" t="s">
         <v>561</v>
@@ -8701,13 +8871,13 @@
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="B233" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="C233" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="D233" t="s">
         <v>561</v>
@@ -8718,13 +8888,13 @@
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="B234" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="C234" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="D234" t="s">
         <v>561</v>
@@ -8735,13 +8905,13 @@
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="B235" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="C235" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="D235" t="s">
         <v>561</v>
@@ -8752,13 +8922,13 @@
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="B236" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="C236" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="D236" t="s">
         <v>561</v>
@@ -8769,13 +8939,13 @@
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="B237" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="C237" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="D237" t="s">
         <v>561</v>
@@ -8786,13 +8956,13 @@
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="B238" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="C238" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="D238" t="s">
         <v>561</v>
@@ -8803,13 +8973,13 @@
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="B239" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="C239" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="D239" t="s">
         <v>561</v>
@@ -8820,13 +8990,13 @@
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="B240" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="C240" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="D240" t="s">
         <v>561</v>
@@ -8837,13 +9007,13 @@
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="B241" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="C241" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="D241" t="s">
         <v>561</v>
@@ -8854,13 +9024,13 @@
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="B242" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="C242" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="D242" t="s">
         <v>561</v>
@@ -8871,13 +9041,13 @@
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="B243" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="C243" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="D243" t="s">
         <v>561</v>
@@ -8888,13 +9058,13 @@
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="B244" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="C244" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="D244" t="s">
         <v>561</v>
@@ -8905,13 +9075,13 @@
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="B245" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="C245" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="D245" t="s">
         <v>561</v>
@@ -8922,13 +9092,13 @@
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="B246" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="C246" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="D246" t="s">
         <v>561</v>
@@ -8939,13 +9109,13 @@
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="B247" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="C247" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="D247" t="s">
         <v>561</v>
@@ -8956,13 +9126,13 @@
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="B248" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="C248" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="D248" t="s">
         <v>561</v>
@@ -8973,13 +9143,13 @@
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="B249" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="C249" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="D249" t="s">
         <v>561</v>
@@ -8990,13 +9160,13 @@
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="B250" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="C250" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="D250" t="s">
         <v>561</v>
@@ -9007,13 +9177,13 @@
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="B251" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="C251" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="D251" t="s">
         <v>561</v>
@@ -9024,13 +9194,13 @@
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="B252" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="C252" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="D252" t="s">
         <v>561</v>
@@ -9041,13 +9211,13 @@
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="B253" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="C253" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="D253" t="s">
         <v>561</v>
@@ -9058,13 +9228,13 @@
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="B254" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="C254" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="D254" t="s">
         <v>561</v>
@@ -9075,13 +9245,13 @@
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="B255" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="C255" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="D255" t="s">
         <v>561</v>
@@ -9092,13 +9262,13 @@
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="B256" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="C256" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="D256" t="s">
         <v>561</v>
@@ -9109,13 +9279,13 @@
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="B257" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="C257" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="D257" t="s">
         <v>561</v>
@@ -9126,13 +9296,13 @@
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="B258" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="C258" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="D258" t="s">
         <v>561</v>
@@ -9143,13 +9313,13 @@
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="B259" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="C259" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="D259" t="s">
         <v>561</v>
@@ -9160,13 +9330,13 @@
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="B260" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="C260" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="D260" t="s">
         <v>561</v>
@@ -9177,13 +9347,13 @@
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="B261" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="C261" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="D261" t="s">
         <v>561</v>
@@ -9194,13 +9364,13 @@
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="B262" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="C262" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="D262" t="s">
         <v>561</v>
@@ -9211,13 +9381,13 @@
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="B263" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="C263" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="D263" t="s">
         <v>561</v>
@@ -9228,13 +9398,13 @@
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="B264" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="C264" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="D264" t="s">
         <v>561</v>
@@ -9245,13 +9415,13 @@
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>1370</v>
+        <v>766</v>
       </c>
       <c r="B265" t="s">
-        <v>1371</v>
+        <v>767</v>
       </c>
       <c r="C265" t="s">
-        <v>1372</v>
+        <v>768</v>
       </c>
       <c r="D265" t="s">
         <v>561</v>
@@ -9262,13 +9432,13 @@
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>769</v>
+        <v>1370</v>
       </c>
       <c r="B266" t="s">
-        <v>770</v>
+        <v>1371</v>
       </c>
       <c r="C266" t="s">
-        <v>771</v>
+        <v>1372</v>
       </c>
       <c r="D266" t="s">
         <v>561</v>
@@ -9279,13 +9449,13 @@
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="B267" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="C267" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="D267" t="s">
         <v>561</v>
@@ -9296,13 +9466,13 @@
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="B268" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="C268" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="D268" t="s">
         <v>561</v>
@@ -9313,13 +9483,13 @@
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="B269" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="C269" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="D269" t="s">
         <v>561</v>
@@ -9330,13 +9500,13 @@
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="B270" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="C270" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="D270" t="s">
         <v>561</v>
@@ -9347,13 +9517,13 @@
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="B271" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="C271" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="D271" t="s">
         <v>561</v>
@@ -9364,13 +9534,13 @@
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="B272" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="C272" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="D272" t="s">
         <v>561</v>
@@ -9381,13 +9551,13 @@
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="B273" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="C273" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="D273" t="s">
         <v>561</v>
@@ -9398,13 +9568,13 @@
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="B274" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="C274" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="D274" t="s">
         <v>561</v>
@@ -9415,13 +9585,13 @@
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="B275" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="C275" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="D275" t="s">
         <v>561</v>
@@ -9432,13 +9602,13 @@
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="B276" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="C276" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="D276" t="s">
         <v>561</v>
@@ -9449,13 +9619,13 @@
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="B277" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="C277" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="D277" t="s">
         <v>561</v>
@@ -9466,13 +9636,13 @@
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="B278" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="C278" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="D278" t="s">
         <v>561</v>
@@ -9483,13 +9653,13 @@
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="B279" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="C279" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="D279" t="s">
         <v>561</v>
@@ -9500,13 +9670,13 @@
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="B280" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="C280" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="D280" t="s">
         <v>561</v>
@@ -9517,13 +9687,13 @@
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="B281" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="C281" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="D281" t="s">
         <v>561</v>
@@ -9534,13 +9704,13 @@
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="B282" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="C282" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="D282" t="s">
         <v>561</v>
@@ -9551,13 +9721,13 @@
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="B283" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="C283" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="D283" t="s">
         <v>561</v>
@@ -9568,13 +9738,13 @@
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="B284" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="C284" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="D284" t="s">
         <v>561</v>
@@ -9585,13 +9755,13 @@
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="B285" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="C285" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="D285" t="s">
         <v>561</v>
@@ -9602,13 +9772,13 @@
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="B286" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="C286" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="D286" t="s">
         <v>561</v>
@@ -9619,13 +9789,13 @@
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="B287" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="C287" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="D287" t="s">
         <v>561</v>
@@ -9636,13 +9806,13 @@
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="B288" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="C288" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="D288" t="s">
         <v>561</v>
@@ -9653,13 +9823,13 @@
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="B289" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="C289" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="D289" t="s">
         <v>561</v>
@@ -9670,13 +9840,13 @@
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="B290" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="C290" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="D290" t="s">
         <v>561</v>
@@ -9687,13 +9857,13 @@
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="B291" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="C291" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="D291" t="s">
         <v>561</v>
@@ -9704,13 +9874,13 @@
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="B292" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="C292" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="D292" t="s">
         <v>561</v>
@@ -9721,13 +9891,13 @@
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="B293" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="C293" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="D293" t="s">
         <v>561</v>
@@ -9738,13 +9908,13 @@
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="B294" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="C294" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="D294" t="s">
         <v>561</v>
@@ -9755,13 +9925,13 @@
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="B295" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="C295" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="D295" t="s">
         <v>561</v>
@@ -9772,13 +9942,13 @@
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="B296" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="C296" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="D296" t="s">
         <v>561</v>
@@ -9789,13 +9959,13 @@
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="B297" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="C297" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="D297" t="s">
         <v>561</v>
@@ -9806,13 +9976,13 @@
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="B298" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="C298" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="D298" t="s">
         <v>561</v>
@@ -9823,13 +9993,13 @@
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="B299" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="C299" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="D299" t="s">
         <v>561</v>
@@ -9840,13 +10010,13 @@
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="B300" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="C300" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="D300" t="s">
         <v>561</v>
@@ -9857,13 +10027,13 @@
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="B301" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="C301" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="D301" t="s">
         <v>561</v>
@@ -9874,13 +10044,13 @@
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="B302" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="C302" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="D302" t="s">
         <v>561</v>
@@ -9891,13 +10061,13 @@
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="B303" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="C303" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="D303" t="s">
         <v>561</v>
@@ -9908,13 +10078,13 @@
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="B304" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="C304" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="D304" t="s">
         <v>561</v>
@@ -9925,13 +10095,13 @@
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="B305" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="C305" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="D305" t="s">
         <v>561</v>
@@ -9942,13 +10112,13 @@
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="B306" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="C306" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="D306" t="s">
         <v>561</v>
@@ -9959,13 +10129,13 @@
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="B307" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="C307" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="D307" t="s">
         <v>561</v>
@@ -9976,13 +10146,13 @@
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="B308" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="C308" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="D308" t="s">
         <v>561</v>
@@ -9993,13 +10163,13 @@
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="B309" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="C309" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="D309" t="s">
         <v>561</v>
@@ -10010,13 +10180,13 @@
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="B310" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="C310" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="D310" t="s">
         <v>561</v>
@@ -10027,13 +10197,13 @@
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="B311" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="C311" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="D311" t="s">
         <v>561</v>
@@ -10044,13 +10214,13 @@
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="B312" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="C312" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="D312" t="s">
         <v>561</v>
@@ -10061,13 +10231,13 @@
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="B313" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="C313" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="D313" t="s">
         <v>561</v>
@@ -10078,13 +10248,13 @@
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="B314" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="C314" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
       <c r="D314" t="s">
         <v>561</v>
@@ -10095,13 +10265,13 @@
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="B315" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="C315" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
       <c r="D315" t="s">
         <v>561</v>
@@ -10112,13 +10282,13 @@
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="B316" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="C316" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="D316" t="s">
         <v>561</v>
@@ -10129,13 +10299,13 @@
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="B317" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="C317" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="D317" t="s">
         <v>561</v>
@@ -10146,13 +10316,13 @@
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="B318" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="C318" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="D318" t="s">
         <v>561</v>
@@ -10163,13 +10333,13 @@
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="B319" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="C319" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="D319" t="s">
         <v>561</v>
@@ -10180,13 +10350,13 @@
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="B320" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="C320" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="D320" t="s">
         <v>561</v>
@@ -10197,13 +10367,13 @@
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="B321" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="C321" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="D321" t="s">
         <v>561</v>
@@ -10214,13 +10384,13 @@
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="B322" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="C322" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="D322" t="s">
         <v>561</v>
@@ -10231,13 +10401,13 @@
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="B323" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="C323" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="D323" t="s">
         <v>561</v>
@@ -10248,13 +10418,13 @@
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="B324" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="C324" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="D324" t="s">
         <v>561</v>
@@ -10265,13 +10435,13 @@
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="B325" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="C325" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="D325" t="s">
         <v>561</v>
@@ -10282,13 +10452,13 @@
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="B326" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="C326" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="D326" t="s">
         <v>561</v>
@@ -10299,13 +10469,13 @@
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="B327" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="C327" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="D327" t="s">
         <v>561</v>
@@ -10316,13 +10486,13 @@
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="B328" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="C328" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
       <c r="D328" t="s">
         <v>561</v>
@@ -10333,13 +10503,13 @@
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
       <c r="B329" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
       <c r="C329" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
       <c r="D329" t="s">
         <v>561</v>
@@ -10350,13 +10520,13 @@
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="B330" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
       <c r="C330" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="D330" t="s">
         <v>561</v>
@@ -10367,13 +10537,13 @@
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
       <c r="B331" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="C331" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
       <c r="D331" t="s">
         <v>561</v>
@@ -10384,13 +10554,13 @@
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
       <c r="B332" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="C332" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
       <c r="D332" t="s">
         <v>561</v>
@@ -10401,13 +10571,13 @@
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
       <c r="B333" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
       <c r="C333" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
       <c r="D333" t="s">
         <v>561</v>
@@ -10418,13 +10588,13 @@
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
       <c r="B334" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
       <c r="C334" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="D334" t="s">
         <v>561</v>
@@ -10435,13 +10605,13 @@
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="B335" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="C335" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
       <c r="D335" t="s">
         <v>561</v>
@@ -10452,13 +10622,13 @@
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
       <c r="B336" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
       <c r="C336" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
       <c r="D336" t="s">
         <v>561</v>
@@ -10469,13 +10639,13 @@
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="B337" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
       <c r="C337" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
       <c r="D337" t="s">
         <v>561</v>
@@ -10486,13 +10656,13 @@
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
       <c r="B338" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
       <c r="C338" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
       <c r="D338" t="s">
         <v>561</v>
@@ -10503,13 +10673,13 @@
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
       <c r="B339" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
       <c r="C339" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
       <c r="D339" t="s">
         <v>561</v>
@@ -10520,13 +10690,13 @@
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="B340" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
       <c r="C340" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
       <c r="D340" t="s">
         <v>561</v>
@@ -10537,13 +10707,13 @@
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
       <c r="B341" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
       <c r="C341" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
       <c r="D341" t="s">
         <v>561</v>
@@ -10554,13 +10724,13 @@
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
       <c r="B342" t="s">
-        <v>998</v>
+        <v>995</v>
       </c>
       <c r="C342" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
       <c r="D342" t="s">
         <v>561</v>
@@ -10571,13 +10741,13 @@
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
       <c r="B343" t="s">
-        <v>1001</v>
+        <v>998</v>
       </c>
       <c r="C343" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="D343" t="s">
         <v>561</v>
@@ -10588,13 +10758,13 @@
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="B344" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="C344" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="D344" t="s">
         <v>561</v>
@@ -10605,13 +10775,13 @@
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="B345" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="C345" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="D345" t="s">
         <v>561</v>
@@ -10622,13 +10792,13 @@
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="B346" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="C346" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
       <c r="D346" t="s">
         <v>561</v>
@@ -10639,13 +10809,13 @@
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
       <c r="B347" t="s">
-        <v>1013</v>
+        <v>1010</v>
       </c>
       <c r="C347" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="D347" t="s">
         <v>561</v>
@@ -10656,13 +10826,13 @@
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="B348" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
       <c r="C348" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
       <c r="D348" t="s">
         <v>561</v>
@@ -10673,13 +10843,13 @@
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>1018</v>
+        <v>1015</v>
       </c>
       <c r="B349" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="C349" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="D349" t="s">
         <v>561</v>
@@ -10690,13 +10860,13 @@
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="B350" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
       <c r="C350" t="s">
-        <v>1023</v>
+        <v>1020</v>
       </c>
       <c r="D350" t="s">
         <v>561</v>
@@ -10707,13 +10877,13 @@
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
       <c r="B351" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
       <c r="C351" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
       <c r="D351" t="s">
         <v>561</v>
@@ -10724,13 +10894,13 @@
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
       <c r="B352" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
       <c r="C352" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
       <c r="D352" t="s">
         <v>561</v>
@@ -10741,13 +10911,13 @@
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
       <c r="B353" t="s">
-        <v>1031</v>
+        <v>1028</v>
       </c>
       <c r="C353" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="D353" t="s">
         <v>561</v>
@@ -10758,13 +10928,13 @@
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
       <c r="B354" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
       <c r="C354" t="s">
-        <v>1035</v>
+        <v>1032</v>
       </c>
       <c r="D354" t="s">
         <v>561</v>
@@ -10775,13 +10945,13 @@
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
       <c r="B355" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
       <c r="C355" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="D355" t="s">
         <v>561</v>
@@ -10792,13 +10962,13 @@
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
       <c r="B356" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
       <c r="C356" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
       <c r="D356" t="s">
         <v>561</v>
@@ -10809,13 +10979,13 @@
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>1042</v>
+        <v>1039</v>
       </c>
       <c r="B357" t="s">
-        <v>1043</v>
+        <v>1040</v>
       </c>
       <c r="C357" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
       <c r="D357" t="s">
         <v>561</v>
@@ -10826,13 +10996,13 @@
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
       <c r="B358" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
       <c r="C358" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="D358" t="s">
         <v>561</v>
@@ -10843,13 +11013,13 @@
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
       <c r="B359" t="s">
-        <v>1049</v>
+        <v>1046</v>
       </c>
       <c r="C359" t="s">
-        <v>1050</v>
+        <v>1047</v>
       </c>
       <c r="D359" t="s">
         <v>561</v>
@@ -10860,13 +11030,13 @@
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>1051</v>
+        <v>1048</v>
       </c>
       <c r="B360" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="C360" t="s">
-        <v>1053</v>
+        <v>1050</v>
       </c>
       <c r="D360" t="s">
         <v>561</v>
@@ -10877,13 +11047,13 @@
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="B361" t="s">
-        <v>1055</v>
+        <v>1052</v>
       </c>
       <c r="C361" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
       <c r="D361" t="s">
         <v>561</v>
@@ -10894,13 +11064,13 @@
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>1057</v>
+        <v>1054</v>
       </c>
       <c r="B362" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
       <c r="C362" t="s">
-        <v>1059</v>
+        <v>1056</v>
       </c>
       <c r="D362" t="s">
         <v>561</v>
@@ -10911,13 +11081,13 @@
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
       <c r="B363" t="s">
-        <v>1061</v>
+        <v>1058</v>
       </c>
       <c r="C363" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
       <c r="D363" t="s">
         <v>561</v>
@@ -10928,13 +11098,13 @@
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>1063</v>
+        <v>1060</v>
       </c>
       <c r="B364" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="C364" t="s">
-        <v>1065</v>
+        <v>1062</v>
       </c>
       <c r="D364" t="s">
         <v>561</v>
@@ -10945,13 +11115,13 @@
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>1066</v>
+        <v>1063</v>
       </c>
       <c r="B365" t="s">
-        <v>1067</v>
+        <v>1064</v>
       </c>
       <c r="C365" t="s">
-        <v>1068</v>
+        <v>1065</v>
       </c>
       <c r="D365" t="s">
         <v>561</v>
@@ -10962,13 +11132,13 @@
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>1069</v>
+        <v>1066</v>
       </c>
       <c r="B366" t="s">
-        <v>1070</v>
+        <v>1067</v>
       </c>
       <c r="C366" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
       <c r="D366" t="s">
         <v>561</v>
@@ -10979,13 +11149,13 @@
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="B367" t="s">
-        <v>1073</v>
+        <v>1070</v>
       </c>
       <c r="C367" t="s">
-        <v>1074</v>
+        <v>1071</v>
       </c>
       <c r="D367" t="s">
         <v>561</v>
@@ -10996,13 +11166,13 @@
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>1075</v>
+        <v>1072</v>
       </c>
       <c r="B368" t="s">
-        <v>1076</v>
+        <v>1073</v>
       </c>
       <c r="C368" t="s">
-        <v>1077</v>
+        <v>1074</v>
       </c>
       <c r="D368" t="s">
         <v>561</v>
@@ -11013,13 +11183,13 @@
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>1078</v>
+        <v>1075</v>
       </c>
       <c r="B369" t="s">
-        <v>1079</v>
+        <v>1076</v>
       </c>
       <c r="C369" t="s">
-        <v>1080</v>
+        <v>1077</v>
       </c>
       <c r="D369" t="s">
         <v>561</v>
@@ -11030,13 +11200,13 @@
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>1081</v>
+        <v>1078</v>
       </c>
       <c r="B370" t="s">
-        <v>1082</v>
+        <v>1079</v>
       </c>
       <c r="C370" t="s">
-        <v>1083</v>
+        <v>1080</v>
       </c>
       <c r="D370" t="s">
         <v>561</v>
@@ -11047,13 +11217,13 @@
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>1084</v>
+        <v>1081</v>
       </c>
       <c r="B371" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="C371" t="s">
-        <v>1086</v>
+        <v>1083</v>
       </c>
       <c r="D371" t="s">
         <v>561</v>
@@ -11064,13 +11234,13 @@
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>1087</v>
-      </c>
-      <c r="B372" s="1" t="s">
-        <v>1088</v>
-      </c>
-      <c r="C372" s="1" t="s">
-        <v>1089</v>
+        <v>1084</v>
+      </c>
+      <c r="B372" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C372" t="s">
+        <v>1086</v>
       </c>
       <c r="D372" t="s">
         <v>561</v>
@@ -11081,13 +11251,13 @@
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="B373" s="1" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
       <c r="C373" s="1" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="D373" t="s">
         <v>561</v>
@@ -11098,13 +11268,13 @@
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>1094</v>
+        <v>1091</v>
       </c>
       <c r="C374" s="1" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="D374" t="s">
         <v>561</v>
@@ -11115,13 +11285,13 @@
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B375" s="1" t="s">
-        <v>1097</v>
+        <v>1094</v>
       </c>
       <c r="C375" s="1" t="s">
-        <v>1098</v>
+        <v>1095</v>
       </c>
       <c r="D375" t="s">
         <v>561</v>
@@ -11132,13 +11302,13 @@
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>1100</v>
+        <v>1097</v>
       </c>
       <c r="C376" s="1" t="s">
-        <v>1101</v>
+        <v>1098</v>
       </c>
       <c r="D376" t="s">
         <v>561</v>
@@ -11149,13 +11319,13 @@
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>1102</v>
+        <v>1099</v>
       </c>
       <c r="B377" s="1" t="s">
-        <v>1103</v>
+        <v>1100</v>
       </c>
       <c r="C377" s="1" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="D377" t="s">
         <v>561</v>
@@ -11166,13 +11336,13 @@
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>1105</v>
+        <v>1102</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>1106</v>
+        <v>1103</v>
       </c>
       <c r="C378" s="1" t="s">
-        <v>1107</v>
+        <v>1104</v>
       </c>
       <c r="D378" t="s">
         <v>561</v>
@@ -11183,13 +11353,13 @@
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>1108</v>
+        <v>1105</v>
       </c>
       <c r="B379" s="1" t="s">
-        <v>1109</v>
+        <v>1106</v>
       </c>
       <c r="C379" s="1" t="s">
-        <v>1110</v>
+        <v>1107</v>
       </c>
       <c r="D379" t="s">
         <v>561</v>
@@ -11200,13 +11370,13 @@
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="B380" s="1" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
       <c r="C380" s="1" t="s">
-        <v>1113</v>
+        <v>1110</v>
       </c>
       <c r="D380" t="s">
         <v>561</v>
@@ -11217,13 +11387,13 @@
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>1114</v>
+        <v>1111</v>
       </c>
       <c r="B381" s="1" t="s">
-        <v>1115</v>
+        <v>1112</v>
       </c>
       <c r="C381" s="1" t="s">
-        <v>1116</v>
+        <v>1113</v>
       </c>
       <c r="D381" t="s">
         <v>561</v>
@@ -11234,13 +11404,13 @@
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>1117</v>
+        <v>1114</v>
       </c>
       <c r="B382" s="1" t="s">
-        <v>1118</v>
+        <v>1115</v>
       </c>
       <c r="C382" s="1" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
       <c r="D382" t="s">
         <v>561</v>
@@ -11251,13 +11421,13 @@
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>1120</v>
+        <v>1117</v>
       </c>
       <c r="B383" s="1" t="s">
-        <v>1121</v>
+        <v>1118</v>
       </c>
       <c r="C383" s="1" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
       <c r="D383" t="s">
         <v>561</v>
@@ -11268,13 +11438,13 @@
     </row>
     <row r="384" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="B384" s="1" t="s">
-        <v>1124</v>
+        <v>1121</v>
       </c>
       <c r="C384" s="1" t="s">
-        <v>1125</v>
+        <v>1122</v>
       </c>
       <c r="D384" t="s">
         <v>561</v>
@@ -11285,13 +11455,13 @@
     </row>
     <row r="385" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="B385" s="1" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="C385" s="1" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="D385" t="s">
         <v>561</v>
@@ -11302,13 +11472,13 @@
     </row>
     <row r="386" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>1129</v>
+        <v>1126</v>
       </c>
       <c r="B386" s="1" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
       <c r="C386" s="1" t="s">
-        <v>1131</v>
+        <v>1128</v>
       </c>
       <c r="D386" t="s">
         <v>561</v>
@@ -11319,13 +11489,13 @@
     </row>
     <row r="387" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>1132</v>
+        <v>1129</v>
       </c>
       <c r="B387" s="1" t="s">
-        <v>1133</v>
+        <v>1130</v>
       </c>
       <c r="C387" s="1" t="s">
-        <v>1134</v>
+        <v>1131</v>
       </c>
       <c r="D387" t="s">
         <v>561</v>
@@ -11336,13 +11506,13 @@
     </row>
     <row r="388" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>1135</v>
+        <v>1132</v>
       </c>
       <c r="B388" s="1" t="s">
-        <v>1136</v>
+        <v>1133</v>
       </c>
       <c r="C388" s="1" t="s">
-        <v>1137</v>
+        <v>1134</v>
       </c>
       <c r="D388" t="s">
         <v>561</v>
@@ -11353,13 +11523,13 @@
     </row>
     <row r="389" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>1138</v>
+        <v>1135</v>
       </c>
       <c r="B389" s="1" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
       <c r="C389" s="1" t="s">
-        <v>1140</v>
+        <v>1137</v>
       </c>
       <c r="D389" t="s">
         <v>561</v>
@@ -11370,13 +11540,13 @@
     </row>
     <row r="390" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>1141</v>
+        <v>1138</v>
       </c>
       <c r="B390" s="1" t="s">
-        <v>1142</v>
+        <v>1139</v>
       </c>
       <c r="C390" s="1" t="s">
-        <v>1143</v>
+        <v>1140</v>
       </c>
       <c r="D390" t="s">
         <v>561</v>
@@ -11387,13 +11557,13 @@
     </row>
     <row r="391" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>1144</v>
+        <v>1141</v>
       </c>
       <c r="B391" s="1" t="s">
-        <v>1145</v>
+        <v>1142</v>
       </c>
       <c r="C391" s="1" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
       <c r="D391" t="s">
         <v>561</v>
@@ -11404,13 +11574,13 @@
     </row>
     <row r="392" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>1147</v>
+        <v>1144</v>
       </c>
       <c r="B392" s="1" t="s">
-        <v>1148</v>
+        <v>1145</v>
       </c>
       <c r="C392" s="1" t="s">
-        <v>1149</v>
+        <v>1146</v>
       </c>
       <c r="D392" t="s">
         <v>561</v>
@@ -11421,13 +11591,13 @@
     </row>
     <row r="393" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>1150</v>
+        <v>1147</v>
       </c>
       <c r="B393" s="1" t="s">
-        <v>1151</v>
+        <v>1148</v>
       </c>
       <c r="C393" s="1" t="s">
-        <v>1152</v>
+        <v>1149</v>
       </c>
       <c r="D393" t="s">
         <v>561</v>
@@ -11438,13 +11608,13 @@
     </row>
     <row r="394" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>1153</v>
+        <v>1150</v>
       </c>
       <c r="B394" s="1" t="s">
-        <v>1154</v>
+        <v>1151</v>
       </c>
       <c r="C394" s="1" t="s">
-        <v>1155</v>
+        <v>1152</v>
       </c>
       <c r="D394" t="s">
         <v>561</v>
@@ -11455,13 +11625,13 @@
     </row>
     <row r="395" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>1156</v>
+        <v>1153</v>
       </c>
       <c r="B395" s="1" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
       <c r="C395" s="1" t="s">
-        <v>1158</v>
+        <v>1155</v>
       </c>
       <c r="D395" t="s">
         <v>561</v>
@@ -11472,13 +11642,13 @@
     </row>
     <row r="396" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>1159</v>
+        <v>1156</v>
       </c>
       <c r="B396" s="1" t="s">
-        <v>1160</v>
+        <v>1157</v>
       </c>
       <c r="C396" s="1" t="s">
-        <v>1161</v>
+        <v>1158</v>
       </c>
       <c r="D396" t="s">
         <v>561</v>
@@ -11489,13 +11659,13 @@
     </row>
     <row r="397" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>1162</v>
+        <v>1159</v>
       </c>
       <c r="B397" s="1" t="s">
-        <v>1163</v>
+        <v>1160</v>
       </c>
       <c r="C397" s="1" t="s">
-        <v>1164</v>
+        <v>1161</v>
       </c>
       <c r="D397" t="s">
         <v>561</v>
@@ -11506,13 +11676,13 @@
     </row>
     <row r="398" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>1165</v>
+        <v>1162</v>
       </c>
       <c r="B398" s="1" t="s">
-        <v>1166</v>
+        <v>1163</v>
       </c>
       <c r="C398" s="1" t="s">
-        <v>1167</v>
+        <v>1164</v>
       </c>
       <c r="D398" t="s">
         <v>561</v>
@@ -11523,13 +11693,13 @@
     </row>
     <row r="399" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>1168</v>
+        <v>1165</v>
       </c>
       <c r="B399" s="1" t="s">
-        <v>1169</v>
+        <v>1166</v>
       </c>
       <c r="C399" s="1" t="s">
-        <v>1170</v>
+        <v>1167</v>
       </c>
       <c r="D399" t="s">
         <v>561</v>
@@ -11540,13 +11710,13 @@
     </row>
     <row r="400" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>1171</v>
+        <v>1168</v>
       </c>
       <c r="B400" s="1" t="s">
-        <v>1172</v>
+        <v>1169</v>
       </c>
       <c r="C400" s="1" t="s">
-        <v>1173</v>
+        <v>1170</v>
       </c>
       <c r="D400" t="s">
         <v>561</v>
@@ -11557,13 +11727,13 @@
     </row>
     <row r="401" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>1174</v>
+        <v>1171</v>
       </c>
       <c r="B401" s="1" t="s">
-        <v>1175</v>
+        <v>1172</v>
       </c>
       <c r="C401" s="1" t="s">
-        <v>1176</v>
+        <v>1173</v>
       </c>
       <c r="D401" t="s">
         <v>561</v>
@@ -11574,13 +11744,13 @@
     </row>
     <row r="402" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>1177</v>
+        <v>1174</v>
       </c>
       <c r="B402" s="1" t="s">
-        <v>1178</v>
+        <v>1175</v>
       </c>
       <c r="C402" s="1" t="s">
-        <v>1179</v>
+        <v>1176</v>
       </c>
       <c r="D402" t="s">
         <v>561</v>
@@ -11591,13 +11761,13 @@
     </row>
     <row r="403" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>1180</v>
+        <v>1177</v>
       </c>
       <c r="B403" s="1" t="s">
-        <v>1181</v>
+        <v>1178</v>
       </c>
       <c r="C403" s="1" t="s">
-        <v>1182</v>
+        <v>1179</v>
       </c>
       <c r="D403" t="s">
         <v>561</v>
@@ -11608,13 +11778,13 @@
     </row>
     <row r="404" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
       <c r="B404" s="1" t="s">
-        <v>1184</v>
+        <v>1181</v>
       </c>
       <c r="C404" s="1" t="s">
-        <v>1185</v>
+        <v>1182</v>
       </c>
       <c r="D404" t="s">
         <v>561</v>
@@ -11625,13 +11795,13 @@
     </row>
     <row r="405" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>1186</v>
+        <v>1183</v>
       </c>
       <c r="B405" s="1" t="s">
-        <v>1187</v>
+        <v>1184</v>
       </c>
       <c r="C405" s="1" t="s">
-        <v>1188</v>
+        <v>1185</v>
       </c>
       <c r="D405" t="s">
         <v>561</v>
@@ -11642,13 +11812,13 @@
     </row>
     <row r="406" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
-        <v>1189</v>
+        <v>1186</v>
       </c>
       <c r="B406" s="1" t="s">
-        <v>1190</v>
+        <v>1187</v>
       </c>
       <c r="C406" s="1" t="s">
-        <v>1191</v>
+        <v>1188</v>
       </c>
       <c r="D406" t="s">
         <v>561</v>
@@ -11659,13 +11829,13 @@
     </row>
     <row r="407" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>1192</v>
+        <v>1189</v>
       </c>
       <c r="B407" s="1" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
       <c r="C407" s="1" t="s">
-        <v>1194</v>
+        <v>1191</v>
       </c>
       <c r="D407" t="s">
         <v>561</v>
@@ -11676,13 +11846,13 @@
     </row>
     <row r="408" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
       <c r="B408" s="1" t="s">
-        <v>1196</v>
+        <v>1193</v>
       </c>
       <c r="C408" s="1" t="s">
-        <v>1197</v>
+        <v>1194</v>
       </c>
       <c r="D408" t="s">
         <v>561</v>
@@ -11693,13 +11863,13 @@
     </row>
     <row r="409" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
-        <v>1198</v>
+        <v>1195</v>
       </c>
       <c r="B409" s="1" t="s">
-        <v>1199</v>
+        <v>1196</v>
       </c>
       <c r="C409" s="1" t="s">
-        <v>1200</v>
+        <v>1197</v>
       </c>
       <c r="D409" t="s">
         <v>561</v>
@@ -11710,13 +11880,13 @@
     </row>
     <row r="410" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
-        <v>1201</v>
+        <v>1198</v>
       </c>
       <c r="B410" s="1" t="s">
-        <v>1202</v>
+        <v>1199</v>
       </c>
       <c r="C410" s="1" t="s">
-        <v>1203</v>
+        <v>1200</v>
       </c>
       <c r="D410" t="s">
         <v>561</v>
@@ -11727,13 +11897,13 @@
     </row>
     <row r="411" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>1204</v>
+        <v>1201</v>
       </c>
       <c r="B411" s="1" t="s">
-        <v>1205</v>
+        <v>1202</v>
       </c>
       <c r="C411" s="1" t="s">
-        <v>1206</v>
+        <v>1203</v>
       </c>
       <c r="D411" t="s">
         <v>561</v>
@@ -11744,13 +11914,13 @@
     </row>
     <row r="412" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
-        <v>1207</v>
+        <v>1204</v>
       </c>
       <c r="B412" s="1" t="s">
-        <v>1208</v>
+        <v>1205</v>
       </c>
       <c r="C412" s="1" t="s">
-        <v>1209</v>
+        <v>1206</v>
       </c>
       <c r="D412" t="s">
         <v>561</v>
@@ -11761,13 +11931,13 @@
     </row>
     <row r="413" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
-        <v>1210</v>
+        <v>1207</v>
       </c>
       <c r="B413" s="1" t="s">
-        <v>1211</v>
+        <v>1208</v>
       </c>
       <c r="C413" s="1" t="s">
-        <v>1212</v>
+        <v>1209</v>
       </c>
       <c r="D413" t="s">
         <v>561</v>
@@ -11778,13 +11948,13 @@
     </row>
     <row r="414" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
       <c r="B414" s="1" t="s">
-        <v>1214</v>
+        <v>1211</v>
       </c>
       <c r="C414" s="1" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
       <c r="D414" t="s">
         <v>561</v>
@@ -11795,13 +11965,13 @@
     </row>
     <row r="415" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
-        <v>1216</v>
+        <v>1213</v>
       </c>
       <c r="B415" s="1" t="s">
-        <v>1217</v>
+        <v>1214</v>
       </c>
       <c r="C415" s="1" t="s">
-        <v>1218</v>
+        <v>1215</v>
       </c>
       <c r="D415" t="s">
         <v>561</v>
@@ -11812,13 +11982,13 @@
     </row>
     <row r="416" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
-        <v>1219</v>
+        <v>1216</v>
       </c>
       <c r="B416" s="1" t="s">
-        <v>1220</v>
+        <v>1217</v>
       </c>
       <c r="C416" s="1" t="s">
-        <v>1221</v>
+        <v>1218</v>
       </c>
       <c r="D416" t="s">
         <v>561</v>
@@ -11829,13 +11999,13 @@
     </row>
     <row r="417" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
-        <v>1222</v>
+        <v>1219</v>
       </c>
       <c r="B417" s="1" t="s">
-        <v>1223</v>
+        <v>1220</v>
       </c>
       <c r="C417" s="1" t="s">
-        <v>1224</v>
+        <v>1221</v>
       </c>
       <c r="D417" t="s">
         <v>561</v>
@@ -11846,13 +12016,13 @@
     </row>
     <row r="418" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
-        <v>1225</v>
+        <v>1222</v>
       </c>
       <c r="B418" s="1" t="s">
-        <v>1226</v>
+        <v>1223</v>
       </c>
       <c r="C418" s="1" t="s">
-        <v>1227</v>
+        <v>1224</v>
       </c>
       <c r="D418" t="s">
         <v>561</v>
@@ -11863,13 +12033,13 @@
     </row>
     <row r="419" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
-        <v>1228</v>
+        <v>1225</v>
       </c>
       <c r="B419" s="1" t="s">
-        <v>1229</v>
+        <v>1226</v>
       </c>
       <c r="C419" s="1" t="s">
-        <v>1230</v>
+        <v>1227</v>
       </c>
       <c r="D419" t="s">
         <v>561</v>
@@ -11880,13 +12050,13 @@
     </row>
     <row r="420" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
-        <v>1231</v>
+        <v>1228</v>
       </c>
       <c r="B420" s="1" t="s">
-        <v>1232</v>
+        <v>1229</v>
       </c>
       <c r="C420" s="1" t="s">
-        <v>1233</v>
+        <v>1230</v>
       </c>
       <c r="D420" t="s">
         <v>561</v>
@@ -11897,13 +12067,13 @@
     </row>
     <row r="421" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
-        <v>1234</v>
+        <v>1231</v>
       </c>
       <c r="B421" s="1" t="s">
-        <v>1235</v>
+        <v>1232</v>
       </c>
       <c r="C421" s="1" t="s">
-        <v>1236</v>
+        <v>1233</v>
       </c>
       <c r="D421" t="s">
         <v>561</v>
@@ -11914,13 +12084,13 @@
     </row>
     <row r="422" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
-        <v>1237</v>
+        <v>1234</v>
       </c>
       <c r="B422" s="1" t="s">
-        <v>1238</v>
+        <v>1235</v>
       </c>
       <c r="C422" s="1" t="s">
-        <v>1239</v>
+        <v>1236</v>
       </c>
       <c r="D422" t="s">
         <v>561</v>
@@ -11931,13 +12101,13 @@
     </row>
     <row r="423" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
-        <v>1240</v>
+        <v>1237</v>
       </c>
       <c r="B423" s="1" t="s">
-        <v>1241</v>
+        <v>1238</v>
       </c>
       <c r="C423" s="1" t="s">
-        <v>1242</v>
+        <v>1239</v>
       </c>
       <c r="D423" t="s">
         <v>561</v>
@@ -11948,13 +12118,13 @@
     </row>
     <row r="424" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
-        <v>1243</v>
+        <v>1240</v>
       </c>
       <c r="B424" s="1" t="s">
-        <v>1244</v>
+        <v>1241</v>
       </c>
       <c r="C424" s="1" t="s">
-        <v>1245</v>
+        <v>1242</v>
       </c>
       <c r="D424" t="s">
         <v>561</v>
@@ -11965,13 +12135,13 @@
     </row>
     <row r="425" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
-        <v>1246</v>
+        <v>1243</v>
       </c>
       <c r="B425" s="1" t="s">
-        <v>1247</v>
+        <v>1244</v>
       </c>
       <c r="C425" s="1" t="s">
-        <v>1248</v>
+        <v>1245</v>
       </c>
       <c r="D425" t="s">
         <v>561</v>
@@ -11982,13 +12152,13 @@
     </row>
     <row r="426" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
-        <v>1249</v>
+        <v>1246</v>
       </c>
       <c r="B426" s="1" t="s">
-        <v>1250</v>
+        <v>1247</v>
       </c>
       <c r="C426" s="1" t="s">
-        <v>1251</v>
+        <v>1248</v>
       </c>
       <c r="D426" t="s">
         <v>561</v>
@@ -11999,13 +12169,13 @@
     </row>
     <row r="427" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
-        <v>1252</v>
+        <v>1249</v>
       </c>
       <c r="B427" s="1" t="s">
-        <v>1253</v>
+        <v>1250</v>
       </c>
       <c r="C427" s="1" t="s">
-        <v>1254</v>
+        <v>1251</v>
       </c>
       <c r="D427" t="s">
         <v>561</v>
@@ -12016,13 +12186,13 @@
     </row>
     <row r="428" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
-        <v>1255</v>
+        <v>1252</v>
       </c>
       <c r="B428" s="1" t="s">
-        <v>1256</v>
+        <v>1253</v>
       </c>
       <c r="C428" s="1" t="s">
-        <v>1257</v>
+        <v>1254</v>
       </c>
       <c r="D428" t="s">
         <v>561</v>
@@ -12033,13 +12203,13 @@
     </row>
     <row r="429" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
       <c r="B429" s="1" t="s">
-        <v>1259</v>
+        <v>1256</v>
       </c>
       <c r="C429" s="1" t="s">
-        <v>1260</v>
+        <v>1257</v>
       </c>
       <c r="D429" t="s">
         <v>561</v>
@@ -12050,13 +12220,13 @@
     </row>
     <row r="430" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
-        <v>1261</v>
+        <v>1258</v>
       </c>
       <c r="B430" s="1" t="s">
-        <v>1262</v>
+        <v>1259</v>
       </c>
       <c r="C430" s="1" t="s">
-        <v>1263</v>
+        <v>1260</v>
       </c>
       <c r="D430" t="s">
         <v>561</v>
@@ -12067,13 +12237,13 @@
     </row>
     <row r="431" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
-        <v>1264</v>
+        <v>1261</v>
       </c>
       <c r="B431" s="1" t="s">
-        <v>1265</v>
+        <v>1262</v>
       </c>
       <c r="C431" s="1" t="s">
-        <v>1266</v>
+        <v>1263</v>
       </c>
       <c r="D431" t="s">
         <v>561</v>
@@ -12084,13 +12254,13 @@
     </row>
     <row r="432" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
-        <v>1267</v>
+        <v>1264</v>
       </c>
       <c r="B432" s="1" t="s">
-        <v>1268</v>
+        <v>1265</v>
       </c>
       <c r="C432" s="1" t="s">
-        <v>1269</v>
+        <v>1266</v>
       </c>
       <c r="D432" t="s">
         <v>561</v>
@@ -12101,13 +12271,13 @@
     </row>
     <row r="433" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
-        <v>1270</v>
+        <v>1267</v>
       </c>
       <c r="B433" s="1" t="s">
-        <v>1271</v>
+        <v>1268</v>
       </c>
       <c r="C433" s="1" t="s">
-        <v>1272</v>
+        <v>1269</v>
       </c>
       <c r="D433" t="s">
         <v>561</v>
@@ -12118,13 +12288,13 @@
     </row>
     <row r="434" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
-        <v>1273</v>
+        <v>1270</v>
       </c>
       <c r="B434" s="1" t="s">
-        <v>1274</v>
+        <v>1271</v>
       </c>
       <c r="C434" s="1" t="s">
-        <v>1275</v>
+        <v>1272</v>
       </c>
       <c r="D434" t="s">
         <v>561</v>
@@ -12135,13 +12305,13 @@
     </row>
     <row r="435" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
-        <v>1276</v>
+        <v>1273</v>
       </c>
       <c r="B435" s="1" t="s">
-        <v>1277</v>
+        <v>1274</v>
       </c>
       <c r="C435" s="1" t="s">
-        <v>1278</v>
+        <v>1275</v>
       </c>
       <c r="D435" t="s">
         <v>561</v>
@@ -12152,13 +12322,13 @@
     </row>
     <row r="436" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
-        <v>1279</v>
+        <v>1276</v>
       </c>
       <c r="B436" s="1" t="s">
-        <v>1280</v>
+        <v>1277</v>
       </c>
       <c r="C436" s="1" t="s">
-        <v>1281</v>
+        <v>1278</v>
       </c>
       <c r="D436" t="s">
         <v>561</v>
@@ -12169,13 +12339,13 @@
     </row>
     <row r="437" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
-        <v>1282</v>
+        <v>1279</v>
       </c>
       <c r="B437" s="1" t="s">
-        <v>1283</v>
+        <v>1280</v>
       </c>
       <c r="C437" s="1" t="s">
-        <v>1284</v>
+        <v>1281</v>
       </c>
       <c r="D437" t="s">
         <v>561</v>
@@ -12186,13 +12356,13 @@
     </row>
     <row r="438" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
-        <v>1285</v>
+        <v>1282</v>
       </c>
       <c r="B438" s="1" t="s">
-        <v>1286</v>
+        <v>1283</v>
       </c>
       <c r="C438" s="1" t="s">
-        <v>1287</v>
+        <v>1284</v>
       </c>
       <c r="D438" t="s">
         <v>561</v>
@@ -12203,13 +12373,13 @@
     </row>
     <row r="439" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
-        <v>1288</v>
+        <v>1285</v>
       </c>
       <c r="B439" s="1" t="s">
-        <v>1289</v>
+        <v>1286</v>
       </c>
       <c r="C439" s="1" t="s">
-        <v>1290</v>
+        <v>1287</v>
       </c>
       <c r="D439" t="s">
         <v>561</v>
@@ -12220,13 +12390,13 @@
     </row>
     <row r="440" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
-        <v>1291</v>
+        <v>1288</v>
       </c>
       <c r="B440" s="1" t="s">
-        <v>1292</v>
+        <v>1289</v>
       </c>
       <c r="C440" s="1" t="s">
-        <v>1293</v>
+        <v>1290</v>
       </c>
       <c r="D440" t="s">
         <v>561</v>
@@ -12237,13 +12407,13 @@
     </row>
     <row r="441" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
-        <v>1294</v>
+        <v>1291</v>
       </c>
       <c r="B441" s="1" t="s">
-        <v>1295</v>
+        <v>1292</v>
       </c>
       <c r="C441" s="1" t="s">
-        <v>1296</v>
+        <v>1293</v>
       </c>
       <c r="D441" t="s">
         <v>561</v>
@@ -12254,13 +12424,13 @@
     </row>
     <row r="442" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
-        <v>1297</v>
+        <v>1294</v>
       </c>
       <c r="B442" s="1" t="s">
-        <v>1298</v>
+        <v>1295</v>
       </c>
       <c r="C442" s="1" t="s">
-        <v>1299</v>
+        <v>1296</v>
       </c>
       <c r="D442" t="s">
         <v>561</v>
@@ -12271,13 +12441,13 @@
     </row>
     <row r="443" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
-        <v>1300</v>
+        <v>1297</v>
       </c>
       <c r="B443" s="1" t="s">
-        <v>1301</v>
+        <v>1298</v>
       </c>
       <c r="C443" s="1" t="s">
-        <v>1302</v>
+        <v>1299</v>
       </c>
       <c r="D443" t="s">
         <v>561</v>
@@ -12288,24 +12458,37 @@
     </row>
     <row r="444" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
+        <v>1300</v>
+      </c>
+      <c r="B444" s="1" t="s">
+        <v>1301</v>
+      </c>
+      <c r="C444" s="1" t="s">
+        <v>1302</v>
+      </c>
+      <c r="D444" t="s">
+        <v>561</v>
+      </c>
+      <c r="E444" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="445" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A445" t="s">
         <v>1303</v>
       </c>
-      <c r="B444" s="1" t="s">
+      <c r="B445" s="1" t="s">
         <v>1304</v>
       </c>
-      <c r="C444" s="1" t="s">
+      <c r="C445" s="1" t="s">
         <v>1305</v>
       </c>
-      <c r="D444" t="s">
-        <v>561</v>
-      </c>
-      <c r="E444" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="445" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B445" s="1"/>
-      <c r="C445" s="1"/>
+      <c r="D445" t="s">
+        <v>561</v>
+      </c>
+      <c r="E445" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="446" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B446" s="1"/>
@@ -13039,12 +13222,12 @@
       <c r="B628" s="1"/>
       <c r="C628" s="1"/>
     </row>
-    <row r="1071" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C1071" s="2"/>
-    </row>
-    <row r="1072" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="629" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B629" s="1"/>
+      <c r="C629" s="1"/>
+    </row>
+    <row r="1072" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1072" s="2"/>
-      <c r="D1072" s="2"/>
     </row>
     <row r="1073" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C1073" s="2"/>
@@ -13071,6 +13254,7 @@
       <c r="D1078" s="2"/>
     </row>
     <row r="1079" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1079" s="2"/>
       <c r="D1079" s="2"/>
     </row>
     <row r="1080" spans="3:4" x14ac:dyDescent="0.25">
@@ -13081,6 +13265,9 @@
     </row>
     <row r="1082" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D1082" s="2"/>
+    </row>
+    <row r="1083" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D1083" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13092,8 +13279,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13141,6 +13328,9 @@
       <c r="E2" t="s">
         <v>1374</v>
       </c>
+      <c r="F2" t="s">
+        <v>1427</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13152,7 +13342,7 @@
   <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13175,90 +13365,90 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1347</v>
+        <v>1363</v>
       </c>
       <c r="B2" t="s">
-        <v>652</v>
+        <v>568</v>
       </c>
       <c r="C2" t="s">
-        <v>1306</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1348</v>
+        <v>1358</v>
       </c>
       <c r="B3" t="s">
-        <v>724</v>
+        <v>589</v>
       </c>
       <c r="C3" t="s">
-        <v>1306</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1349</v>
+        <v>1351</v>
       </c>
       <c r="B4" t="s">
-        <v>988</v>
+        <v>598</v>
       </c>
       <c r="C4" t="s">
-        <v>1306</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1368</v>
+        <v>1362</v>
       </c>
       <c r="B5" t="s">
-        <v>673</v>
+        <v>622</v>
       </c>
       <c r="C5" t="s">
-        <v>1306</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1350</v>
+        <v>1373</v>
       </c>
       <c r="B6" t="s">
-        <v>1183</v>
+        <v>643</v>
       </c>
       <c r="C6" t="s">
-        <v>1306</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>1369</v>
+        <v>1347</v>
       </c>
       <c r="B7" t="s">
-        <v>1027</v>
+        <v>652</v>
       </c>
       <c r="C7" t="s">
-        <v>1306</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>1338</v>
+        <v>1368</v>
       </c>
       <c r="B8" t="s">
-        <v>691</v>
+        <v>673</v>
       </c>
       <c r="C8" t="s">
-        <v>1306</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>1351</v>
+        <v>1338</v>
       </c>
       <c r="B9" t="s">
-        <v>598</v>
+        <v>691</v>
       </c>
       <c r="C9" t="s">
-        <v>1306</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -13269,18 +13459,18 @@
         <v>703</v>
       </c>
       <c r="C10" t="s">
-        <v>1306</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>1353</v>
+        <v>1341</v>
       </c>
       <c r="B11" t="s">
-        <v>814</v>
+        <v>718</v>
       </c>
       <c r="C11" t="s">
-        <v>1306</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -13291,161 +13481,161 @@
         <v>721</v>
       </c>
       <c r="C12" t="s">
-        <v>1306</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>1354</v>
+        <v>1348</v>
       </c>
       <c r="B13" t="s">
-        <v>892</v>
+        <v>724</v>
       </c>
       <c r="C13" t="s">
-        <v>1306</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>1340</v>
+        <v>1367</v>
       </c>
       <c r="B14" t="s">
-        <v>1270</v>
+        <v>751</v>
       </c>
       <c r="C14" t="s">
-        <v>1306</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>1341</v>
+        <v>1355</v>
       </c>
       <c r="B15" t="s">
-        <v>718</v>
+        <v>1370</v>
       </c>
       <c r="C15" t="s">
-        <v>1306</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>1355</v>
+        <v>1342</v>
       </c>
       <c r="B16" t="s">
-        <v>1370</v>
+        <v>784</v>
       </c>
       <c r="C16" t="s">
-        <v>1306</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>1356</v>
+        <v>1360</v>
       </c>
       <c r="B17" t="s">
-        <v>886</v>
+        <v>805</v>
       </c>
       <c r="C17" t="s">
-        <v>1306</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>1357</v>
+        <v>1346</v>
       </c>
       <c r="B18" t="s">
-        <v>1204</v>
+        <v>808</v>
       </c>
       <c r="C18" t="s">
-        <v>1306</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>1367</v>
+        <v>1353</v>
       </c>
       <c r="B19" t="s">
-        <v>751</v>
+        <v>814</v>
       </c>
       <c r="C19" t="s">
-        <v>1306</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>1342</v>
+        <v>1343</v>
       </c>
       <c r="B20" t="s">
-        <v>784</v>
+        <v>853</v>
       </c>
       <c r="C20" t="s">
-        <v>1306</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="B21" t="s">
-        <v>853</v>
+        <v>871</v>
       </c>
       <c r="C21" t="s">
-        <v>1306</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
       <c r="B22" t="s">
-        <v>589</v>
+        <v>886</v>
       </c>
       <c r="C22" t="s">
-        <v>1306</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>1373</v>
+        <v>1354</v>
       </c>
       <c r="B23" t="s">
-        <v>643</v>
+        <v>892</v>
       </c>
       <c r="C23" t="s">
-        <v>1306</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>1344</v>
+        <v>1349</v>
       </c>
       <c r="B24" t="s">
-        <v>871</v>
+        <v>988</v>
       </c>
       <c r="C24" t="s">
-        <v>1306</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>1359</v>
+        <v>1369</v>
       </c>
       <c r="B25" t="s">
-        <v>1042</v>
+        <v>1027</v>
       </c>
       <c r="C25" t="s">
-        <v>1306</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="B26" t="s">
-        <v>805</v>
+        <v>1042</v>
       </c>
       <c r="C26" t="s">
-        <v>1306</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -13456,73 +13646,933 @@
         <v>1090</v>
       </c>
       <c r="C27" t="s">
-        <v>1306</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>1346</v>
+        <v>1364</v>
       </c>
       <c r="B28" t="s">
-        <v>808</v>
+        <v>1105</v>
       </c>
       <c r="C28" t="s">
-        <v>1306</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>1361</v>
+        <v>1365</v>
       </c>
       <c r="B29" t="s">
-        <v>1264</v>
+        <v>913</v>
       </c>
       <c r="C29" t="s">
-        <v>1306</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>1362</v>
+        <v>1350</v>
       </c>
       <c r="B30" t="s">
-        <v>622</v>
+        <v>1183</v>
       </c>
       <c r="C30" t="s">
-        <v>1306</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>1363</v>
+        <v>1357</v>
       </c>
       <c r="B31" t="s">
-        <v>568</v>
+        <v>1204</v>
       </c>
       <c r="C31" t="s">
-        <v>1306</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>1364</v>
+        <v>1340</v>
       </c>
       <c r="B32" t="s">
-        <v>1105</v>
+        <v>1270</v>
       </c>
       <c r="C32" t="s">
-        <v>1306</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>1361</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1264</v>
+      </c>
+      <c r="C33" t="s">
+        <v>1391</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:C33">
+    <sortCondition ref="A2:A33"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F49"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="43.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" customWidth="1"/>
+    <col min="4" max="5" width="22.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1375</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1376</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1377</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1379</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1311</v>
+      </c>
+      <c r="C2" s="4">
+        <v>41802.916666666664</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1347</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1380</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1311</v>
+      </c>
+      <c r="C3" s="4">
+        <v>41803.75</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1349</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1381</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1311</v>
+      </c>
+      <c r="C4" s="4">
+        <v>41803.875</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1350</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1382</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1311</v>
+      </c>
+      <c r="C5" s="4">
+        <v>41805</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1338</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1383</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1311</v>
+      </c>
+      <c r="C6" s="4">
+        <v>41804.75</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1352</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1428</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1311</v>
+      </c>
+      <c r="C7" s="4">
+        <v>41804.875</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1340</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1384</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1311</v>
+      </c>
+      <c r="C8" s="4">
+        <v>41806</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1355</v>
+      </c>
+      <c r="E8" t="s">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>1385</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1311</v>
+      </c>
+      <c r="C9" s="4">
+        <v>41806.125</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1339</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1311</v>
+      </c>
+      <c r="C10" s="4">
+        <v>41805.75</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1357</v>
+      </c>
+      <c r="E10" t="s">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>1387</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1311</v>
+      </c>
+      <c r="C11" s="4">
+        <v>41805.875</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1342</v>
+      </c>
+      <c r="E11" t="s">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>1388</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1311</v>
+      </c>
+      <c r="C12" s="4">
+        <v>41807</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1358</v>
+      </c>
+      <c r="E12" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>1389</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1311</v>
+      </c>
+      <c r="C13" s="4">
+        <v>41806.75</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1360</v>
+      </c>
+      <c r="E13" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>1393</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1311</v>
+      </c>
+      <c r="C14" s="4">
+        <v>41806.875</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1344</v>
+      </c>
+      <c r="E14" t="s">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>1394</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1311</v>
+      </c>
+      <c r="C15" s="4">
+        <v>41808</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1346</v>
+      </c>
+      <c r="E15" t="s">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>1395</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1311</v>
+      </c>
+      <c r="C16" s="4">
+        <v>41807.75</v>
+      </c>
+      <c r="D16" t="s">
+        <v>1362</v>
+      </c>
+      <c r="E16" t="s">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>1396</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1311</v>
+      </c>
+      <c r="C17" s="4">
+        <v>41807.875</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1347</v>
+      </c>
+      <c r="E17" t="s">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>1397</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1311</v>
+      </c>
+      <c r="C18" s="4">
+        <v>41809</v>
+      </c>
+      <c r="D18" t="s">
+        <v>1364</v>
+      </c>
+      <c r="E18" t="s">
         <v>1365</v>
       </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>1398</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1311</v>
+      </c>
+      <c r="C19" s="4">
+        <v>41808.75</v>
+      </c>
+      <c r="D19" t="s">
+        <v>1351</v>
+      </c>
+      <c r="E19" t="s">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>1399</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1311</v>
+      </c>
+      <c r="C20" s="4">
+        <v>41808.875</v>
+      </c>
+      <c r="D20" t="s">
+        <v>1350</v>
+      </c>
+      <c r="E20" t="s">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>1400</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1311</v>
+      </c>
+      <c r="C21" s="4">
+        <v>41810</v>
+      </c>
+      <c r="D21" t="s">
+        <v>1368</v>
+      </c>
+      <c r="E21" t="s">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>1401</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1311</v>
+      </c>
+      <c r="C22" s="4">
+        <v>41809.75</v>
+      </c>
+      <c r="D22" t="s">
+        <v>1352</v>
+      </c>
+      <c r="E22" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>1429</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1311</v>
+      </c>
+      <c r="C23" s="4">
+        <v>41809.875</v>
+      </c>
+      <c r="D23" t="s">
+        <v>1340</v>
+      </c>
+      <c r="E23" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>1402</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1311</v>
+      </c>
+      <c r="C24" s="4">
+        <v>41811</v>
+      </c>
+      <c r="D24" t="s">
+        <v>1354</v>
+      </c>
+      <c r="E24" t="s">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>1403</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1311</v>
+      </c>
+      <c r="C25" s="4">
+        <v>41810.75</v>
+      </c>
+      <c r="D25" t="s">
+        <v>1356</v>
+      </c>
+      <c r="E25" t="s">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>1404</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1311</v>
+      </c>
+      <c r="C26" s="4">
+        <v>41810.875</v>
+      </c>
+      <c r="D26" t="s">
+        <v>1357</v>
+      </c>
+      <c r="E26" t="s">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>1405</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1311</v>
+      </c>
+      <c r="C27" s="4">
+        <v>41812</v>
+      </c>
+      <c r="D27" t="s">
+        <v>1343</v>
+      </c>
+      <c r="E27" t="s">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>1406</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1311</v>
+      </c>
+      <c r="C28" s="4">
+        <v>41811.75</v>
+      </c>
+      <c r="D28" t="s">
+        <v>1358</v>
+      </c>
+      <c r="E28" t="s">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>1407</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1311</v>
+      </c>
+      <c r="C29" s="4">
+        <v>41811.875</v>
+      </c>
+      <c r="D29" t="s">
+        <v>1360</v>
+      </c>
+      <c r="E29" t="s">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>1408</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1311</v>
+      </c>
+      <c r="C30" s="4">
+        <v>41813</v>
+      </c>
+      <c r="D30" t="s">
+        <v>1359</v>
+      </c>
+      <c r="E30" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>1409</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1311</v>
+      </c>
+      <c r="C31" s="4">
+        <v>41812.75</v>
+      </c>
+      <c r="D31" t="s">
+        <v>1362</v>
+      </c>
+      <c r="E31" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>1410</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1311</v>
+      </c>
+      <c r="C32" s="4">
+        <v>41812.875</v>
+      </c>
+      <c r="D32" t="s">
+        <v>1365</v>
+      </c>
+      <c r="E32" t="s">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>1411</v>
+      </c>
       <c r="B33" t="s">
-        <v>913</v>
-      </c>
-      <c r="C33" t="s">
-        <v>1306</v>
+        <v>1311</v>
+      </c>
+      <c r="C33" s="4">
+        <v>41814</v>
+      </c>
+      <c r="D33" t="s">
+        <v>1361</v>
+      </c>
+      <c r="E33" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>1412</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1311</v>
+      </c>
+      <c r="C34" s="4">
+        <v>41813.75</v>
+      </c>
+      <c r="D34" t="s">
+        <v>1351</v>
+      </c>
+      <c r="E34" t="s">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>1413</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1311</v>
+      </c>
+      <c r="C35" s="4">
+        <v>41813.75</v>
+      </c>
+      <c r="D35" t="s">
+        <v>1369</v>
+      </c>
+      <c r="E35" t="s">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>1414</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1311</v>
+      </c>
+      <c r="C36" s="4">
+        <v>41813.916666666664</v>
+      </c>
+      <c r="D36" t="s">
+        <v>1368</v>
+      </c>
+      <c r="E36" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>1415</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1311</v>
+      </c>
+      <c r="C37" s="4">
+        <v>41813.916666666664</v>
+      </c>
+      <c r="D37" t="s">
+        <v>1348</v>
+      </c>
+      <c r="E37" t="s">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>1430</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1311</v>
+      </c>
+      <c r="C38" s="4">
+        <v>41814.75</v>
+      </c>
+      <c r="D38" t="s">
+        <v>1356</v>
+      </c>
+      <c r="E38" t="s">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>1416</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1311</v>
+      </c>
+      <c r="C39" s="4">
+        <v>41814.75</v>
+      </c>
+      <c r="D39" t="s">
+        <v>1341</v>
+      </c>
+      <c r="E39" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>1417</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1311</v>
+      </c>
+      <c r="C40" s="4">
+        <v>41814.916666666664</v>
+      </c>
+      <c r="D40" t="s">
+        <v>1354</v>
+      </c>
+      <c r="E40" t="s">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>1418</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1311</v>
+      </c>
+      <c r="C41" s="4">
+        <v>41814.916666666664</v>
+      </c>
+      <c r="D41" t="s">
+        <v>1353</v>
+      </c>
+      <c r="E41" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>1419</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1311</v>
+      </c>
+      <c r="C42" s="4">
+        <v>41815.75</v>
+      </c>
+      <c r="D42" t="s">
+        <v>1359</v>
+      </c>
+      <c r="E42" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>1420</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1311</v>
+      </c>
+      <c r="C43" s="4">
+        <v>41815.75</v>
+      </c>
+      <c r="D43" t="s">
+        <v>1373</v>
+      </c>
+      <c r="E43" t="s">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>1421</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1311</v>
+      </c>
+      <c r="C44" s="4">
+        <v>41815.916666666664</v>
+      </c>
+      <c r="D44" t="s">
+        <v>1343</v>
+      </c>
+      <c r="E44" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>1422</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1311</v>
+      </c>
+      <c r="C45" s="4">
+        <v>41815.916666666664</v>
+      </c>
+      <c r="D45" t="s">
+        <v>1367</v>
+      </c>
+      <c r="E45" t="s">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>1423</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1311</v>
+      </c>
+      <c r="C46" s="4">
+        <v>41816.75</v>
+      </c>
+      <c r="D46" t="s">
+        <v>1361</v>
+      </c>
+      <c r="E46" t="s">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>1424</v>
+      </c>
+      <c r="B47" t="s">
+        <v>1311</v>
+      </c>
+      <c r="C47" s="4">
+        <v>41816.75</v>
+      </c>
+      <c r="D47" t="s">
+        <v>1345</v>
+      </c>
+      <c r="E47" t="s">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>1425</v>
+      </c>
+      <c r="B48" t="s">
+        <v>1311</v>
+      </c>
+      <c r="C48" s="4">
+        <v>41816.916666666664</v>
+      </c>
+      <c r="D48" t="s">
+        <v>1365</v>
+      </c>
+      <c r="E48" t="s">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>1426</v>
+      </c>
+      <c r="B49" t="s">
+        <v>1311</v>
+      </c>
+      <c r="C49" s="4">
+        <v>41816.916666666664</v>
+      </c>
+      <c r="D49" t="s">
+        <v>1363</v>
+      </c>
+      <c r="E49" t="s">
+        <v>1364</v>
       </c>
     </row>
   </sheetData>

--- a/resources/Repository Setup.xlsx
+++ b/resources/Repository Setup.xlsx
@@ -13728,7 +13728,7 @@
   <dimension ref="A1:F49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A49" sqref="A2:A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/resources/Repository Setup.xlsx
+++ b/resources/Repository Setup.xlsx
@@ -13342,14 +13342,14 @@
   <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -13727,8 +13727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A49" sqref="A2:A49"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14368,7 +14368,7 @@
         <v>1348</v>
       </c>
       <c r="E37" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">

--- a/resources/Repository Setup.xlsx
+++ b/resources/Repository Setup.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12585" activeTab="3"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12585" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Attributes" sheetId="1" r:id="rId1"/>
@@ -4550,9 +4550,6 @@
     <t>Algeria vs Russia [Group H]</t>
   </si>
   <si>
-    <t>Brazil vs Croatia [Group A],Mexico vs Cameroon [Group A],Spain vs Netherlands [Group B],Chile vs Australia [Group B],Colombia vs Greece [Group C],Urugay vs Costa Rica [Group D],England vs Italy [Group D],Côte d'Ivoire vs Japan [Group C],Switzerland vs Ecuador [Group E],France vs Honduras [Group E],Argentina vs Bosnia and Herzegovina [Group F],Germany vs Portugal [Group G],Iran vs Nigeria [Group F],Ghana vs USA [Group G],Belgium vs Algeria [Group H],Brazil vs Mexico [Group A],Russia vs South Korea [Group H],Australia vs Netherlands [Group B],Spain vs Chile [Group B],Cameroon vs Croatia [Group A],Colombia vs Côte d'Ivoire [Group C],Urugay vs England [Group D],Japan vs Greece [Group C],Italy vs Costa Rica [Group D],Switzerland vs France [Group E],Honduras vs Ecuador [Group E],Argentina vs Iran [Group F],Germany vs Ghana [Group G],Nigeria vs Bosnia and Herzegovina [Group F],Belgium vs Russia [Group H],South Korea vs Algeria [Group H],USA vs Portugal [Group G],Australia vs Spain [Group B],Netherlands vs Chile [Group B],Cameroon vs Brazil [Group A],Croatia vs Mexico [Group A],Italy vs Urugay [Group D],Costa Rica vs England [Group D],Japan vs Colombia [Group C],Greece vs Côte d'Ivoire [Group C],Nigeria vs Argentina [Group F],Bosnia and Herzegovina vs Iran [Group F],Honduras vs Switzerland [Group E],Ecuador vs France [Group E],USA vs Germany [Group G],Portugal vs Ghana [Group G],South Korea vs Belgium [Group H],Algeria vs Russia [Group H]</t>
-  </si>
-  <si>
     <t>Uruguay vs Costa Rica [Group D]</t>
   </si>
   <si>
@@ -4560,6 +4557,9 @@
   </si>
   <si>
     <t>Italy vs Uruguay [Group D]</t>
+  </si>
+  <si>
+    <t>Brazil vs Croatia [Group A],Mexico vs Cameroon [Group A],Spain vs Netherlands [Group B],Chile vs Australia [Group B],Colombia vs Greece [Group C],Uruguay vs Costa Rica [Group D],England vs Italy [Group D],Côte d'Ivoire vs Japan [Group C],Switzerland vs Ecuador [Group E],France vs Honduras [Group E],Argentina vs Bosnia and Herzegovina [Group F],Germany vs Portugal [Group G],Iran vs Nigeria [Group F],Ghana vs USA [Group G],Belgium vs Algeria [Group H],Brazil vs Mexico [Group A],Russia vs South Korea [Group H],Australia vs Netherlands [Group B],Spain vs Chile [Group B],Cameroon vs Croatia [Group A],Colombia vs Côte d'Ivoire [Group C],Uruguay vs England [Group D],Japan vs Greece [Group C],Italy vs Costa Rica [Group D],Switzerland vs France [Group E],Honduras vs Ecuador [Group E],Argentina vs Iran [Group F],Germany vs Ghana [Group G],Nigeria vs Bosnia and Herzegovina [Group F],Belgium vs Russia [Group H],South Korea vs Algeria [Group H],USA vs Portugal [Group G],Australia vs Spain [Group B],Netherlands vs Chile [Group B],Cameroon vs Brazil [Group A],Croatia vs Mexico [Group A],Italy vs Uruguay [Group D],Costa Rica vs England [Group D],Japan vs Colombia [Group C],Greece vs Côte d'Ivoire [Group C],Nigeria vs Argentina [Group F],Bosnia and Herzegovina vs Iran [Group F],Honduras vs Switzerland [Group E],Ecuador vs France [Group E],USA vs Germany [Group G],Portugal vs Ghana [Group G],South Korea vs Belgium [Group H],Algeria vs Russia [Group H]</t>
   </si>
 </sst>
 </file>
@@ -13279,8 +13279,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13288,8 +13288,7 @@
     <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="255.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29" customWidth="1"/>
+    <col min="5" max="6" width="255.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -13329,7 +13328,7 @@
         <v>1374</v>
       </c>
       <c r="F2" t="s">
-        <v>1427</v>
+        <v>1430</v>
       </c>
     </row>
   </sheetData>
@@ -13727,8 +13726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13846,7 +13845,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="B7" t="s">
         <v>1311</v>
@@ -14118,7 +14117,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="B23" t="s">
         <v>1311</v>
@@ -14373,7 +14372,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="B38" t="s">
         <v>1311</v>

--- a/resources/Repository Setup.xlsx
+++ b/resources/Repository Setup.xlsx
@@ -4,270 +4,272 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12585" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12585" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Attributes" sheetId="1" r:id="rId1"/>
     <sheet name="BettableEvent" sheetId="2" r:id="rId2"/>
     <sheet name="Participant" sheetId="3" r:id="rId3"/>
     <sheet name="Match" sheetId="4" r:id="rId4"/>
+    <sheet name="Provider" sheetId="5" r:id="rId5"/>
+    <sheet name="ProviderMapping" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="AD" localSheetId="0">Attributes!$C$379</definedName>
-    <definedName name="AE" localSheetId="0">Attributes!$C$440</definedName>
-    <definedName name="AG" localSheetId="0">Attributes!$C$383</definedName>
-    <definedName name="AI" localSheetId="0">Attributes!$C$381</definedName>
-    <definedName name="AL" localSheetId="0">Attributes!$C$376</definedName>
-    <definedName name="AM" localSheetId="0">Attributes!$C$386</definedName>
-    <definedName name="AO" localSheetId="0">Attributes!$C$380</definedName>
-    <definedName name="AQ" localSheetId="0">Attributes!$C$382</definedName>
-    <definedName name="AR" localSheetId="0">Attributes!$C$385</definedName>
-    <definedName name="AS" localSheetId="0">Attributes!$C$577</definedName>
-    <definedName name="AT" localSheetId="0">Attributes!$C$389</definedName>
-    <definedName name="AU" localSheetId="0">Attributes!$C$388</definedName>
-    <definedName name="AW" localSheetId="0">Attributes!$C$387</definedName>
-    <definedName name="AX" localSheetId="0">Attributes!$C$375</definedName>
-    <definedName name="AZ" localSheetId="0">Attributes!$C$390</definedName>
-    <definedName name="BA" localSheetId="0">Attributes!$C$403</definedName>
-    <definedName name="BB" localSheetId="0">Attributes!$C$394</definedName>
-    <definedName name="BD" localSheetId="0">Attributes!$C$393</definedName>
-    <definedName name="BE" localSheetId="0">Attributes!$C$396</definedName>
-    <definedName name="BF" localSheetId="0">Attributes!$C$409</definedName>
-    <definedName name="BG" localSheetId="0">Attributes!$C$408</definedName>
-    <definedName name="BH" localSheetId="0">Attributes!$C$392</definedName>
-    <definedName name="BI" localSheetId="0">Attributes!$C$410</definedName>
-    <definedName name="BJ" localSheetId="0">Attributes!$C$398</definedName>
-    <definedName name="BL" localSheetId="0">Attributes!$C$565</definedName>
-    <definedName name="BM" localSheetId="0">Attributes!$C$399</definedName>
-    <definedName name="BN" localSheetId="0">Attributes!$C$407</definedName>
-    <definedName name="BO" localSheetId="0">Attributes!$C$401</definedName>
-    <definedName name="BQ" localSheetId="0">Attributes!$C$402</definedName>
-    <definedName name="BR" localSheetId="0">Attributes!$C$406</definedName>
-    <definedName name="BS" localSheetId="0">Attributes!$C$391</definedName>
-    <definedName name="BT" localSheetId="0">Attributes!$C$400</definedName>
-    <definedName name="BV" localSheetId="0">Attributes!$C$405</definedName>
-    <definedName name="BW" localSheetId="0">Attributes!$C$404</definedName>
-    <definedName name="BY" localSheetId="0">Attributes!$C$395</definedName>
-    <definedName name="BZ" localSheetId="0">Attributes!$C$397</definedName>
-    <definedName name="CA" localSheetId="0">Attributes!$C$414</definedName>
-    <definedName name="CC" localSheetId="0">Attributes!$C$421</definedName>
-    <definedName name="CD" localSheetId="0">Attributes!$C$425</definedName>
-    <definedName name="CF" localSheetId="0">Attributes!$C$416</definedName>
-    <definedName name="CG" localSheetId="0">Attributes!$C$424</definedName>
-    <definedName name="CH" localSheetId="0">Attributes!$C$591</definedName>
-    <definedName name="CI" localSheetId="0">Attributes!$C$430</definedName>
-    <definedName name="CK" localSheetId="0">Attributes!$C$426</definedName>
-    <definedName name="CL" localSheetId="0">Attributes!$C$417</definedName>
-    <definedName name="CM" localSheetId="0">Attributes!$C$413</definedName>
-    <definedName name="CN" localSheetId="0">Attributes!$C$418</definedName>
-    <definedName name="CO" localSheetId="0">Attributes!$C$422</definedName>
-    <definedName name="CR" localSheetId="0">Attributes!$C$429</definedName>
-    <definedName name="CU" localSheetId="0">Attributes!$C$432</definedName>
-    <definedName name="CV" localSheetId="0">Attributes!$C$415</definedName>
-    <definedName name="CW" localSheetId="0">Attributes!$C$433</definedName>
-    <definedName name="CX" localSheetId="0">Attributes!$C$419</definedName>
-    <definedName name="CY" localSheetId="0">Attributes!$C$420</definedName>
-    <definedName name="CZ" localSheetId="0">Attributes!$C$600</definedName>
-    <definedName name="DE" localSheetId="0">Attributes!$C$378</definedName>
-    <definedName name="DJ" localSheetId="0">Attributes!$C$435</definedName>
-    <definedName name="DK" localSheetId="0">Attributes!$C$434</definedName>
-    <definedName name="DM" localSheetId="0">Attributes!$C$437</definedName>
-    <definedName name="DO" localSheetId="0">Attributes!$C$436</definedName>
-    <definedName name="DZ" localSheetId="0">Attributes!$C$377</definedName>
-    <definedName name="EC" localSheetId="0">Attributes!$C$441</definedName>
-    <definedName name="EE" localSheetId="0">Attributes!$C$444</definedName>
-    <definedName name="EG" localSheetId="0">Attributes!$C$438</definedName>
-    <definedName name="EH" localSheetId="0">Attributes!$C$564</definedName>
-    <definedName name="ER" localSheetId="0">Attributes!$C$442</definedName>
-    <definedName name="ES" localSheetId="0">Attributes!$C$443</definedName>
-    <definedName name="ET" localSheetId="0">Attributes!$C$446</definedName>
-    <definedName name="FI" localSheetId="0">Attributes!$C$450</definedName>
-    <definedName name="FJ" localSheetId="0">Attributes!$C$449</definedName>
-    <definedName name="FK" localSheetId="0">Attributes!$C$447</definedName>
-    <definedName name="FM" localSheetId="0">Attributes!$C$521</definedName>
-    <definedName name="FO" localSheetId="0">Attributes!$C$448</definedName>
-    <definedName name="FR" localSheetId="0">Attributes!$C$451</definedName>
-    <definedName name="GA" localSheetId="0">Attributes!$C$452</definedName>
-    <definedName name="GB" localSheetId="0">Attributes!$C$561</definedName>
-    <definedName name="GD" localSheetId="0">Attributes!$C$459</definedName>
-    <definedName name="GE" localSheetId="0">Attributes!$C$454</definedName>
-    <definedName name="GF" localSheetId="0">Attributes!$C$469</definedName>
-    <definedName name="GG" localSheetId="0">Attributes!$C$464</definedName>
-    <definedName name="GH" localSheetId="0">Attributes!$C$456</definedName>
-    <definedName name="GI" localSheetId="0">Attributes!$C$457</definedName>
-    <definedName name="GL" localSheetId="0">Attributes!$C$460</definedName>
-    <definedName name="GM" localSheetId="0">Attributes!$C$453</definedName>
-    <definedName name="GN" localSheetId="0">Attributes!$C$465</definedName>
-    <definedName name="GP" localSheetId="0">Attributes!$C$461</definedName>
-    <definedName name="GQ" localSheetId="0">Attributes!$C$467</definedName>
-    <definedName name="GR" localSheetId="0">Attributes!$C$458</definedName>
-    <definedName name="GS" localSheetId="0">Attributes!$C$455</definedName>
-    <definedName name="GT" localSheetId="0">Attributes!$C$463</definedName>
-    <definedName name="GU" localSheetId="0">Attributes!$C$462</definedName>
-    <definedName name="GW" localSheetId="0">Attributes!$C$466</definedName>
-    <definedName name="GY" localSheetId="0">Attributes!$C$468</definedName>
-    <definedName name="HK" localSheetId="0">Attributes!$C$473</definedName>
-    <definedName name="HM" localSheetId="0">Attributes!$C$471</definedName>
-    <definedName name="HN" localSheetId="0">Attributes!$C$472</definedName>
-    <definedName name="HR" localSheetId="0">Attributes!$C$431</definedName>
-    <definedName name="HT" localSheetId="0">Attributes!$C$470</definedName>
-    <definedName name="HU" localSheetId="0">Attributes!$C$474</definedName>
-    <definedName name="ID" localSheetId="0">Attributes!$C$480</definedName>
-    <definedName name="IE" localSheetId="0">Attributes!$C$483</definedName>
-    <definedName name="IL" localSheetId="0">Attributes!$C$485</definedName>
-    <definedName name="IM" localSheetId="0">Attributes!$C$475</definedName>
-    <definedName name="IN" localSheetId="0">Attributes!$C$479</definedName>
-    <definedName name="IO" localSheetId="0">Attributes!$C$540</definedName>
-    <definedName name="IQ" localSheetId="0">Attributes!$C$482</definedName>
-    <definedName name="IR" localSheetId="0">Attributes!$C$481</definedName>
-    <definedName name="IS" localSheetId="0">Attributes!$C$484</definedName>
-    <definedName name="IT" localSheetId="0">Attributes!$C$486</definedName>
-    <definedName name="JE" localSheetId="0">Attributes!$C$489</definedName>
-    <definedName name="JM" localSheetId="0">Attributes!$C$487</definedName>
-    <definedName name="JO" localSheetId="0">Attributes!$C$490</definedName>
-    <definedName name="JP" localSheetId="0">Attributes!$C$488</definedName>
-    <definedName name="KE" localSheetId="0">Attributes!$C$492</definedName>
-    <definedName name="KG" localSheetId="0">Attributes!$C$493</definedName>
-    <definedName name="KH" localSheetId="0">Attributes!$C$412</definedName>
-    <definedName name="KI" localSheetId="0">Attributes!$C$494</definedName>
-    <definedName name="KM" localSheetId="0">Attributes!$C$423</definedName>
-    <definedName name="KN" localSheetId="0">Attributes!$C$568</definedName>
-    <definedName name="KP" localSheetId="0">Attributes!$C$428</definedName>
-    <definedName name="KR" localSheetId="0">Attributes!$C$427</definedName>
-    <definedName name="KW" localSheetId="0">Attributes!$C$495</definedName>
-    <definedName name="KY" localSheetId="0">Attributes!$C$411</definedName>
-    <definedName name="KZ" localSheetId="0">Attributes!$C$491</definedName>
-    <definedName name="LA" localSheetId="0">Attributes!$C$496</definedName>
-    <definedName name="LB" localSheetId="0">Attributes!$C$499</definedName>
-    <definedName name="LC" localSheetId="0">Attributes!$C$567</definedName>
-    <definedName name="LI" localSheetId="0">Attributes!$C$502</definedName>
-    <definedName name="LK" localSheetId="0">Attributes!$C$589</definedName>
-    <definedName name="LR" localSheetId="0">Attributes!$C$500</definedName>
-    <definedName name="LS" localSheetId="0">Attributes!$C$497</definedName>
-    <definedName name="LT" localSheetId="0">Attributes!$C$503</definedName>
-    <definedName name="LU" localSheetId="0">Attributes!$C$504</definedName>
-    <definedName name="LV" localSheetId="0">Attributes!$C$498</definedName>
-    <definedName name="LY" localSheetId="0">Attributes!$C$501</definedName>
-    <definedName name="MA" localSheetId="0">Attributes!$C$514</definedName>
-    <definedName name="MC" localSheetId="0">Attributes!$C$523</definedName>
-    <definedName name="MD" localSheetId="0">Attributes!$C$522</definedName>
-    <definedName name="ME" localSheetId="0">Attributes!$C$525</definedName>
-    <definedName name="MF" localSheetId="0">Attributes!$C$570</definedName>
-    <definedName name="MG" localSheetId="0">Attributes!$C$507</definedName>
-    <definedName name="MH" localSheetId="0">Attributes!$C$515</definedName>
-    <definedName name="MK" localSheetId="0">Attributes!$C$506</definedName>
-    <definedName name="ML" localSheetId="0">Attributes!$C$511</definedName>
-    <definedName name="MM" localSheetId="0">Attributes!$C$528</definedName>
-    <definedName name="MN" localSheetId="0">Attributes!$C$524</definedName>
-    <definedName name="MO" localSheetId="0">Attributes!$C$505</definedName>
-    <definedName name="MP" localSheetId="0">Attributes!$C$513</definedName>
-    <definedName name="MQ" localSheetId="0">Attributes!$C$516</definedName>
-    <definedName name="MR" localSheetId="0">Attributes!$C$518</definedName>
-    <definedName name="MS" localSheetId="0">Attributes!$C$526</definedName>
-    <definedName name="MT" localSheetId="0">Attributes!$C$512</definedName>
-    <definedName name="MU" localSheetId="0">Attributes!$C$517</definedName>
-    <definedName name="MV" localSheetId="0">Attributes!$C$510</definedName>
-    <definedName name="MW" localSheetId="0">Attributes!$C$509</definedName>
-    <definedName name="MX" localSheetId="0">Attributes!$C$520</definedName>
-    <definedName name="MY" localSheetId="0">Attributes!$C$508</definedName>
-    <definedName name="MZ" localSheetId="0">Attributes!$C$527</definedName>
-    <definedName name="NA" localSheetId="0">Attributes!$C$529</definedName>
-    <definedName name="NC" localSheetId="0">Attributes!$C$538</definedName>
-    <definedName name="NE" localSheetId="0">Attributes!$C$533</definedName>
-    <definedName name="NF" localSheetId="0">Attributes!$C$536</definedName>
-    <definedName name="NG" localSheetId="0">Attributes!$C$534</definedName>
-    <definedName name="NI" localSheetId="0">Attributes!$C$532</definedName>
-    <definedName name="NL" localSheetId="0">Attributes!$C$550</definedName>
-    <definedName name="NO" localSheetId="0">Attributes!$C$537</definedName>
-    <definedName name="NP" localSheetId="0">Attributes!$C$531</definedName>
-    <definedName name="NR" localSheetId="0">Attributes!$C$530</definedName>
-    <definedName name="NU" localSheetId="0">Attributes!$C$535</definedName>
-    <definedName name="NZ" localSheetId="0">Attributes!$C$539</definedName>
-    <definedName name="OM" localSheetId="0">Attributes!$C$541</definedName>
-    <definedName name="PA" localSheetId="0">Attributes!$C$547</definedName>
-    <definedName name="PE" localSheetId="0">Attributes!$C$551</definedName>
-    <definedName name="PF" localSheetId="0">Attributes!$C$555</definedName>
-    <definedName name="PG" localSheetId="0">Attributes!$C$548</definedName>
-    <definedName name="PH" localSheetId="0">Attributes!$C$552</definedName>
-    <definedName name="PK" localSheetId="0">Attributes!$C$544</definedName>
-    <definedName name="PL" localSheetId="0">Attributes!$C$554</definedName>
-    <definedName name="PM" localSheetId="0">Attributes!$C$572</definedName>
-    <definedName name="PN" localSheetId="0">Attributes!$C$553</definedName>
-    <definedName name="PR" localSheetId="0">Attributes!$C$556</definedName>
-    <definedName name="PS" localSheetId="0">Attributes!$C$546</definedName>
-    <definedName name="PT" localSheetId="0">Attributes!$C$557</definedName>
-    <definedName name="PW" localSheetId="0">Attributes!$C$545</definedName>
-    <definedName name="PY" localSheetId="0">Attributes!$C$549</definedName>
-    <definedName name="QA" localSheetId="0">Attributes!$C$558</definedName>
-    <definedName name="RE" localSheetId="0">Attributes!$C$559</definedName>
-    <definedName name="RO" localSheetId="0">Attributes!$C$560</definedName>
-    <definedName name="RS" localSheetId="0">Attributes!$C$580</definedName>
-    <definedName name="RU" localSheetId="0">Attributes!$C$562</definedName>
-    <definedName name="RW" localSheetId="0">Attributes!$C$563</definedName>
-    <definedName name="SA" localSheetId="0">Attributes!$C$384</definedName>
-    <definedName name="SB" localSheetId="0">Attributes!$C$575</definedName>
-    <definedName name="SC" localSheetId="0">Attributes!$C$581</definedName>
-    <definedName name="SD" localSheetId="0">Attributes!$C$587</definedName>
-    <definedName name="SE" localSheetId="0">Attributes!$C$590</definedName>
-    <definedName name="SG" localSheetId="0">Attributes!$C$583</definedName>
-    <definedName name="SH" localSheetId="0">Attributes!$C$566</definedName>
-    <definedName name="SI" localSheetId="0">Attributes!$C$585</definedName>
-    <definedName name="SJ" localSheetId="0">Attributes!$C$593</definedName>
-    <definedName name="SK" localSheetId="0">Attributes!$C$584</definedName>
-    <definedName name="SL" localSheetId="0">Attributes!$C$582</definedName>
-    <definedName name="SM" localSheetId="0">Attributes!$C$569</definedName>
-    <definedName name="SN" localSheetId="0">Attributes!$C$579</definedName>
-    <definedName name="SO" localSheetId="0">Attributes!$C$586</definedName>
-    <definedName name="SR" localSheetId="0">Attributes!$C$592</definedName>
-    <definedName name="SS" localSheetId="0">Attributes!$C$588</definedName>
-    <definedName name="ST" localSheetId="0">Attributes!$C$578</definedName>
-    <definedName name="SV" localSheetId="0">Attributes!$C$439</definedName>
-    <definedName name="SX" localSheetId="0">Attributes!$C$571</definedName>
-    <definedName name="SY" localSheetId="0">Attributes!$C$595</definedName>
-    <definedName name="SZ" localSheetId="0">Attributes!$C$594</definedName>
-    <definedName name="TC" localSheetId="0">Attributes!$C$610</definedName>
-    <definedName name="TD" localSheetId="0">Attributes!$C$599</definedName>
-    <definedName name="TF" localSheetId="0">Attributes!$C$601</definedName>
-    <definedName name="TG" localSheetId="0">Attributes!$C$604</definedName>
-    <definedName name="TH" localSheetId="0">Attributes!$C$602</definedName>
-    <definedName name="TJ" localSheetId="0">Attributes!$C$596</definedName>
-    <definedName name="TK" localSheetId="0">Attributes!$C$605</definedName>
-    <definedName name="TL" localSheetId="0">Attributes!$C$603</definedName>
-    <definedName name="TM" localSheetId="0">Attributes!$C$609</definedName>
-    <definedName name="TN" localSheetId="0">Attributes!$C$608</definedName>
-    <definedName name="TO" localSheetId="0">Attributes!$C$606</definedName>
-    <definedName name="TR" localSheetId="0">Attributes!$C$611</definedName>
-    <definedName name="TT" localSheetId="0">Attributes!$C$607</definedName>
-    <definedName name="TV" localSheetId="0">Attributes!$C$612</definedName>
-    <definedName name="TW" localSheetId="0">Attributes!$C$597</definedName>
-    <definedName name="TZ" localSheetId="0">Attributes!$C$598</definedName>
-    <definedName name="UA" localSheetId="0">Attributes!$C$613</definedName>
-    <definedName name="UG" localSheetId="0">Attributes!$C$542</definedName>
-    <definedName name="UM" localSheetId="0">Attributes!$C$476</definedName>
-    <definedName name="US" localSheetId="0">Attributes!$C$445</definedName>
-    <definedName name="UY" localSheetId="0">Attributes!$C$614</definedName>
-    <definedName name="UZ" localSheetId="0">Attributes!$C$543</definedName>
-    <definedName name="VA" localSheetId="0">Attributes!$C$573</definedName>
-    <definedName name="VC" localSheetId="0">Attributes!$C$574</definedName>
-    <definedName name="VE" localSheetId="0">Attributes!$C$616</definedName>
-    <definedName name="VG" localSheetId="0">Attributes!$C$477</definedName>
-    <definedName name="VI" localSheetId="0">Attributes!$C$478</definedName>
-    <definedName name="VN" localSheetId="0">Attributes!$C$617</definedName>
-    <definedName name="VU" localSheetId="0">Attributes!$C$615</definedName>
-    <definedName name="WF" localSheetId="0">Attributes!$C$618</definedName>
-    <definedName name="WS" localSheetId="0">Attributes!$C$576</definedName>
-    <definedName name="YE" localSheetId="0">Attributes!$C$619</definedName>
-    <definedName name="YT" localSheetId="0">Attributes!$C$519</definedName>
-    <definedName name="ZA" localSheetId="0">Attributes!$C$374</definedName>
-    <definedName name="ZM" localSheetId="0">Attributes!$C$620</definedName>
-    <definedName name="ZW" localSheetId="0">Attributes!$C$621</definedName>
+    <definedName name="AD" localSheetId="0">Attributes!$C$380</definedName>
+    <definedName name="AE" localSheetId="0">Attributes!$C$441</definedName>
+    <definedName name="AG" localSheetId="0">Attributes!$C$384</definedName>
+    <definedName name="AI" localSheetId="0">Attributes!$C$382</definedName>
+    <definedName name="AL" localSheetId="0">Attributes!$C$377</definedName>
+    <definedName name="AM" localSheetId="0">Attributes!$C$387</definedName>
+    <definedName name="AO" localSheetId="0">Attributes!$C$381</definedName>
+    <definedName name="AQ" localSheetId="0">Attributes!$C$383</definedName>
+    <definedName name="AR" localSheetId="0">Attributes!$C$386</definedName>
+    <definedName name="AS" localSheetId="0">Attributes!$C$578</definedName>
+    <definedName name="AT" localSheetId="0">Attributes!$C$390</definedName>
+    <definedName name="AU" localSheetId="0">Attributes!$C$389</definedName>
+    <definedName name="AW" localSheetId="0">Attributes!$C$388</definedName>
+    <definedName name="AX" localSheetId="0">Attributes!$C$376</definedName>
+    <definedName name="AZ" localSheetId="0">Attributes!$C$391</definedName>
+    <definedName name="BA" localSheetId="0">Attributes!$C$404</definedName>
+    <definedName name="BB" localSheetId="0">Attributes!$C$395</definedName>
+    <definedName name="BD" localSheetId="0">Attributes!$C$394</definedName>
+    <definedName name="BE" localSheetId="0">Attributes!$C$397</definedName>
+    <definedName name="BF" localSheetId="0">Attributes!$C$410</definedName>
+    <definedName name="BG" localSheetId="0">Attributes!$C$409</definedName>
+    <definedName name="BH" localSheetId="0">Attributes!$C$393</definedName>
+    <definedName name="BI" localSheetId="0">Attributes!$C$411</definedName>
+    <definedName name="BJ" localSheetId="0">Attributes!$C$399</definedName>
+    <definedName name="BL" localSheetId="0">Attributes!$C$566</definedName>
+    <definedName name="BM" localSheetId="0">Attributes!$C$400</definedName>
+    <definedName name="BN" localSheetId="0">Attributes!$C$408</definedName>
+    <definedName name="BO" localSheetId="0">Attributes!$C$402</definedName>
+    <definedName name="BQ" localSheetId="0">Attributes!$C$403</definedName>
+    <definedName name="BR" localSheetId="0">Attributes!$C$407</definedName>
+    <definedName name="BS" localSheetId="0">Attributes!$C$392</definedName>
+    <definedName name="BT" localSheetId="0">Attributes!$C$401</definedName>
+    <definedName name="BV" localSheetId="0">Attributes!$C$406</definedName>
+    <definedName name="BW" localSheetId="0">Attributes!$C$405</definedName>
+    <definedName name="BY" localSheetId="0">Attributes!$C$396</definedName>
+    <definedName name="BZ" localSheetId="0">Attributes!$C$398</definedName>
+    <definedName name="CA" localSheetId="0">Attributes!$C$415</definedName>
+    <definedName name="CC" localSheetId="0">Attributes!$C$422</definedName>
+    <definedName name="CD" localSheetId="0">Attributes!$C$426</definedName>
+    <definedName name="CF" localSheetId="0">Attributes!$C$417</definedName>
+    <definedName name="CG" localSheetId="0">Attributes!$C$425</definedName>
+    <definedName name="CH" localSheetId="0">Attributes!$C$592</definedName>
+    <definedName name="CI" localSheetId="0">Attributes!$C$431</definedName>
+    <definedName name="CK" localSheetId="0">Attributes!$C$427</definedName>
+    <definedName name="CL" localSheetId="0">Attributes!$C$418</definedName>
+    <definedName name="CM" localSheetId="0">Attributes!$C$414</definedName>
+    <definedName name="CN" localSheetId="0">Attributes!$C$419</definedName>
+    <definedName name="CO" localSheetId="0">Attributes!$C$423</definedName>
+    <definedName name="CR" localSheetId="0">Attributes!$C$430</definedName>
+    <definedName name="CU" localSheetId="0">Attributes!$C$433</definedName>
+    <definedName name="CV" localSheetId="0">Attributes!$C$416</definedName>
+    <definedName name="CW" localSheetId="0">Attributes!$C$434</definedName>
+    <definedName name="CX" localSheetId="0">Attributes!$C$420</definedName>
+    <definedName name="CY" localSheetId="0">Attributes!$C$421</definedName>
+    <definedName name="CZ" localSheetId="0">Attributes!$C$601</definedName>
+    <definedName name="DE" localSheetId="0">Attributes!$C$379</definedName>
+    <definedName name="DJ" localSheetId="0">Attributes!$C$436</definedName>
+    <definedName name="DK" localSheetId="0">Attributes!$C$435</definedName>
+    <definedName name="DM" localSheetId="0">Attributes!$C$438</definedName>
+    <definedName name="DO" localSheetId="0">Attributes!$C$437</definedName>
+    <definedName name="DZ" localSheetId="0">Attributes!$C$378</definedName>
+    <definedName name="EC" localSheetId="0">Attributes!$C$442</definedName>
+    <definedName name="EE" localSheetId="0">Attributes!$C$445</definedName>
+    <definedName name="EG" localSheetId="0">Attributes!$C$439</definedName>
+    <definedName name="EH" localSheetId="0">Attributes!$C$565</definedName>
+    <definedName name="ER" localSheetId="0">Attributes!$C$443</definedName>
+    <definedName name="ES" localSheetId="0">Attributes!$C$444</definedName>
+    <definedName name="ET" localSheetId="0">Attributes!$C$447</definedName>
+    <definedName name="FI" localSheetId="0">Attributes!$C$451</definedName>
+    <definedName name="FJ" localSheetId="0">Attributes!$C$450</definedName>
+    <definedName name="FK" localSheetId="0">Attributes!$C$448</definedName>
+    <definedName name="FM" localSheetId="0">Attributes!$C$522</definedName>
+    <definedName name="FO" localSheetId="0">Attributes!$C$449</definedName>
+    <definedName name="FR" localSheetId="0">Attributes!$C$452</definedName>
+    <definedName name="GA" localSheetId="0">Attributes!$C$453</definedName>
+    <definedName name="GB" localSheetId="0">Attributes!$C$562</definedName>
+    <definedName name="GD" localSheetId="0">Attributes!$C$460</definedName>
+    <definedName name="GE" localSheetId="0">Attributes!$C$455</definedName>
+    <definedName name="GF" localSheetId="0">Attributes!$C$470</definedName>
+    <definedName name="GG" localSheetId="0">Attributes!$C$465</definedName>
+    <definedName name="GH" localSheetId="0">Attributes!$C$457</definedName>
+    <definedName name="GI" localSheetId="0">Attributes!$C$458</definedName>
+    <definedName name="GL" localSheetId="0">Attributes!$C$461</definedName>
+    <definedName name="GM" localSheetId="0">Attributes!$C$454</definedName>
+    <definedName name="GN" localSheetId="0">Attributes!$C$466</definedName>
+    <definedName name="GP" localSheetId="0">Attributes!$C$462</definedName>
+    <definedName name="GQ" localSheetId="0">Attributes!$C$468</definedName>
+    <definedName name="GR" localSheetId="0">Attributes!$C$459</definedName>
+    <definedName name="GS" localSheetId="0">Attributes!$C$456</definedName>
+    <definedName name="GT" localSheetId="0">Attributes!$C$464</definedName>
+    <definedName name="GU" localSheetId="0">Attributes!$C$463</definedName>
+    <definedName name="GW" localSheetId="0">Attributes!$C$467</definedName>
+    <definedName name="GY" localSheetId="0">Attributes!$C$469</definedName>
+    <definedName name="HK" localSheetId="0">Attributes!$C$474</definedName>
+    <definedName name="HM" localSheetId="0">Attributes!$C$472</definedName>
+    <definedName name="HN" localSheetId="0">Attributes!$C$473</definedName>
+    <definedName name="HR" localSheetId="0">Attributes!$C$432</definedName>
+    <definedName name="HT" localSheetId="0">Attributes!$C$471</definedName>
+    <definedName name="HU" localSheetId="0">Attributes!$C$475</definedName>
+    <definedName name="ID" localSheetId="0">Attributes!$C$481</definedName>
+    <definedName name="IE" localSheetId="0">Attributes!$C$484</definedName>
+    <definedName name="IL" localSheetId="0">Attributes!$C$486</definedName>
+    <definedName name="IM" localSheetId="0">Attributes!$C$476</definedName>
+    <definedName name="IN" localSheetId="0">Attributes!$C$480</definedName>
+    <definedName name="IO" localSheetId="0">Attributes!$C$541</definedName>
+    <definedName name="IQ" localSheetId="0">Attributes!$C$483</definedName>
+    <definedName name="IR" localSheetId="0">Attributes!$C$482</definedName>
+    <definedName name="IS" localSheetId="0">Attributes!$C$485</definedName>
+    <definedName name="IT" localSheetId="0">Attributes!$C$487</definedName>
+    <definedName name="JE" localSheetId="0">Attributes!$C$490</definedName>
+    <definedName name="JM" localSheetId="0">Attributes!$C$488</definedName>
+    <definedName name="JO" localSheetId="0">Attributes!$C$491</definedName>
+    <definedName name="JP" localSheetId="0">Attributes!$C$489</definedName>
+    <definedName name="KE" localSheetId="0">Attributes!$C$493</definedName>
+    <definedName name="KG" localSheetId="0">Attributes!$C$494</definedName>
+    <definedName name="KH" localSheetId="0">Attributes!$C$413</definedName>
+    <definedName name="KI" localSheetId="0">Attributes!$C$495</definedName>
+    <definedName name="KM" localSheetId="0">Attributes!$C$424</definedName>
+    <definedName name="KN" localSheetId="0">Attributes!$C$569</definedName>
+    <definedName name="KP" localSheetId="0">Attributes!$C$429</definedName>
+    <definedName name="KR" localSheetId="0">Attributes!$C$428</definedName>
+    <definedName name="KW" localSheetId="0">Attributes!$C$496</definedName>
+    <definedName name="KY" localSheetId="0">Attributes!$C$412</definedName>
+    <definedName name="KZ" localSheetId="0">Attributes!$C$492</definedName>
+    <definedName name="LA" localSheetId="0">Attributes!$C$497</definedName>
+    <definedName name="LB" localSheetId="0">Attributes!$C$500</definedName>
+    <definedName name="LC" localSheetId="0">Attributes!$C$568</definedName>
+    <definedName name="LI" localSheetId="0">Attributes!$C$503</definedName>
+    <definedName name="LK" localSheetId="0">Attributes!$C$590</definedName>
+    <definedName name="LR" localSheetId="0">Attributes!$C$501</definedName>
+    <definedName name="LS" localSheetId="0">Attributes!$C$498</definedName>
+    <definedName name="LT" localSheetId="0">Attributes!$C$504</definedName>
+    <definedName name="LU" localSheetId="0">Attributes!$C$505</definedName>
+    <definedName name="LV" localSheetId="0">Attributes!$C$499</definedName>
+    <definedName name="LY" localSheetId="0">Attributes!$C$502</definedName>
+    <definedName name="MA" localSheetId="0">Attributes!$C$515</definedName>
+    <definedName name="MC" localSheetId="0">Attributes!$C$524</definedName>
+    <definedName name="MD" localSheetId="0">Attributes!$C$523</definedName>
+    <definedName name="ME" localSheetId="0">Attributes!$C$526</definedName>
+    <definedName name="MF" localSheetId="0">Attributes!$C$571</definedName>
+    <definedName name="MG" localSheetId="0">Attributes!$C$508</definedName>
+    <definedName name="MH" localSheetId="0">Attributes!$C$516</definedName>
+    <definedName name="MK" localSheetId="0">Attributes!$C$507</definedName>
+    <definedName name="ML" localSheetId="0">Attributes!$C$512</definedName>
+    <definedName name="MM" localSheetId="0">Attributes!$C$529</definedName>
+    <definedName name="MN" localSheetId="0">Attributes!$C$525</definedName>
+    <definedName name="MO" localSheetId="0">Attributes!$C$506</definedName>
+    <definedName name="MP" localSheetId="0">Attributes!$C$514</definedName>
+    <definedName name="MQ" localSheetId="0">Attributes!$C$517</definedName>
+    <definedName name="MR" localSheetId="0">Attributes!$C$519</definedName>
+    <definedName name="MS" localSheetId="0">Attributes!$C$527</definedName>
+    <definedName name="MT" localSheetId="0">Attributes!$C$513</definedName>
+    <definedName name="MU" localSheetId="0">Attributes!$C$518</definedName>
+    <definedName name="MV" localSheetId="0">Attributes!$C$511</definedName>
+    <definedName name="MW" localSheetId="0">Attributes!$C$510</definedName>
+    <definedName name="MX" localSheetId="0">Attributes!$C$521</definedName>
+    <definedName name="MY" localSheetId="0">Attributes!$C$509</definedName>
+    <definedName name="MZ" localSheetId="0">Attributes!$C$528</definedName>
+    <definedName name="NA" localSheetId="0">Attributes!$C$530</definedName>
+    <definedName name="NC" localSheetId="0">Attributes!$C$539</definedName>
+    <definedName name="NE" localSheetId="0">Attributes!$C$534</definedName>
+    <definedName name="NF" localSheetId="0">Attributes!$C$537</definedName>
+    <definedName name="NG" localSheetId="0">Attributes!$C$535</definedName>
+    <definedName name="NI" localSheetId="0">Attributes!$C$533</definedName>
+    <definedName name="NL" localSheetId="0">Attributes!$C$551</definedName>
+    <definedName name="NO" localSheetId="0">Attributes!$C$538</definedName>
+    <definedName name="NP" localSheetId="0">Attributes!$C$532</definedName>
+    <definedName name="NR" localSheetId="0">Attributes!$C$531</definedName>
+    <definedName name="NU" localSheetId="0">Attributes!$C$536</definedName>
+    <definedName name="NZ" localSheetId="0">Attributes!$C$540</definedName>
+    <definedName name="OM" localSheetId="0">Attributes!$C$542</definedName>
+    <definedName name="PA" localSheetId="0">Attributes!$C$548</definedName>
+    <definedName name="PE" localSheetId="0">Attributes!$C$552</definedName>
+    <definedName name="PF" localSheetId="0">Attributes!$C$556</definedName>
+    <definedName name="PG" localSheetId="0">Attributes!$C$549</definedName>
+    <definedName name="PH" localSheetId="0">Attributes!$C$553</definedName>
+    <definedName name="PK" localSheetId="0">Attributes!$C$545</definedName>
+    <definedName name="PL" localSheetId="0">Attributes!$C$555</definedName>
+    <definedName name="PM" localSheetId="0">Attributes!$C$573</definedName>
+    <definedName name="PN" localSheetId="0">Attributes!$C$554</definedName>
+    <definedName name="PR" localSheetId="0">Attributes!$C$557</definedName>
+    <definedName name="PS" localSheetId="0">Attributes!$C$547</definedName>
+    <definedName name="PT" localSheetId="0">Attributes!$C$558</definedName>
+    <definedName name="PW" localSheetId="0">Attributes!$C$546</definedName>
+    <definedName name="PY" localSheetId="0">Attributes!$C$550</definedName>
+    <definedName name="QA" localSheetId="0">Attributes!$C$559</definedName>
+    <definedName name="RE" localSheetId="0">Attributes!$C$560</definedName>
+    <definedName name="RO" localSheetId="0">Attributes!$C$561</definedName>
+    <definedName name="RS" localSheetId="0">Attributes!$C$581</definedName>
+    <definedName name="RU" localSheetId="0">Attributes!$C$563</definedName>
+    <definedName name="RW" localSheetId="0">Attributes!$C$564</definedName>
+    <definedName name="SA" localSheetId="0">Attributes!$C$385</definedName>
+    <definedName name="SB" localSheetId="0">Attributes!$C$576</definedName>
+    <definedName name="SC" localSheetId="0">Attributes!$C$582</definedName>
+    <definedName name="SD" localSheetId="0">Attributes!$C$588</definedName>
+    <definedName name="SE" localSheetId="0">Attributes!$C$591</definedName>
+    <definedName name="SG" localSheetId="0">Attributes!$C$584</definedName>
+    <definedName name="SH" localSheetId="0">Attributes!$C$567</definedName>
+    <definedName name="SI" localSheetId="0">Attributes!$C$586</definedName>
+    <definedName name="SJ" localSheetId="0">Attributes!$C$594</definedName>
+    <definedName name="SK" localSheetId="0">Attributes!$C$585</definedName>
+    <definedName name="SL" localSheetId="0">Attributes!$C$583</definedName>
+    <definedName name="SM" localSheetId="0">Attributes!$C$570</definedName>
+    <definedName name="SN" localSheetId="0">Attributes!$C$580</definedName>
+    <definedName name="SO" localSheetId="0">Attributes!$C$587</definedName>
+    <definedName name="SR" localSheetId="0">Attributes!$C$593</definedName>
+    <definedName name="SS" localSheetId="0">Attributes!$C$589</definedName>
+    <definedName name="ST" localSheetId="0">Attributes!$C$579</definedName>
+    <definedName name="SV" localSheetId="0">Attributes!$C$440</definedName>
+    <definedName name="SX" localSheetId="0">Attributes!$C$572</definedName>
+    <definedName name="SY" localSheetId="0">Attributes!$C$596</definedName>
+    <definedName name="SZ" localSheetId="0">Attributes!$C$595</definedName>
+    <definedName name="TC" localSheetId="0">Attributes!$C$611</definedName>
+    <definedName name="TD" localSheetId="0">Attributes!$C$600</definedName>
+    <definedName name="TF" localSheetId="0">Attributes!$C$602</definedName>
+    <definedName name="TG" localSheetId="0">Attributes!$C$605</definedName>
+    <definedName name="TH" localSheetId="0">Attributes!$C$603</definedName>
+    <definedName name="TJ" localSheetId="0">Attributes!$C$597</definedName>
+    <definedName name="TK" localSheetId="0">Attributes!$C$606</definedName>
+    <definedName name="TL" localSheetId="0">Attributes!$C$604</definedName>
+    <definedName name="TM" localSheetId="0">Attributes!$C$610</definedName>
+    <definedName name="TN" localSheetId="0">Attributes!$C$609</definedName>
+    <definedName name="TO" localSheetId="0">Attributes!$C$607</definedName>
+    <definedName name="TR" localSheetId="0">Attributes!$C$612</definedName>
+    <definedName name="TT" localSheetId="0">Attributes!$C$608</definedName>
+    <definedName name="TV" localSheetId="0">Attributes!$C$613</definedName>
+    <definedName name="TW" localSheetId="0">Attributes!$C$598</definedName>
+    <definedName name="TZ" localSheetId="0">Attributes!$C$599</definedName>
+    <definedName name="UA" localSheetId="0">Attributes!$C$614</definedName>
+    <definedName name="UG" localSheetId="0">Attributes!$C$543</definedName>
+    <definedName name="UM" localSheetId="0">Attributes!$C$477</definedName>
+    <definedName name="US" localSheetId="0">Attributes!$C$446</definedName>
+    <definedName name="UY" localSheetId="0">Attributes!$C$615</definedName>
+    <definedName name="UZ" localSheetId="0">Attributes!$C$544</definedName>
+    <definedName name="VA" localSheetId="0">Attributes!$C$574</definedName>
+    <definedName name="VC" localSheetId="0">Attributes!$C$575</definedName>
+    <definedName name="VE" localSheetId="0">Attributes!$C$617</definedName>
+    <definedName name="VG" localSheetId="0">Attributes!$C$478</definedName>
+    <definedName name="VI" localSheetId="0">Attributes!$C$479</definedName>
+    <definedName name="VN" localSheetId="0">Attributes!$C$618</definedName>
+    <definedName name="VU" localSheetId="0">Attributes!$C$616</definedName>
+    <definedName name="WF" localSheetId="0">Attributes!$C$619</definedName>
+    <definedName name="WS" localSheetId="0">Attributes!$C$577</definedName>
+    <definedName name="YE" localSheetId="0">Attributes!$C$620</definedName>
+    <definedName name="YT" localSheetId="0">Attributes!$C$520</definedName>
+    <definedName name="ZA" localSheetId="0">Attributes!$C$375</definedName>
+    <definedName name="ZM" localSheetId="0">Attributes!$C$621</definedName>
+    <definedName name="ZW" localSheetId="0">Attributes!$C$622</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2088" uniqueCount="1431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2433" uniqueCount="1454">
   <si>
     <t>identifier</t>
   </si>
@@ -4560,6 +4562,75 @@
   </si>
   <si>
     <t>Brazil vs Croatia [Group A],Mexico vs Cameroon [Group A],Spain vs Netherlands [Group B],Chile vs Australia [Group B],Colombia vs Greece [Group C],Uruguay vs Costa Rica [Group D],England vs Italy [Group D],Côte d'Ivoire vs Japan [Group C],Switzerland vs Ecuador [Group E],France vs Honduras [Group E],Argentina vs Bosnia and Herzegovina [Group F],Germany vs Portugal [Group G],Iran vs Nigeria [Group F],Ghana vs USA [Group G],Belgium vs Algeria [Group H],Brazil vs Mexico [Group A],Russia vs South Korea [Group H],Australia vs Netherlands [Group B],Spain vs Chile [Group B],Cameroon vs Croatia [Group A],Colombia vs Côte d'Ivoire [Group C],Uruguay vs England [Group D],Japan vs Greece [Group C],Italy vs Costa Rica [Group D],Switzerland vs France [Group E],Honduras vs Ecuador [Group E],Argentina vs Iran [Group F],Germany vs Ghana [Group G],Nigeria vs Bosnia and Herzegovina [Group F],Belgium vs Russia [Group H],South Korea vs Algeria [Group H],USA vs Portugal [Group G],Australia vs Spain [Group B],Netherlands vs Chile [Group B],Cameroon vs Brazil [Group A],Croatia vs Mexico [Group A],Italy vs Uruguay [Group D],Costa Rica vs England [Group D],Japan vs Colombia [Group C],Greece vs Côte d'Ivoire [Group C],Nigeria vs Argentina [Group F],Bosnia and Herzegovina vs Iran [Group F],Honduras vs Switzerland [Group E],Ecuador vs France [Group E],USA vs Germany [Group G],Portugal vs Ghana [Group G],South Korea vs Belgium [Group H],Algeria vs Russia [Group H]</t>
+  </si>
+  <si>
+    <t>PROVIDER_WS</t>
+  </si>
+  <si>
+    <t>Web Service</t>
+  </si>
+  <si>
+    <t>provider_source</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>ws_url</t>
+  </si>
+  <si>
+    <t>ws_all_method</t>
+  </si>
+  <si>
+    <t>ws_all_arguments</t>
+  </si>
+  <si>
+    <t>ws_unique_method</t>
+  </si>
+  <si>
+    <t>ws_unique_arguments</t>
+  </si>
+  <si>
+    <t>footballpool.dataaccess.eu</t>
+  </si>
+  <si>
+    <t>http://footballpool.dataaccess.eu/data/info.wso?WSDL</t>
+  </si>
+  <si>
+    <t>event</t>
+  </si>
+  <si>
+    <t>FIFA World Cup 2014</t>
+  </si>
+  <si>
+    <t>AllGames</t>
+  </si>
+  <si>
+    <t>GameInfo</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>provider</t>
+  </si>
+  <si>
+    <t>target_name</t>
+  </si>
+  <si>
+    <t>target_id</t>
+  </si>
+  <si>
+    <t>local_model</t>
+  </si>
+  <si>
+    <t>Participant</t>
+  </si>
+  <si>
+    <t>Match</t>
   </si>
 </sst>
 </file>
@@ -4910,10 +4981,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1083"/>
+  <dimension ref="A1:E1084"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4944,16 +5015,16 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1311</v>
+        <v>1431</v>
       </c>
       <c r="B2" t="s">
-        <v>1312</v>
+        <v>1432</v>
       </c>
       <c r="C2" t="s">
-        <v>1313</v>
+        <v>1432</v>
       </c>
       <c r="D2" t="s">
-        <v>1314</v>
+        <v>1433</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
@@ -4961,13 +5032,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1316</v>
+        <v>1311</v>
       </c>
       <c r="B3" t="s">
-        <v>1317</v>
+        <v>1312</v>
       </c>
       <c r="C3" t="s">
-        <v>1318</v>
+        <v>1313</v>
       </c>
       <c r="D3" t="s">
         <v>1314</v>
@@ -4978,13 +5049,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="B4" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="C4" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="D4" t="s">
         <v>1314</v>
@@ -4995,13 +5066,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1321</v>
+        <v>1315</v>
       </c>
       <c r="B5" t="s">
-        <v>1325</v>
+        <v>1319</v>
       </c>
       <c r="C5" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
       <c r="D5" t="s">
         <v>1314</v>
@@ -5012,13 +5083,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="B6" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
       <c r="C6" t="s">
-        <v>1326</v>
+        <v>1322</v>
       </c>
       <c r="D6" t="s">
         <v>1314</v>
@@ -5029,13 +5100,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>1327</v>
+        <v>1323</v>
       </c>
       <c r="B7" t="s">
-        <v>1328</v>
+        <v>1324</v>
       </c>
       <c r="C7" t="s">
-        <v>1329</v>
+        <v>1326</v>
       </c>
       <c r="D7" t="s">
         <v>1314</v>
@@ -5046,13 +5117,13 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>1330</v>
+        <v>1327</v>
       </c>
       <c r="B8" t="s">
-        <v>1331</v>
+        <v>1328</v>
       </c>
       <c r="C8" t="s">
-        <v>1332</v>
+        <v>1329</v>
       </c>
       <c r="D8" t="s">
         <v>1314</v>
@@ -5063,16 +5134,16 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>1391</v>
+        <v>1330</v>
       </c>
       <c r="B9" t="s">
-        <v>1390</v>
+        <v>1331</v>
       </c>
       <c r="C9" t="s">
-        <v>1392</v>
+        <v>1332</v>
       </c>
       <c r="D9" t="s">
-        <v>1308</v>
+        <v>1314</v>
       </c>
       <c r="E9" t="b">
         <v>1</v>
@@ -5080,13 +5151,13 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>1306</v>
+        <v>1391</v>
       </c>
       <c r="B10" t="s">
-        <v>1307</v>
+        <v>1390</v>
       </c>
       <c r="C10" t="s">
-        <v>1307</v>
+        <v>1392</v>
       </c>
       <c r="D10" t="s">
         <v>1308</v>
@@ -5097,13 +5168,13 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>1309</v>
+        <v>1306</v>
       </c>
       <c r="B11" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
       <c r="C11" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
       <c r="D11" t="s">
         <v>1308</v>
@@ -5114,30 +5185,30 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>5</v>
+        <v>1309</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>1310</v>
       </c>
       <c r="C12" t="s">
-        <v>7</v>
+        <v>1310</v>
       </c>
       <c r="D12" t="s">
-        <v>8</v>
+        <v>1308</v>
       </c>
       <c r="E12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D13" t="s">
         <v>8</v>
@@ -5148,13 +5219,13 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D14" t="s">
         <v>8</v>
@@ -5165,13 +5236,13 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D15" t="s">
         <v>8</v>
@@ -5182,13 +5253,13 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D16" t="s">
         <v>8</v>
@@ -5199,13 +5270,13 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C17" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D17" t="s">
         <v>8</v>
@@ -5216,13 +5287,13 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D18" t="s">
         <v>8</v>
@@ -5233,13 +5304,13 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
         <v>8</v>
@@ -5250,13 +5321,13 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B20" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C20" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D20" t="s">
         <v>8</v>
@@ -5267,13 +5338,13 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C21" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D21" t="s">
         <v>8</v>
@@ -5284,13 +5355,13 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B22" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C22" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D22" t="s">
         <v>8</v>
@@ -5301,13 +5372,13 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B23" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C23" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D23" t="s">
         <v>8</v>
@@ -5318,13 +5389,13 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B24" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C24" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D24" t="s">
         <v>8</v>
@@ -5335,13 +5406,13 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B25" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C25" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D25" t="s">
         <v>8</v>
@@ -5352,13 +5423,13 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B26" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C26" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D26" t="s">
         <v>8</v>
@@ -5369,13 +5440,13 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B27" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C27" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D27" t="s">
         <v>8</v>
@@ -5386,13 +5457,13 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B28" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C28" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D28" t="s">
         <v>8</v>
@@ -5403,13 +5474,13 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B29" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C29" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D29" t="s">
         <v>8</v>
@@ -5420,13 +5491,13 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B30" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C30" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D30" t="s">
         <v>8</v>
@@ -5437,13 +5508,13 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B31" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C31" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D31" t="s">
         <v>8</v>
@@ -5454,13 +5525,13 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B32" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C32" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D32" t="s">
         <v>8</v>
@@ -5471,13 +5542,13 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B33" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C33" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D33" t="s">
         <v>8</v>
@@ -5488,13 +5559,13 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B34" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C34" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D34" t="s">
         <v>8</v>
@@ -5505,13 +5576,13 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B35" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C35" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D35" t="s">
         <v>8</v>
@@ -5522,13 +5593,13 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B36" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C36" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D36" t="s">
         <v>8</v>
@@ -5539,13 +5610,13 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B37" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C37" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D37" t="s">
         <v>8</v>
@@ -5556,13 +5627,13 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B38" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C38" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D38" t="s">
         <v>8</v>
@@ -5573,13 +5644,13 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B39" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C39" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D39" t="s">
         <v>8</v>
@@ -5590,13 +5661,13 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B40" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C40" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D40" t="s">
         <v>8</v>
@@ -5607,47 +5678,47 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B41" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C41" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D41" t="s">
         <v>8</v>
       </c>
       <c r="E41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B42" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C42" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D42" t="s">
         <v>8</v>
       </c>
       <c r="E42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B43" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C43" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D43" t="s">
         <v>8</v>
@@ -5658,13 +5729,13 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B44" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C44" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D44" t="s">
         <v>8</v>
@@ -5675,13 +5746,13 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B45" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C45" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D45" t="s">
         <v>8</v>
@@ -5692,13 +5763,13 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B46" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C46" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D46" t="s">
         <v>8</v>
@@ -5709,13 +5780,13 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B47" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C47" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D47" t="s">
         <v>8</v>
@@ -5726,13 +5797,13 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B48" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C48" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D48" t="s">
         <v>8</v>
@@ -5743,13 +5814,13 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B49" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C49" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D49" t="s">
         <v>8</v>
@@ -5760,13 +5831,13 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B50" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C50" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D50" t="s">
         <v>8</v>
@@ -5777,13 +5848,13 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B51" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C51" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D51" t="s">
         <v>8</v>
@@ -5794,13 +5865,13 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B52" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C52" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D52" t="s">
         <v>8</v>
@@ -5811,13 +5882,13 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B53" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C53" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D53" t="s">
         <v>8</v>
@@ -5828,13 +5899,13 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B54" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C54" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D54" t="s">
         <v>8</v>
@@ -5845,13 +5916,13 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B55" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C55" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D55" t="s">
         <v>8</v>
@@ -5862,13 +5933,13 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B56" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C56" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D56" t="s">
         <v>8</v>
@@ -5879,13 +5950,13 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B57" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C57" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D57" t="s">
         <v>8</v>
@@ -5896,13 +5967,13 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B58" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C58" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D58" t="s">
         <v>8</v>
@@ -5913,13 +5984,13 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B59" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C59" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D59" t="s">
         <v>8</v>
@@ -5930,13 +6001,13 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B60" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C60" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D60" t="s">
         <v>8</v>
@@ -5947,47 +6018,47 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B61" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C61" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D61" t="s">
         <v>8</v>
       </c>
       <c r="E61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B62" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C62" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D62" t="s">
         <v>8</v>
       </c>
       <c r="E62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B63" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C63" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D63" t="s">
         <v>8</v>
@@ -5998,47 +6069,47 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B64" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C64" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D64" t="s">
         <v>8</v>
       </c>
       <c r="E64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B65" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C65" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D65" t="s">
         <v>8</v>
       </c>
       <c r="E65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B66" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C66" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D66" t="s">
         <v>8</v>
@@ -6049,13 +6120,13 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B67" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C67" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D67" t="s">
         <v>8</v>
@@ -6066,13 +6137,13 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B68" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C68" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D68" t="s">
         <v>8</v>
@@ -6083,13 +6154,13 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B69" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C69" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D69" t="s">
         <v>8</v>
@@ -6100,13 +6171,13 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B70" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C70" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D70" t="s">
         <v>8</v>
@@ -6117,13 +6188,13 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B71" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C71" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D71" t="s">
         <v>8</v>
@@ -6134,13 +6205,13 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B72" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C72" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D72" t="s">
         <v>8</v>
@@ -6151,13 +6222,13 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B73" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C73" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D73" t="s">
         <v>8</v>
@@ -6168,13 +6239,13 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B74" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C74" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D74" t="s">
         <v>8</v>
@@ -6185,13 +6256,13 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B75" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C75" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D75" t="s">
         <v>8</v>
@@ -6202,13 +6273,13 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B76" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C76" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D76" t="s">
         <v>8</v>
@@ -6219,13 +6290,13 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B77" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C77" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D77" t="s">
         <v>8</v>
@@ -6236,13 +6307,13 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B78" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C78" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D78" t="s">
         <v>8</v>
@@ -6253,13 +6324,13 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B79" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C79" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D79" t="s">
         <v>8</v>
@@ -6270,13 +6341,13 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B80" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C80" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D80" t="s">
         <v>8</v>
@@ -6287,13 +6358,13 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B81" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C81" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D81" t="s">
         <v>8</v>
@@ -6304,13 +6375,13 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B82" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C82" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D82" t="s">
         <v>8</v>
@@ -6321,13 +6392,13 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B83" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C83" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D83" t="s">
         <v>8</v>
@@ -6338,13 +6409,13 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B84" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C84" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D84" t="s">
         <v>8</v>
@@ -6355,13 +6426,13 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B85" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C85" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D85" t="s">
         <v>8</v>
@@ -6372,47 +6443,47 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B86" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C86" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D86" t="s">
         <v>8</v>
       </c>
       <c r="E86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B87" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C87" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D87" t="s">
         <v>8</v>
       </c>
       <c r="E87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B88" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C88" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D88" t="s">
         <v>8</v>
@@ -6423,13 +6494,13 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B89" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C89" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D89" t="s">
         <v>8</v>
@@ -6440,13 +6511,13 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B90" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C90" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D90" t="s">
         <v>8</v>
@@ -6457,13 +6528,13 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B91" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C91" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D91" t="s">
         <v>8</v>
@@ -6474,13 +6545,13 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B92" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C92" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D92" t="s">
         <v>8</v>
@@ -6491,13 +6562,13 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B93" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C93" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D93" t="s">
         <v>8</v>
@@ -6508,13 +6579,13 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B94" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C94" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D94" t="s">
         <v>8</v>
@@ -6525,13 +6596,13 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B95" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C95" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D95" t="s">
         <v>8</v>
@@ -6542,13 +6613,13 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B96" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C96" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D96" t="s">
         <v>8</v>
@@ -6559,13 +6630,13 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B97" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C97" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D97" t="s">
         <v>8</v>
@@ -6576,13 +6647,13 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B98" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C98" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D98" t="s">
         <v>8</v>
@@ -6593,13 +6664,13 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B99" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C99" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D99" t="s">
         <v>8</v>
@@ -6610,13 +6681,13 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B100" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C100" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D100" t="s">
         <v>8</v>
@@ -6627,13 +6698,13 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B101" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C101" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D101" t="s">
         <v>8</v>
@@ -6644,13 +6715,13 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B102" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C102" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D102" t="s">
         <v>8</v>
@@ -6661,13 +6732,13 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B103" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C103" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D103" t="s">
         <v>8</v>
@@ -6678,13 +6749,13 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B104" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C104" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D104" t="s">
         <v>8</v>
@@ -6695,13 +6766,13 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B105" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C105" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D105" t="s">
         <v>8</v>
@@ -6712,13 +6783,13 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B106" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C106" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D106" t="s">
         <v>8</v>
@@ -6729,13 +6800,13 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B107" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C107" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D107" t="s">
         <v>8</v>
@@ -6746,13 +6817,13 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B108" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C108" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D108" t="s">
         <v>8</v>
@@ -6763,13 +6834,13 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B109" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C109" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D109" t="s">
         <v>8</v>
@@ -6780,13 +6851,13 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B110" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C110" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D110" t="s">
         <v>8</v>
@@ -6797,13 +6868,13 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B111" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C111" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D111" t="s">
         <v>8</v>
@@ -6814,13 +6885,13 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B112" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C112" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D112" t="s">
         <v>8</v>
@@ -6831,13 +6902,13 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B113" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C113" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="D113" t="s">
         <v>8</v>
@@ -6848,13 +6919,13 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B114" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C114" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="D114" t="s">
         <v>8</v>
@@ -6865,13 +6936,13 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B115" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C115" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D115" t="s">
         <v>8</v>
@@ -6882,13 +6953,13 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B116" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C116" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D116" t="s">
         <v>8</v>
@@ -6899,13 +6970,13 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B117" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C117" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="D117" t="s">
         <v>8</v>
@@ -6916,13 +6987,13 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B118" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C118" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D118" t="s">
         <v>8</v>
@@ -6933,13 +7004,13 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B119" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C119" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="D119" t="s">
         <v>8</v>
@@ -6950,13 +7021,13 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B120" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C120" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="D120" t="s">
         <v>8</v>
@@ -6967,13 +7038,13 @@
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B121" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C121" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="D121" t="s">
         <v>8</v>
@@ -6984,13 +7055,13 @@
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B122" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C122" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="D122" t="s">
         <v>8</v>
@@ -7001,13 +7072,13 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="B123" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C123" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="D123" t="s">
         <v>8</v>
@@ -7018,13 +7089,13 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B124" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C124" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="D124" t="s">
         <v>8</v>
@@ -7035,13 +7106,13 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B125" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C125" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="D125" t="s">
         <v>8</v>
@@ -7052,13 +7123,13 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="B126" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="C126" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="D126" t="s">
         <v>8</v>
@@ -7069,13 +7140,13 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B127" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C127" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D127" t="s">
         <v>8</v>
@@ -7086,13 +7157,13 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B128" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C128" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="D128" t="s">
         <v>8</v>
@@ -7103,13 +7174,13 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="B129" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C129" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D129" t="s">
         <v>8</v>
@@ -7120,13 +7191,13 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="B130" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C130" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="D130" t="s">
         <v>8</v>
@@ -7137,13 +7208,13 @@
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B131" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C131" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="D131" t="s">
         <v>8</v>
@@ -7154,13 +7225,13 @@
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="B132" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C132" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D132" t="s">
         <v>8</v>
@@ -7171,13 +7242,13 @@
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B133" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C133" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="D133" t="s">
         <v>8</v>
@@ -7188,13 +7259,13 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B134" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="C134" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="D134" t="s">
         <v>8</v>
@@ -7205,13 +7276,13 @@
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B135" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C135" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="D135" t="s">
         <v>8</v>
@@ -7222,13 +7293,13 @@
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B136" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="C136" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="D136" t="s">
         <v>8</v>
@@ -7239,13 +7310,13 @@
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B137" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C137" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="D137" t="s">
         <v>8</v>
@@ -7256,13 +7327,13 @@
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="B138" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="C138" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="D138" t="s">
         <v>8</v>
@@ -7273,13 +7344,13 @@
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B139" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="C139" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="D139" t="s">
         <v>8</v>
@@ -7290,13 +7361,13 @@
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B140" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="C140" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="D140" t="s">
         <v>8</v>
@@ -7307,13 +7378,13 @@
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="B141" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C141" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="D141" t="s">
         <v>8</v>
@@ -7324,13 +7395,13 @@
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B142" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="C142" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="D142" t="s">
         <v>8</v>
@@ -7341,13 +7412,13 @@
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="B143" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="C143" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="D143" t="s">
         <v>8</v>
@@ -7358,13 +7429,13 @@
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="B144" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="C144" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="D144" t="s">
         <v>8</v>
@@ -7375,13 +7446,13 @@
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="B145" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="C145" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="D145" t="s">
         <v>8</v>
@@ -7392,13 +7463,13 @@
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="B146" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="C146" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="D146" t="s">
         <v>8</v>
@@ -7409,13 +7480,13 @@
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B147" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="C147" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="D147" t="s">
         <v>8</v>
@@ -7426,13 +7497,13 @@
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B148" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="C148" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="D148" t="s">
         <v>8</v>
@@ -7443,13 +7514,13 @@
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B149" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="C149" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="D149" t="s">
         <v>8</v>
@@ -7460,13 +7531,13 @@
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B150" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="C150" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="D150" t="s">
         <v>8</v>
@@ -7477,13 +7548,13 @@
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="B151" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C151" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="D151" t="s">
         <v>8</v>
@@ -7494,13 +7565,13 @@
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B152" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C152" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="D152" t="s">
         <v>8</v>
@@ -7511,13 +7582,13 @@
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B153" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="C153" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="D153" t="s">
         <v>8</v>
@@ -7528,13 +7599,13 @@
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B154" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="C154" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="D154" t="s">
         <v>8</v>
@@ -7545,13 +7616,13 @@
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="B155" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C155" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="D155" t="s">
         <v>8</v>
@@ -7562,13 +7633,13 @@
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="B156" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="C156" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="D156" t="s">
         <v>8</v>
@@ -7579,13 +7650,13 @@
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="B157" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="C157" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="D157" t="s">
         <v>8</v>
@@ -7596,13 +7667,13 @@
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="B158" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="C158" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="D158" t="s">
         <v>8</v>
@@ -7613,13 +7684,13 @@
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="B159" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="C159" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="D159" t="s">
         <v>8</v>
@@ -7630,13 +7701,13 @@
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="B160" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="C160" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="D160" t="s">
         <v>8</v>
@@ -7647,13 +7718,13 @@
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="B161" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="C161" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="D161" t="s">
         <v>8</v>
@@ -7664,13 +7735,13 @@
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="B162" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="C162" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="D162" t="s">
         <v>8</v>
@@ -7681,13 +7752,13 @@
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="B163" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="C163" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="D163" t="s">
         <v>8</v>
@@ -7698,47 +7769,47 @@
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="B164" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="C164" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="D164" t="s">
         <v>8</v>
       </c>
       <c r="E164" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="B165" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="C165" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="D165" t="s">
         <v>8</v>
       </c>
       <c r="E165" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="B166" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="C166" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="D166" t="s">
         <v>8</v>
@@ -7749,13 +7820,13 @@
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="B167" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="C167" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="D167" t="s">
         <v>8</v>
@@ -7766,13 +7837,13 @@
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="B168" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="C168" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="D168" t="s">
         <v>8</v>
@@ -7783,13 +7854,13 @@
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="B169" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="C169" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="D169" t="s">
         <v>8</v>
@@ -7800,13 +7871,13 @@
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="B170" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="C170" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D170" t="s">
         <v>8</v>
@@ -7817,13 +7888,13 @@
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="B171" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="C171" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="D171" t="s">
         <v>8</v>
@@ -7834,13 +7905,13 @@
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="B172" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="C172" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="D172" t="s">
         <v>8</v>
@@ -7851,13 +7922,13 @@
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="B173" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="C173" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D173" t="s">
         <v>8</v>
@@ -7868,13 +7939,13 @@
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="B174" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="C174" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="D174" t="s">
         <v>8</v>
@@ -7885,13 +7956,13 @@
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="B175" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="C175" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="D175" t="s">
         <v>8</v>
@@ -7902,13 +7973,13 @@
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="B176" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="C176" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="D176" t="s">
         <v>8</v>
@@ -7919,13 +7990,13 @@
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="B177" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="C177" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="D177" t="s">
         <v>8</v>
@@ -7936,13 +8007,13 @@
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="B178" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="C178" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="D178" t="s">
         <v>8</v>
@@ -7953,13 +8024,13 @@
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="B179" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="C179" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="D179" t="s">
         <v>8</v>
@@ -7970,13 +8041,13 @@
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="B180" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="C180" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="D180" t="s">
         <v>8</v>
@@ -7987,13 +8058,13 @@
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="B181" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="C181" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="D181" t="s">
         <v>8</v>
@@ -8004,13 +8075,13 @@
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="B182" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="C182" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="D182" t="s">
         <v>8</v>
@@ -8021,13 +8092,13 @@
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="B183" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="C183" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="D183" t="s">
         <v>8</v>
@@ -8038,13 +8109,13 @@
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="B184" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="C184" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="D184" t="s">
         <v>8</v>
@@ -8055,13 +8126,13 @@
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="B185" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="C185" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="D185" t="s">
         <v>8</v>
@@ -8072,13 +8143,13 @@
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="B186" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="C186" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="D186" t="s">
         <v>8</v>
@@ -8089,13 +8160,13 @@
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="B187" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="C187" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="D187" t="s">
         <v>8</v>
@@ -8106,13 +8177,13 @@
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="B188" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="C188" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="D188" t="s">
         <v>8</v>
@@ -8123,13 +8194,13 @@
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="B189" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="C189" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="D189" t="s">
         <v>8</v>
@@ -8140,13 +8211,13 @@
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="B190" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="C190" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="D190" t="s">
         <v>8</v>
@@ -8157,13 +8228,13 @@
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="B191" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="C191" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="D191" t="s">
         <v>8</v>
@@ -8174,13 +8245,13 @@
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="B192" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="C192" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="D192" t="s">
         <v>8</v>
@@ -8191,13 +8262,13 @@
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="B193" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="C193" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="D193" t="s">
         <v>8</v>
@@ -8208,13 +8279,13 @@
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="B194" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="C194" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="D194" t="s">
         <v>8</v>
@@ -8225,13 +8296,13 @@
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="B195" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="C195" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="D195" t="s">
         <v>8</v>
@@ -8242,30 +8313,30 @@
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="B196" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="C196" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="D196" t="s">
-        <v>561</v>
+        <v>8</v>
       </c>
       <c r="E196" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="B197" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="C197" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="D197" t="s">
         <v>561</v>
@@ -8276,13 +8347,13 @@
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="B198" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="C198" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="D198" t="s">
         <v>561</v>
@@ -8293,13 +8364,13 @@
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="B199" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="C199" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="D199" t="s">
         <v>561</v>
@@ -8310,13 +8381,13 @@
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="B200" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="C200" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="D200" t="s">
         <v>561</v>
@@ -8327,13 +8398,13 @@
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="B201" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="C201" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="D201" t="s">
         <v>561</v>
@@ -8344,13 +8415,13 @@
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="B202" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="C202" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="D202" t="s">
         <v>561</v>
@@ -8361,13 +8432,13 @@
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="B203" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="C203" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="D203" t="s">
         <v>561</v>
@@ -8378,13 +8449,13 @@
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="B204" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="C204" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="D204" t="s">
         <v>561</v>
@@ -8395,13 +8466,13 @@
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="B205" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="C205" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="D205" t="s">
         <v>561</v>
@@ -8412,13 +8483,13 @@
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="B206" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="C206" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="D206" t="s">
         <v>561</v>
@@ -8429,13 +8500,13 @@
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="B207" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="C207" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="D207" t="s">
         <v>561</v>
@@ -8446,13 +8517,13 @@
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="B208" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="C208" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="D208" t="s">
         <v>561</v>
@@ -8463,13 +8534,13 @@
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="B209" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="C209" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="D209" t="s">
         <v>561</v>
@@ -8480,13 +8551,13 @@
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="B210" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="C210" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="D210" t="s">
         <v>561</v>
@@ -8497,13 +8568,13 @@
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="B211" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="C211" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="D211" t="s">
         <v>561</v>
@@ -8514,13 +8585,13 @@
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="B212" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="C212" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="D212" t="s">
         <v>561</v>
@@ -8531,13 +8602,13 @@
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="B213" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="C213" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="D213" t="s">
         <v>561</v>
@@ -8548,13 +8619,13 @@
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="B214" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="C214" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="D214" t="s">
         <v>561</v>
@@ -8565,13 +8636,13 @@
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="B215" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C215" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="D215" t="s">
         <v>561</v>
@@ -8582,13 +8653,13 @@
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="B216" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="C216" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="D216" t="s">
         <v>561</v>
@@ -8599,13 +8670,13 @@
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="B217" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="C217" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="D217" t="s">
         <v>561</v>
@@ -8616,13 +8687,13 @@
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="B218" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="C218" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="D218" t="s">
         <v>561</v>
@@ -8633,13 +8704,13 @@
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="B219" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="C219" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="D219" t="s">
         <v>561</v>
@@ -8650,13 +8721,13 @@
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="B220" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="C220" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="D220" t="s">
         <v>561</v>
@@ -8667,13 +8738,13 @@
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="B221" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="C221" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="D221" t="s">
         <v>561</v>
@@ -8684,13 +8755,13 @@
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="B222" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="C222" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="D222" t="s">
         <v>561</v>
@@ -8701,13 +8772,13 @@
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="B223" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="C223" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="D223" t="s">
         <v>561</v>
@@ -8718,13 +8789,13 @@
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="B224" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="C224" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="D224" t="s">
         <v>561</v>
@@ -8735,13 +8806,13 @@
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="B225" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="C225" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="D225" t="s">
         <v>561</v>
@@ -8752,13 +8823,13 @@
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="B226" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="C226" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="D226" t="s">
         <v>561</v>
@@ -8769,13 +8840,13 @@
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="B227" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="C227" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="D227" t="s">
         <v>561</v>
@@ -8786,13 +8857,13 @@
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="B228" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="C228" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="D228" t="s">
         <v>561</v>
@@ -8803,13 +8874,13 @@
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="B229" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="C229" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="D229" t="s">
         <v>561</v>
@@ -8820,13 +8891,13 @@
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="B230" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="C230" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D230" t="s">
         <v>561</v>
@@ -8837,13 +8908,13 @@
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="B231" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="C231" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="D231" t="s">
         <v>561</v>
@@ -8854,13 +8925,13 @@
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="B232" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="C232" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="D232" t="s">
         <v>561</v>
@@ -8871,13 +8942,13 @@
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="B233" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="C233" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="D233" t="s">
         <v>561</v>
@@ -8888,13 +8959,13 @@
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="B234" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="C234" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="D234" t="s">
         <v>561</v>
@@ -8905,13 +8976,13 @@
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="B235" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="C235" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="D235" t="s">
         <v>561</v>
@@ -8922,13 +8993,13 @@
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="B236" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="C236" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="D236" t="s">
         <v>561</v>
@@ -8939,13 +9010,13 @@
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="B237" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="C237" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="D237" t="s">
         <v>561</v>
@@ -8956,13 +9027,13 @@
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="B238" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="C238" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="D238" t="s">
         <v>561</v>
@@ -8973,13 +9044,13 @@
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="B239" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="C239" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="D239" t="s">
         <v>561</v>
@@ -8990,13 +9061,13 @@
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="B240" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="C240" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="D240" t="s">
         <v>561</v>
@@ -9007,13 +9078,13 @@
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="B241" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="C241" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="D241" t="s">
         <v>561</v>
@@ -9024,13 +9095,13 @@
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="B242" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="C242" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="D242" t="s">
         <v>561</v>
@@ -9041,13 +9112,13 @@
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="B243" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="C243" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="D243" t="s">
         <v>561</v>
@@ -9058,13 +9129,13 @@
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="B244" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="C244" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="D244" t="s">
         <v>561</v>
@@ -9075,13 +9146,13 @@
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="B245" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="C245" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="D245" t="s">
         <v>561</v>
@@ -9092,13 +9163,13 @@
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="B246" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="C246" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="D246" t="s">
         <v>561</v>
@@ -9109,13 +9180,13 @@
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="B247" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="C247" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="D247" t="s">
         <v>561</v>
@@ -9126,13 +9197,13 @@
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="B248" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="C248" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="D248" t="s">
         <v>561</v>
@@ -9143,13 +9214,13 @@
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="B249" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="C249" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="D249" t="s">
         <v>561</v>
@@ -9160,13 +9231,13 @@
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="B250" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="C250" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="D250" t="s">
         <v>561</v>
@@ -9177,13 +9248,13 @@
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="B251" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="C251" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="D251" t="s">
         <v>561</v>
@@ -9194,13 +9265,13 @@
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="B252" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="C252" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="D252" t="s">
         <v>561</v>
@@ -9211,13 +9282,13 @@
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="B253" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="C253" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="D253" t="s">
         <v>561</v>
@@ -9228,13 +9299,13 @@
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="B254" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="C254" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="D254" t="s">
         <v>561</v>
@@ -9245,13 +9316,13 @@
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="B255" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="C255" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="D255" t="s">
         <v>561</v>
@@ -9262,13 +9333,13 @@
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="B256" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="C256" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="D256" t="s">
         <v>561</v>
@@ -9279,13 +9350,13 @@
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="B257" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="C257" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="D257" t="s">
         <v>561</v>
@@ -9296,13 +9367,13 @@
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="B258" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="C258" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="D258" t="s">
         <v>561</v>
@@ -9313,13 +9384,13 @@
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="B259" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="C259" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="D259" t="s">
         <v>561</v>
@@ -9330,13 +9401,13 @@
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="B260" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="C260" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="D260" t="s">
         <v>561</v>
@@ -9347,13 +9418,13 @@
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="B261" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="C261" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="D261" t="s">
         <v>561</v>
@@ -9364,13 +9435,13 @@
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="B262" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="C262" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="D262" t="s">
         <v>561</v>
@@ -9381,13 +9452,13 @@
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="B263" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="C263" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="D263" t="s">
         <v>561</v>
@@ -9398,13 +9469,13 @@
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="B264" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="C264" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="D264" t="s">
         <v>561</v>
@@ -9415,13 +9486,13 @@
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="B265" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="C265" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="D265" t="s">
         <v>561</v>
@@ -9432,13 +9503,13 @@
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>1370</v>
+        <v>766</v>
       </c>
       <c r="B266" t="s">
-        <v>1371</v>
+        <v>767</v>
       </c>
       <c r="C266" t="s">
-        <v>1372</v>
+        <v>768</v>
       </c>
       <c r="D266" t="s">
         <v>561</v>
@@ -9449,13 +9520,13 @@
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>769</v>
+        <v>1370</v>
       </c>
       <c r="B267" t="s">
-        <v>770</v>
+        <v>1371</v>
       </c>
       <c r="C267" t="s">
-        <v>771</v>
+        <v>1372</v>
       </c>
       <c r="D267" t="s">
         <v>561</v>
@@ -9466,13 +9537,13 @@
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="B268" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="C268" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="D268" t="s">
         <v>561</v>
@@ -9483,13 +9554,13 @@
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="B269" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="C269" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="D269" t="s">
         <v>561</v>
@@ -9500,13 +9571,13 @@
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="B270" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="C270" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="D270" t="s">
         <v>561</v>
@@ -9517,13 +9588,13 @@
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="B271" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="C271" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="D271" t="s">
         <v>561</v>
@@ -9534,13 +9605,13 @@
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="B272" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="C272" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="D272" t="s">
         <v>561</v>
@@ -9551,13 +9622,13 @@
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="B273" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="C273" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="D273" t="s">
         <v>561</v>
@@ -9568,13 +9639,13 @@
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="B274" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="C274" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="D274" t="s">
         <v>561</v>
@@ -9585,13 +9656,13 @@
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="B275" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="C275" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="D275" t="s">
         <v>561</v>
@@ -9602,13 +9673,13 @@
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="B276" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="C276" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="D276" t="s">
         <v>561</v>
@@ -9619,13 +9690,13 @@
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="B277" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="C277" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="D277" t="s">
         <v>561</v>
@@ -9636,13 +9707,13 @@
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="B278" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="C278" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="D278" t="s">
         <v>561</v>
@@ -9653,13 +9724,13 @@
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="B279" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="C279" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="D279" t="s">
         <v>561</v>
@@ -9670,13 +9741,13 @@
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="B280" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="C280" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="D280" t="s">
         <v>561</v>
@@ -9687,13 +9758,13 @@
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="B281" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="C281" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="D281" t="s">
         <v>561</v>
@@ -9704,13 +9775,13 @@
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="B282" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="C282" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="D282" t="s">
         <v>561</v>
@@ -9721,13 +9792,13 @@
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="B283" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="C283" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="D283" t="s">
         <v>561</v>
@@ -9738,13 +9809,13 @@
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="B284" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="C284" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="D284" t="s">
         <v>561</v>
@@ -9755,13 +9826,13 @@
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="B285" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="C285" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="D285" t="s">
         <v>561</v>
@@ -9772,13 +9843,13 @@
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="B286" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="C286" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="D286" t="s">
         <v>561</v>
@@ -9789,13 +9860,13 @@
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="B287" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="C287" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="D287" t="s">
         <v>561</v>
@@ -9806,13 +9877,13 @@
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="B288" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="C288" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="D288" t="s">
         <v>561</v>
@@ -9823,13 +9894,13 @@
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="B289" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="C289" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="D289" t="s">
         <v>561</v>
@@ -9840,13 +9911,13 @@
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="B290" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="C290" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="D290" t="s">
         <v>561</v>
@@ -9857,13 +9928,13 @@
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="B291" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="C291" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="D291" t="s">
         <v>561</v>
@@ -9874,13 +9945,13 @@
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="B292" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="C292" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="D292" t="s">
         <v>561</v>
@@ -9891,13 +9962,13 @@
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="B293" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="C293" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="D293" t="s">
         <v>561</v>
@@ -9908,13 +9979,13 @@
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="B294" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="C294" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="D294" t="s">
         <v>561</v>
@@ -9925,13 +9996,13 @@
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="B295" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="C295" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="D295" t="s">
         <v>561</v>
@@ -9942,13 +10013,13 @@
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="B296" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="C296" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="D296" t="s">
         <v>561</v>
@@ -9959,13 +10030,13 @@
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="B297" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="C297" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="D297" t="s">
         <v>561</v>
@@ -9976,13 +10047,13 @@
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="B298" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="C298" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="D298" t="s">
         <v>561</v>
@@ -9993,13 +10064,13 @@
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="B299" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="C299" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="D299" t="s">
         <v>561</v>
@@ -10010,13 +10081,13 @@
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="B300" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="C300" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="D300" t="s">
         <v>561</v>
@@ -10027,13 +10098,13 @@
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="B301" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="C301" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="D301" t="s">
         <v>561</v>
@@ -10044,13 +10115,13 @@
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="B302" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="C302" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="D302" t="s">
         <v>561</v>
@@ -10061,13 +10132,13 @@
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="B303" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="C303" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="D303" t="s">
         <v>561</v>
@@ -10078,13 +10149,13 @@
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="B304" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="C304" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="D304" t="s">
         <v>561</v>
@@ -10095,13 +10166,13 @@
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="B305" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="C305" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="D305" t="s">
         <v>561</v>
@@ -10112,13 +10183,13 @@
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="B306" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="C306" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="D306" t="s">
         <v>561</v>
@@ -10129,13 +10200,13 @@
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="B307" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="C307" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="D307" t="s">
         <v>561</v>
@@ -10146,13 +10217,13 @@
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="B308" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="C308" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="D308" t="s">
         <v>561</v>
@@ -10163,13 +10234,13 @@
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="B309" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="C309" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="D309" t="s">
         <v>561</v>
@@ -10180,13 +10251,13 @@
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="B310" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="C310" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="D310" t="s">
         <v>561</v>
@@ -10197,13 +10268,13 @@
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="B311" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="C311" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="D311" t="s">
         <v>561</v>
@@ -10214,13 +10285,13 @@
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="B312" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="C312" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="D312" t="s">
         <v>561</v>
@@ -10231,13 +10302,13 @@
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="B313" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="C313" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="D313" t="s">
         <v>561</v>
@@ -10248,13 +10319,13 @@
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="B314" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="C314" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="D314" t="s">
         <v>561</v>
@@ -10265,13 +10336,13 @@
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="B315" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="C315" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
       <c r="D315" t="s">
         <v>561</v>
@@ -10282,13 +10353,13 @@
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="B316" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="C316" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
       <c r="D316" t="s">
         <v>561</v>
@@ -10299,13 +10370,13 @@
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="B317" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="C317" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="D317" t="s">
         <v>561</v>
@@ -10316,13 +10387,13 @@
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="B318" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="C318" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="D318" t="s">
         <v>561</v>
@@ -10333,13 +10404,13 @@
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="B319" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="C319" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="D319" t="s">
         <v>561</v>
@@ -10350,13 +10421,13 @@
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="B320" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="C320" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="D320" t="s">
         <v>561</v>
@@ -10367,13 +10438,13 @@
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="B321" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="C321" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="D321" t="s">
         <v>561</v>
@@ -10384,13 +10455,13 @@
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="B322" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="C322" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="D322" t="s">
         <v>561</v>
@@ -10401,13 +10472,13 @@
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="B323" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="C323" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="D323" t="s">
         <v>561</v>
@@ -10418,13 +10489,13 @@
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="B324" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="C324" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="D324" t="s">
         <v>561</v>
@@ -10435,13 +10506,13 @@
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="B325" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="C325" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="D325" t="s">
         <v>561</v>
@@ -10452,13 +10523,13 @@
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="B326" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="C326" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="D326" t="s">
         <v>561</v>
@@ -10469,13 +10540,13 @@
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="B327" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="C327" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="D327" t="s">
         <v>561</v>
@@ -10486,13 +10557,13 @@
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="B328" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="C328" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="D328" t="s">
         <v>561</v>
@@ -10503,13 +10574,13 @@
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="B329" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="C329" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
       <c r="D329" t="s">
         <v>561</v>
@@ -10520,13 +10591,13 @@
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
       <c r="B330" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
       <c r="C330" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
       <c r="D330" t="s">
         <v>561</v>
@@ -10537,13 +10608,13 @@
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="B331" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
       <c r="C331" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="D331" t="s">
         <v>561</v>
@@ -10554,13 +10625,13 @@
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
       <c r="B332" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="C332" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
       <c r="D332" t="s">
         <v>561</v>
@@ -10571,13 +10642,13 @@
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
       <c r="B333" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="C333" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
       <c r="D333" t="s">
         <v>561</v>
@@ -10588,13 +10659,13 @@
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
       <c r="B334" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
       <c r="C334" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
       <c r="D334" t="s">
         <v>561</v>
@@ -10605,13 +10676,13 @@
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
       <c r="B335" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
       <c r="C335" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="D335" t="s">
         <v>561</v>
@@ -10622,13 +10693,13 @@
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="B336" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="C336" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
       <c r="D336" t="s">
         <v>561</v>
@@ -10639,13 +10710,13 @@
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
       <c r="B337" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
       <c r="C337" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
       <c r="D337" t="s">
         <v>561</v>
@@ -10656,13 +10727,13 @@
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="B338" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
       <c r="C338" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
       <c r="D338" t="s">
         <v>561</v>
@@ -10673,13 +10744,13 @@
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
       <c r="B339" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
       <c r="C339" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
       <c r="D339" t="s">
         <v>561</v>
@@ -10690,13 +10761,13 @@
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
       <c r="B340" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
       <c r="C340" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
       <c r="D340" t="s">
         <v>561</v>
@@ -10707,13 +10778,13 @@
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="B341" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
       <c r="C341" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
       <c r="D341" t="s">
         <v>561</v>
@@ -10724,13 +10795,13 @@
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
       <c r="B342" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
       <c r="C342" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
       <c r="D342" t="s">
         <v>561</v>
@@ -10741,13 +10812,13 @@
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
       <c r="B343" t="s">
-        <v>998</v>
+        <v>995</v>
       </c>
       <c r="C343" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
       <c r="D343" t="s">
         <v>561</v>
@@ -10758,13 +10829,13 @@
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
       <c r="B344" t="s">
-        <v>1001</v>
+        <v>998</v>
       </c>
       <c r="C344" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="D344" t="s">
         <v>561</v>
@@ -10775,13 +10846,13 @@
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="B345" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="C345" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="D345" t="s">
         <v>561</v>
@@ -10792,13 +10863,13 @@
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="B346" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="C346" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="D346" t="s">
         <v>561</v>
@@ -10809,13 +10880,13 @@
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="B347" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="C347" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
       <c r="D347" t="s">
         <v>561</v>
@@ -10826,13 +10897,13 @@
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
       <c r="B348" t="s">
-        <v>1013</v>
+        <v>1010</v>
       </c>
       <c r="C348" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="D348" t="s">
         <v>561</v>
@@ -10843,13 +10914,13 @@
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="B349" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
       <c r="C349" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
       <c r="D349" t="s">
         <v>561</v>
@@ -10860,13 +10931,13 @@
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>1018</v>
+        <v>1015</v>
       </c>
       <c r="B350" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="C350" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="D350" t="s">
         <v>561</v>
@@ -10877,13 +10948,13 @@
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="B351" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
       <c r="C351" t="s">
-        <v>1023</v>
+        <v>1020</v>
       </c>
       <c r="D351" t="s">
         <v>561</v>
@@ -10894,13 +10965,13 @@
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
       <c r="B352" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
       <c r="C352" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
       <c r="D352" t="s">
         <v>561</v>
@@ -10911,13 +10982,13 @@
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
       <c r="B353" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
       <c r="C353" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
       <c r="D353" t="s">
         <v>561</v>
@@ -10928,13 +10999,13 @@
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
       <c r="B354" t="s">
-        <v>1031</v>
+        <v>1028</v>
       </c>
       <c r="C354" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="D354" t="s">
         <v>561</v>
@@ -10945,13 +11016,13 @@
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
       <c r="B355" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
       <c r="C355" t="s">
-        <v>1035</v>
+        <v>1032</v>
       </c>
       <c r="D355" t="s">
         <v>561</v>
@@ -10962,13 +11033,13 @@
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
       <c r="B356" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
       <c r="C356" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="D356" t="s">
         <v>561</v>
@@ -10979,13 +11050,13 @@
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
       <c r="B357" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
       <c r="C357" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
       <c r="D357" t="s">
         <v>561</v>
@@ -10996,13 +11067,13 @@
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>1042</v>
+        <v>1039</v>
       </c>
       <c r="B358" t="s">
-        <v>1043</v>
+        <v>1040</v>
       </c>
       <c r="C358" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
       <c r="D358" t="s">
         <v>561</v>
@@ -11013,13 +11084,13 @@
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
       <c r="B359" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
       <c r="C359" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="D359" t="s">
         <v>561</v>
@@ -11030,13 +11101,13 @@
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
       <c r="B360" t="s">
-        <v>1049</v>
+        <v>1046</v>
       </c>
       <c r="C360" t="s">
-        <v>1050</v>
+        <v>1047</v>
       </c>
       <c r="D360" t="s">
         <v>561</v>
@@ -11047,13 +11118,13 @@
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>1051</v>
+        <v>1048</v>
       </c>
       <c r="B361" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="C361" t="s">
-        <v>1053</v>
+        <v>1050</v>
       </c>
       <c r="D361" t="s">
         <v>561</v>
@@ -11064,13 +11135,13 @@
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="B362" t="s">
-        <v>1055</v>
+        <v>1052</v>
       </c>
       <c r="C362" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
       <c r="D362" t="s">
         <v>561</v>
@@ -11081,13 +11152,13 @@
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>1057</v>
+        <v>1054</v>
       </c>
       <c r="B363" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
       <c r="C363" t="s">
-        <v>1059</v>
+        <v>1056</v>
       </c>
       <c r="D363" t="s">
         <v>561</v>
@@ -11098,13 +11169,13 @@
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
       <c r="B364" t="s">
-        <v>1061</v>
+        <v>1058</v>
       </c>
       <c r="C364" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
       <c r="D364" t="s">
         <v>561</v>
@@ -11115,13 +11186,13 @@
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>1063</v>
+        <v>1060</v>
       </c>
       <c r="B365" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="C365" t="s">
-        <v>1065</v>
+        <v>1062</v>
       </c>
       <c r="D365" t="s">
         <v>561</v>
@@ -11132,13 +11203,13 @@
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>1066</v>
+        <v>1063</v>
       </c>
       <c r="B366" t="s">
-        <v>1067</v>
+        <v>1064</v>
       </c>
       <c r="C366" t="s">
-        <v>1068</v>
+        <v>1065</v>
       </c>
       <c r="D366" t="s">
         <v>561</v>
@@ -11149,13 +11220,13 @@
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>1069</v>
+        <v>1066</v>
       </c>
       <c r="B367" t="s">
-        <v>1070</v>
+        <v>1067</v>
       </c>
       <c r="C367" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
       <c r="D367" t="s">
         <v>561</v>
@@ -11166,13 +11237,13 @@
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="B368" t="s">
-        <v>1073</v>
+        <v>1070</v>
       </c>
       <c r="C368" t="s">
-        <v>1074</v>
+        <v>1071</v>
       </c>
       <c r="D368" t="s">
         <v>561</v>
@@ -11183,13 +11254,13 @@
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>1075</v>
+        <v>1072</v>
       </c>
       <c r="B369" t="s">
-        <v>1076</v>
+        <v>1073</v>
       </c>
       <c r="C369" t="s">
-        <v>1077</v>
+        <v>1074</v>
       </c>
       <c r="D369" t="s">
         <v>561</v>
@@ -11200,13 +11271,13 @@
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>1078</v>
+        <v>1075</v>
       </c>
       <c r="B370" t="s">
-        <v>1079</v>
+        <v>1076</v>
       </c>
       <c r="C370" t="s">
-        <v>1080</v>
+        <v>1077</v>
       </c>
       <c r="D370" t="s">
         <v>561</v>
@@ -11217,13 +11288,13 @@
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>1081</v>
+        <v>1078</v>
       </c>
       <c r="B371" t="s">
-        <v>1082</v>
+        <v>1079</v>
       </c>
       <c r="C371" t="s">
-        <v>1083</v>
+        <v>1080</v>
       </c>
       <c r="D371" t="s">
         <v>561</v>
@@ -11234,13 +11305,13 @@
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>1084</v>
+        <v>1081</v>
       </c>
       <c r="B372" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="C372" t="s">
-        <v>1086</v>
+        <v>1083</v>
       </c>
       <c r="D372" t="s">
         <v>561</v>
@@ -11251,13 +11322,13 @@
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>1087</v>
-      </c>
-      <c r="B373" s="1" t="s">
-        <v>1088</v>
-      </c>
-      <c r="C373" s="1" t="s">
-        <v>1089</v>
+        <v>1084</v>
+      </c>
+      <c r="B373" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C373" t="s">
+        <v>1086</v>
       </c>
       <c r="D373" t="s">
         <v>561</v>
@@ -11268,13 +11339,13 @@
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
       <c r="C374" s="1" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="D374" t="s">
         <v>561</v>
@@ -11285,13 +11356,13 @@
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="B375" s="1" t="s">
-        <v>1094</v>
+        <v>1091</v>
       </c>
       <c r="C375" s="1" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="D375" t="s">
         <v>561</v>
@@ -11302,13 +11373,13 @@
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>1097</v>
+        <v>1094</v>
       </c>
       <c r="C376" s="1" t="s">
-        <v>1098</v>
+        <v>1095</v>
       </c>
       <c r="D376" t="s">
         <v>561</v>
@@ -11319,13 +11390,13 @@
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B377" s="1" t="s">
-        <v>1100</v>
+        <v>1097</v>
       </c>
       <c r="C377" s="1" t="s">
-        <v>1101</v>
+        <v>1098</v>
       </c>
       <c r="D377" t="s">
         <v>561</v>
@@ -11336,13 +11407,13 @@
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>1102</v>
+        <v>1099</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>1103</v>
+        <v>1100</v>
       </c>
       <c r="C378" s="1" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="D378" t="s">
         <v>561</v>
@@ -11353,13 +11424,13 @@
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>1105</v>
+        <v>1102</v>
       </c>
       <c r="B379" s="1" t="s">
-        <v>1106</v>
+        <v>1103</v>
       </c>
       <c r="C379" s="1" t="s">
-        <v>1107</v>
+        <v>1104</v>
       </c>
       <c r="D379" t="s">
         <v>561</v>
@@ -11370,13 +11441,13 @@
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>1108</v>
+        <v>1105</v>
       </c>
       <c r="B380" s="1" t="s">
-        <v>1109</v>
+        <v>1106</v>
       </c>
       <c r="C380" s="1" t="s">
-        <v>1110</v>
+        <v>1107</v>
       </c>
       <c r="D380" t="s">
         <v>561</v>
@@ -11387,13 +11458,13 @@
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="B381" s="1" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
       <c r="C381" s="1" t="s">
-        <v>1113</v>
+        <v>1110</v>
       </c>
       <c r="D381" t="s">
         <v>561</v>
@@ -11404,13 +11475,13 @@
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>1114</v>
+        <v>1111</v>
       </c>
       <c r="B382" s="1" t="s">
-        <v>1115</v>
+        <v>1112</v>
       </c>
       <c r="C382" s="1" t="s">
-        <v>1116</v>
+        <v>1113</v>
       </c>
       <c r="D382" t="s">
         <v>561</v>
@@ -11421,13 +11492,13 @@
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>1117</v>
+        <v>1114</v>
       </c>
       <c r="B383" s="1" t="s">
-        <v>1118</v>
+        <v>1115</v>
       </c>
       <c r="C383" s="1" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
       <c r="D383" t="s">
         <v>561</v>
@@ -11438,13 +11509,13 @@
     </row>
     <row r="384" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>1120</v>
+        <v>1117</v>
       </c>
       <c r="B384" s="1" t="s">
-        <v>1121</v>
+        <v>1118</v>
       </c>
       <c r="C384" s="1" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
       <c r="D384" t="s">
         <v>561</v>
@@ -11455,13 +11526,13 @@
     </row>
     <row r="385" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="B385" s="1" t="s">
-        <v>1124</v>
+        <v>1121</v>
       </c>
       <c r="C385" s="1" t="s">
-        <v>1125</v>
+        <v>1122</v>
       </c>
       <c r="D385" t="s">
         <v>561</v>
@@ -11472,13 +11543,13 @@
     </row>
     <row r="386" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="B386" s="1" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="C386" s="1" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="D386" t="s">
         <v>561</v>
@@ -11489,13 +11560,13 @@
     </row>
     <row r="387" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>1129</v>
+        <v>1126</v>
       </c>
       <c r="B387" s="1" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
       <c r="C387" s="1" t="s">
-        <v>1131</v>
+        <v>1128</v>
       </c>
       <c r="D387" t="s">
         <v>561</v>
@@ -11506,13 +11577,13 @@
     </row>
     <row r="388" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>1132</v>
+        <v>1129</v>
       </c>
       <c r="B388" s="1" t="s">
-        <v>1133</v>
+        <v>1130</v>
       </c>
       <c r="C388" s="1" t="s">
-        <v>1134</v>
+        <v>1131</v>
       </c>
       <c r="D388" t="s">
         <v>561</v>
@@ -11523,13 +11594,13 @@
     </row>
     <row r="389" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>1135</v>
+        <v>1132</v>
       </c>
       <c r="B389" s="1" t="s">
-        <v>1136</v>
+        <v>1133</v>
       </c>
       <c r="C389" s="1" t="s">
-        <v>1137</v>
+        <v>1134</v>
       </c>
       <c r="D389" t="s">
         <v>561</v>
@@ -11540,13 +11611,13 @@
     </row>
     <row r="390" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>1138</v>
+        <v>1135</v>
       </c>
       <c r="B390" s="1" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
       <c r="C390" s="1" t="s">
-        <v>1140</v>
+        <v>1137</v>
       </c>
       <c r="D390" t="s">
         <v>561</v>
@@ -11557,13 +11628,13 @@
     </row>
     <row r="391" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>1141</v>
+        <v>1138</v>
       </c>
       <c r="B391" s="1" t="s">
-        <v>1142</v>
+        <v>1139</v>
       </c>
       <c r="C391" s="1" t="s">
-        <v>1143</v>
+        <v>1140</v>
       </c>
       <c r="D391" t="s">
         <v>561</v>
@@ -11574,13 +11645,13 @@
     </row>
     <row r="392" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>1144</v>
+        <v>1141</v>
       </c>
       <c r="B392" s="1" t="s">
-        <v>1145</v>
+        <v>1142</v>
       </c>
       <c r="C392" s="1" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
       <c r="D392" t="s">
         <v>561</v>
@@ -11591,13 +11662,13 @@
     </row>
     <row r="393" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>1147</v>
+        <v>1144</v>
       </c>
       <c r="B393" s="1" t="s">
-        <v>1148</v>
+        <v>1145</v>
       </c>
       <c r="C393" s="1" t="s">
-        <v>1149</v>
+        <v>1146</v>
       </c>
       <c r="D393" t="s">
         <v>561</v>
@@ -11608,13 +11679,13 @@
     </row>
     <row r="394" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>1150</v>
+        <v>1147</v>
       </c>
       <c r="B394" s="1" t="s">
-        <v>1151</v>
+        <v>1148</v>
       </c>
       <c r="C394" s="1" t="s">
-        <v>1152</v>
+        <v>1149</v>
       </c>
       <c r="D394" t="s">
         <v>561</v>
@@ -11625,13 +11696,13 @@
     </row>
     <row r="395" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>1153</v>
+        <v>1150</v>
       </c>
       <c r="B395" s="1" t="s">
-        <v>1154</v>
+        <v>1151</v>
       </c>
       <c r="C395" s="1" t="s">
-        <v>1155</v>
+        <v>1152</v>
       </c>
       <c r="D395" t="s">
         <v>561</v>
@@ -11642,13 +11713,13 @@
     </row>
     <row r="396" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>1156</v>
+        <v>1153</v>
       </c>
       <c r="B396" s="1" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
       <c r="C396" s="1" t="s">
-        <v>1158</v>
+        <v>1155</v>
       </c>
       <c r="D396" t="s">
         <v>561</v>
@@ -11659,13 +11730,13 @@
     </row>
     <row r="397" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>1159</v>
+        <v>1156</v>
       </c>
       <c r="B397" s="1" t="s">
-        <v>1160</v>
+        <v>1157</v>
       </c>
       <c r="C397" s="1" t="s">
-        <v>1161</v>
+        <v>1158</v>
       </c>
       <c r="D397" t="s">
         <v>561</v>
@@ -11676,13 +11747,13 @@
     </row>
     <row r="398" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>1162</v>
+        <v>1159</v>
       </c>
       <c r="B398" s="1" t="s">
-        <v>1163</v>
+        <v>1160</v>
       </c>
       <c r="C398" s="1" t="s">
-        <v>1164</v>
+        <v>1161</v>
       </c>
       <c r="D398" t="s">
         <v>561</v>
@@ -11693,13 +11764,13 @@
     </row>
     <row r="399" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>1165</v>
+        <v>1162</v>
       </c>
       <c r="B399" s="1" t="s">
-        <v>1166</v>
+        <v>1163</v>
       </c>
       <c r="C399" s="1" t="s">
-        <v>1167</v>
+        <v>1164</v>
       </c>
       <c r="D399" t="s">
         <v>561</v>
@@ -11710,13 +11781,13 @@
     </row>
     <row r="400" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>1168</v>
+        <v>1165</v>
       </c>
       <c r="B400" s="1" t="s">
-        <v>1169</v>
+        <v>1166</v>
       </c>
       <c r="C400" s="1" t="s">
-        <v>1170</v>
+        <v>1167</v>
       </c>
       <c r="D400" t="s">
         <v>561</v>
@@ -11727,13 +11798,13 @@
     </row>
     <row r="401" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>1171</v>
+        <v>1168</v>
       </c>
       <c r="B401" s="1" t="s">
-        <v>1172</v>
+        <v>1169</v>
       </c>
       <c r="C401" s="1" t="s">
-        <v>1173</v>
+        <v>1170</v>
       </c>
       <c r="D401" t="s">
         <v>561</v>
@@ -11744,13 +11815,13 @@
     </row>
     <row r="402" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>1174</v>
+        <v>1171</v>
       </c>
       <c r="B402" s="1" t="s">
-        <v>1175</v>
+        <v>1172</v>
       </c>
       <c r="C402" s="1" t="s">
-        <v>1176</v>
+        <v>1173</v>
       </c>
       <c r="D402" t="s">
         <v>561</v>
@@ -11761,13 +11832,13 @@
     </row>
     <row r="403" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>1177</v>
+        <v>1174</v>
       </c>
       <c r="B403" s="1" t="s">
-        <v>1178</v>
+        <v>1175</v>
       </c>
       <c r="C403" s="1" t="s">
-        <v>1179</v>
+        <v>1176</v>
       </c>
       <c r="D403" t="s">
         <v>561</v>
@@ -11778,13 +11849,13 @@
     </row>
     <row r="404" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>1180</v>
+        <v>1177</v>
       </c>
       <c r="B404" s="1" t="s">
-        <v>1181</v>
+        <v>1178</v>
       </c>
       <c r="C404" s="1" t="s">
-        <v>1182</v>
+        <v>1179</v>
       </c>
       <c r="D404" t="s">
         <v>561</v>
@@ -11795,13 +11866,13 @@
     </row>
     <row r="405" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
       <c r="B405" s="1" t="s">
-        <v>1184</v>
+        <v>1181</v>
       </c>
       <c r="C405" s="1" t="s">
-        <v>1185</v>
+        <v>1182</v>
       </c>
       <c r="D405" t="s">
         <v>561</v>
@@ -11812,13 +11883,13 @@
     </row>
     <row r="406" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
-        <v>1186</v>
+        <v>1183</v>
       </c>
       <c r="B406" s="1" t="s">
-        <v>1187</v>
+        <v>1184</v>
       </c>
       <c r="C406" s="1" t="s">
-        <v>1188</v>
+        <v>1185</v>
       </c>
       <c r="D406" t="s">
         <v>561</v>
@@ -11829,13 +11900,13 @@
     </row>
     <row r="407" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>1189</v>
+        <v>1186</v>
       </c>
       <c r="B407" s="1" t="s">
-        <v>1190</v>
+        <v>1187</v>
       </c>
       <c r="C407" s="1" t="s">
-        <v>1191</v>
+        <v>1188</v>
       </c>
       <c r="D407" t="s">
         <v>561</v>
@@ -11846,13 +11917,13 @@
     </row>
     <row r="408" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>1192</v>
+        <v>1189</v>
       </c>
       <c r="B408" s="1" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
       <c r="C408" s="1" t="s">
-        <v>1194</v>
+        <v>1191</v>
       </c>
       <c r="D408" t="s">
         <v>561</v>
@@ -11863,13 +11934,13 @@
     </row>
     <row r="409" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
       <c r="B409" s="1" t="s">
-        <v>1196</v>
+        <v>1193</v>
       </c>
       <c r="C409" s="1" t="s">
-        <v>1197</v>
+        <v>1194</v>
       </c>
       <c r="D409" t="s">
         <v>561</v>
@@ -11880,13 +11951,13 @@
     </row>
     <row r="410" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
-        <v>1198</v>
+        <v>1195</v>
       </c>
       <c r="B410" s="1" t="s">
-        <v>1199</v>
+        <v>1196</v>
       </c>
       <c r="C410" s="1" t="s">
-        <v>1200</v>
+        <v>1197</v>
       </c>
       <c r="D410" t="s">
         <v>561</v>
@@ -11897,13 +11968,13 @@
     </row>
     <row r="411" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>1201</v>
+        <v>1198</v>
       </c>
       <c r="B411" s="1" t="s">
-        <v>1202</v>
+        <v>1199</v>
       </c>
       <c r="C411" s="1" t="s">
-        <v>1203</v>
+        <v>1200</v>
       </c>
       <c r="D411" t="s">
         <v>561</v>
@@ -11914,13 +11985,13 @@
     </row>
     <row r="412" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
-        <v>1204</v>
+        <v>1201</v>
       </c>
       <c r="B412" s="1" t="s">
-        <v>1205</v>
+        <v>1202</v>
       </c>
       <c r="C412" s="1" t="s">
-        <v>1206</v>
+        <v>1203</v>
       </c>
       <c r="D412" t="s">
         <v>561</v>
@@ -11931,13 +12002,13 @@
     </row>
     <row r="413" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
-        <v>1207</v>
+        <v>1204</v>
       </c>
       <c r="B413" s="1" t="s">
-        <v>1208</v>
+        <v>1205</v>
       </c>
       <c r="C413" s="1" t="s">
-        <v>1209</v>
+        <v>1206</v>
       </c>
       <c r="D413" t="s">
         <v>561</v>
@@ -11948,13 +12019,13 @@
     </row>
     <row r="414" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
-        <v>1210</v>
+        <v>1207</v>
       </c>
       <c r="B414" s="1" t="s">
-        <v>1211</v>
+        <v>1208</v>
       </c>
       <c r="C414" s="1" t="s">
-        <v>1212</v>
+        <v>1209</v>
       </c>
       <c r="D414" t="s">
         <v>561</v>
@@ -11965,13 +12036,13 @@
     </row>
     <row r="415" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
       <c r="B415" s="1" t="s">
-        <v>1214</v>
+        <v>1211</v>
       </c>
       <c r="C415" s="1" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
       <c r="D415" t="s">
         <v>561</v>
@@ -11982,13 +12053,13 @@
     </row>
     <row r="416" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
-        <v>1216</v>
+        <v>1213</v>
       </c>
       <c r="B416" s="1" t="s">
-        <v>1217</v>
+        <v>1214</v>
       </c>
       <c r="C416" s="1" t="s">
-        <v>1218</v>
+        <v>1215</v>
       </c>
       <c r="D416" t="s">
         <v>561</v>
@@ -11999,13 +12070,13 @@
     </row>
     <row r="417" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
-        <v>1219</v>
+        <v>1216</v>
       </c>
       <c r="B417" s="1" t="s">
-        <v>1220</v>
+        <v>1217</v>
       </c>
       <c r="C417" s="1" t="s">
-        <v>1221</v>
+        <v>1218</v>
       </c>
       <c r="D417" t="s">
         <v>561</v>
@@ -12016,13 +12087,13 @@
     </row>
     <row r="418" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
-        <v>1222</v>
+        <v>1219</v>
       </c>
       <c r="B418" s="1" t="s">
-        <v>1223</v>
+        <v>1220</v>
       </c>
       <c r="C418" s="1" t="s">
-        <v>1224</v>
+        <v>1221</v>
       </c>
       <c r="D418" t="s">
         <v>561</v>
@@ -12033,13 +12104,13 @@
     </row>
     <row r="419" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
-        <v>1225</v>
+        <v>1222</v>
       </c>
       <c r="B419" s="1" t="s">
-        <v>1226</v>
+        <v>1223</v>
       </c>
       <c r="C419" s="1" t="s">
-        <v>1227</v>
+        <v>1224</v>
       </c>
       <c r="D419" t="s">
         <v>561</v>
@@ -12050,13 +12121,13 @@
     </row>
     <row r="420" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
-        <v>1228</v>
+        <v>1225</v>
       </c>
       <c r="B420" s="1" t="s">
-        <v>1229</v>
+        <v>1226</v>
       </c>
       <c r="C420" s="1" t="s">
-        <v>1230</v>
+        <v>1227</v>
       </c>
       <c r="D420" t="s">
         <v>561</v>
@@ -12067,13 +12138,13 @@
     </row>
     <row r="421" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
-        <v>1231</v>
+        <v>1228</v>
       </c>
       <c r="B421" s="1" t="s">
-        <v>1232</v>
+        <v>1229</v>
       </c>
       <c r="C421" s="1" t="s">
-        <v>1233</v>
+        <v>1230</v>
       </c>
       <c r="D421" t="s">
         <v>561</v>
@@ -12084,13 +12155,13 @@
     </row>
     <row r="422" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
-        <v>1234</v>
+        <v>1231</v>
       </c>
       <c r="B422" s="1" t="s">
-        <v>1235</v>
+        <v>1232</v>
       </c>
       <c r="C422" s="1" t="s">
-        <v>1236</v>
+        <v>1233</v>
       </c>
       <c r="D422" t="s">
         <v>561</v>
@@ -12101,13 +12172,13 @@
     </row>
     <row r="423" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
-        <v>1237</v>
+        <v>1234</v>
       </c>
       <c r="B423" s="1" t="s">
-        <v>1238</v>
+        <v>1235</v>
       </c>
       <c r="C423" s="1" t="s">
-        <v>1239</v>
+        <v>1236</v>
       </c>
       <c r="D423" t="s">
         <v>561</v>
@@ -12118,13 +12189,13 @@
     </row>
     <row r="424" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
-        <v>1240</v>
+        <v>1237</v>
       </c>
       <c r="B424" s="1" t="s">
-        <v>1241</v>
+        <v>1238</v>
       </c>
       <c r="C424" s="1" t="s">
-        <v>1242</v>
+        <v>1239</v>
       </c>
       <c r="D424" t="s">
         <v>561</v>
@@ -12135,13 +12206,13 @@
     </row>
     <row r="425" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
-        <v>1243</v>
+        <v>1240</v>
       </c>
       <c r="B425" s="1" t="s">
-        <v>1244</v>
+        <v>1241</v>
       </c>
       <c r="C425" s="1" t="s">
-        <v>1245</v>
+        <v>1242</v>
       </c>
       <c r="D425" t="s">
         <v>561</v>
@@ -12152,13 +12223,13 @@
     </row>
     <row r="426" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
-        <v>1246</v>
+        <v>1243</v>
       </c>
       <c r="B426" s="1" t="s">
-        <v>1247</v>
+        <v>1244</v>
       </c>
       <c r="C426" s="1" t="s">
-        <v>1248</v>
+        <v>1245</v>
       </c>
       <c r="D426" t="s">
         <v>561</v>
@@ -12169,13 +12240,13 @@
     </row>
     <row r="427" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
-        <v>1249</v>
+        <v>1246</v>
       </c>
       <c r="B427" s="1" t="s">
-        <v>1250</v>
+        <v>1247</v>
       </c>
       <c r="C427" s="1" t="s">
-        <v>1251</v>
+        <v>1248</v>
       </c>
       <c r="D427" t="s">
         <v>561</v>
@@ -12186,13 +12257,13 @@
     </row>
     <row r="428" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
-        <v>1252</v>
+        <v>1249</v>
       </c>
       <c r="B428" s="1" t="s">
-        <v>1253</v>
+        <v>1250</v>
       </c>
       <c r="C428" s="1" t="s">
-        <v>1254</v>
+        <v>1251</v>
       </c>
       <c r="D428" t="s">
         <v>561</v>
@@ -12203,13 +12274,13 @@
     </row>
     <row r="429" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
-        <v>1255</v>
+        <v>1252</v>
       </c>
       <c r="B429" s="1" t="s">
-        <v>1256</v>
+        <v>1253</v>
       </c>
       <c r="C429" s="1" t="s">
-        <v>1257</v>
+        <v>1254</v>
       </c>
       <c r="D429" t="s">
         <v>561</v>
@@ -12220,13 +12291,13 @@
     </row>
     <row r="430" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
       <c r="B430" s="1" t="s">
-        <v>1259</v>
+        <v>1256</v>
       </c>
       <c r="C430" s="1" t="s">
-        <v>1260</v>
+        <v>1257</v>
       </c>
       <c r="D430" t="s">
         <v>561</v>
@@ -12237,13 +12308,13 @@
     </row>
     <row r="431" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
-        <v>1261</v>
+        <v>1258</v>
       </c>
       <c r="B431" s="1" t="s">
-        <v>1262</v>
+        <v>1259</v>
       </c>
       <c r="C431" s="1" t="s">
-        <v>1263</v>
+        <v>1260</v>
       </c>
       <c r="D431" t="s">
         <v>561</v>
@@ -12254,13 +12325,13 @@
     </row>
     <row r="432" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
-        <v>1264</v>
+        <v>1261</v>
       </c>
       <c r="B432" s="1" t="s">
-        <v>1265</v>
+        <v>1262</v>
       </c>
       <c r="C432" s="1" t="s">
-        <v>1266</v>
+        <v>1263</v>
       </c>
       <c r="D432" t="s">
         <v>561</v>
@@ -12271,13 +12342,13 @@
     </row>
     <row r="433" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
-        <v>1267</v>
+        <v>1264</v>
       </c>
       <c r="B433" s="1" t="s">
-        <v>1268</v>
+        <v>1265</v>
       </c>
       <c r="C433" s="1" t="s">
-        <v>1269</v>
+        <v>1266</v>
       </c>
       <c r="D433" t="s">
         <v>561</v>
@@ -12288,13 +12359,13 @@
     </row>
     <row r="434" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
-        <v>1270</v>
+        <v>1267</v>
       </c>
       <c r="B434" s="1" t="s">
-        <v>1271</v>
+        <v>1268</v>
       </c>
       <c r="C434" s="1" t="s">
-        <v>1272</v>
+        <v>1269</v>
       </c>
       <c r="D434" t="s">
         <v>561</v>
@@ -12305,13 +12376,13 @@
     </row>
     <row r="435" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
-        <v>1273</v>
+        <v>1270</v>
       </c>
       <c r="B435" s="1" t="s">
-        <v>1274</v>
+        <v>1271</v>
       </c>
       <c r="C435" s="1" t="s">
-        <v>1275</v>
+        <v>1272</v>
       </c>
       <c r="D435" t="s">
         <v>561</v>
@@ -12322,13 +12393,13 @@
     </row>
     <row r="436" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
-        <v>1276</v>
+        <v>1273</v>
       </c>
       <c r="B436" s="1" t="s">
-        <v>1277</v>
+        <v>1274</v>
       </c>
       <c r="C436" s="1" t="s">
-        <v>1278</v>
+        <v>1275</v>
       </c>
       <c r="D436" t="s">
         <v>561</v>
@@ -12339,13 +12410,13 @@
     </row>
     <row r="437" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
-        <v>1279</v>
+        <v>1276</v>
       </c>
       <c r="B437" s="1" t="s">
-        <v>1280</v>
+        <v>1277</v>
       </c>
       <c r="C437" s="1" t="s">
-        <v>1281</v>
+        <v>1278</v>
       </c>
       <c r="D437" t="s">
         <v>561</v>
@@ -12356,13 +12427,13 @@
     </row>
     <row r="438" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
-        <v>1282</v>
+        <v>1279</v>
       </c>
       <c r="B438" s="1" t="s">
-        <v>1283</v>
+        <v>1280</v>
       </c>
       <c r="C438" s="1" t="s">
-        <v>1284</v>
+        <v>1281</v>
       </c>
       <c r="D438" t="s">
         <v>561</v>
@@ -12373,13 +12444,13 @@
     </row>
     <row r="439" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
-        <v>1285</v>
+        <v>1282</v>
       </c>
       <c r="B439" s="1" t="s">
-        <v>1286</v>
+        <v>1283</v>
       </c>
       <c r="C439" s="1" t="s">
-        <v>1287</v>
+        <v>1284</v>
       </c>
       <c r="D439" t="s">
         <v>561</v>
@@ -12390,13 +12461,13 @@
     </row>
     <row r="440" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
-        <v>1288</v>
+        <v>1285</v>
       </c>
       <c r="B440" s="1" t="s">
-        <v>1289</v>
+        <v>1286</v>
       </c>
       <c r="C440" s="1" t="s">
-        <v>1290</v>
+        <v>1287</v>
       </c>
       <c r="D440" t="s">
         <v>561</v>
@@ -12407,13 +12478,13 @@
     </row>
     <row r="441" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
-        <v>1291</v>
+        <v>1288</v>
       </c>
       <c r="B441" s="1" t="s">
-        <v>1292</v>
+        <v>1289</v>
       </c>
       <c r="C441" s="1" t="s">
-        <v>1293</v>
+        <v>1290</v>
       </c>
       <c r="D441" t="s">
         <v>561</v>
@@ -12424,13 +12495,13 @@
     </row>
     <row r="442" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
-        <v>1294</v>
+        <v>1291</v>
       </c>
       <c r="B442" s="1" t="s">
-        <v>1295</v>
+        <v>1292</v>
       </c>
       <c r="C442" s="1" t="s">
-        <v>1296</v>
+        <v>1293</v>
       </c>
       <c r="D442" t="s">
         <v>561</v>
@@ -12441,13 +12512,13 @@
     </row>
     <row r="443" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
-        <v>1297</v>
+        <v>1294</v>
       </c>
       <c r="B443" s="1" t="s">
-        <v>1298</v>
+        <v>1295</v>
       </c>
       <c r="C443" s="1" t="s">
-        <v>1299</v>
+        <v>1296</v>
       </c>
       <c r="D443" t="s">
         <v>561</v>
@@ -12458,13 +12529,13 @@
     </row>
     <row r="444" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
-        <v>1300</v>
+        <v>1297</v>
       </c>
       <c r="B444" s="1" t="s">
-        <v>1301</v>
+        <v>1298</v>
       </c>
       <c r="C444" s="1" t="s">
-        <v>1302</v>
+        <v>1299</v>
       </c>
       <c r="D444" t="s">
         <v>561</v>
@@ -12475,24 +12546,37 @@
     </row>
     <row r="445" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
+        <v>1300</v>
+      </c>
+      <c r="B445" s="1" t="s">
+        <v>1301</v>
+      </c>
+      <c r="C445" s="1" t="s">
+        <v>1302</v>
+      </c>
+      <c r="D445" t="s">
+        <v>561</v>
+      </c>
+      <c r="E445" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="446" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A446" t="s">
         <v>1303</v>
       </c>
-      <c r="B445" s="1" t="s">
+      <c r="B446" s="1" t="s">
         <v>1304</v>
       </c>
-      <c r="C445" s="1" t="s">
+      <c r="C446" s="1" t="s">
         <v>1305</v>
       </c>
-      <c r="D445" t="s">
-        <v>561</v>
-      </c>
-      <c r="E445" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="446" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B446" s="1"/>
-      <c r="C446" s="1"/>
+      <c r="D446" t="s">
+        <v>561</v>
+      </c>
+      <c r="E446" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="447" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B447" s="1"/>
@@ -13226,12 +13310,12 @@
       <c r="B629" s="1"/>
       <c r="C629" s="1"/>
     </row>
-    <row r="1072" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1072" s="2"/>
+    <row r="630" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B630" s="1"/>
+      <c r="C630" s="1"/>
     </row>
     <row r="1073" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C1073" s="2"/>
-      <c r="D1073" s="2"/>
     </row>
     <row r="1074" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C1074" s="2"/>
@@ -13258,6 +13342,7 @@
       <c r="D1079" s="2"/>
     </row>
     <row r="1080" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1080" s="2"/>
       <c r="D1080" s="2"/>
     </row>
     <row r="1081" spans="3:4" x14ac:dyDescent="0.25">
@@ -13268,6 +13353,9 @@
     </row>
     <row r="1083" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D1083" s="2"/>
+    </row>
+    <row r="1084" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D1084" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13279,8 +13367,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13340,8 +13428,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13726,8 +13814,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14577,4 +14665,1481 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.5703125" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="51.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1442</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1434</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1435</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1436</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1437</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1438</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1440</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1443</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1432</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1441</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1444</v>
+      </c>
+      <c r="G2" t="s">
+        <v>1445</v>
+      </c>
+      <c r="H2" t="s">
+        <v>1446</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F81"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34:C81"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.42578125" customWidth="1"/>
+    <col min="2" max="2" width="43.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.28515625" customWidth="1"/>
+    <col min="4" max="4" width="25.5703125" customWidth="1"/>
+    <col min="5" max="5" width="43.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1447</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1451</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1448</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1449</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>1363</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1452</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1440</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1363</v>
+      </c>
+      <c r="F2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>1358</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1452</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1440</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1358</v>
+      </c>
+      <c r="F3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>1351</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1452</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1440</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1351</v>
+      </c>
+      <c r="F4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>1362</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1452</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1440</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1362</v>
+      </c>
+      <c r="F5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>1373</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1452</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1440</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1373</v>
+      </c>
+      <c r="F6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>1347</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1452</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1440</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1347</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>1368</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1452</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1440</v>
+      </c>
+      <c r="E8" t="s">
+        <v>1368</v>
+      </c>
+      <c r="F8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>1338</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1452</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1440</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1338</v>
+      </c>
+      <c r="F9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>1352</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1452</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1440</v>
+      </c>
+      <c r="E10" t="s">
+        <v>1352</v>
+      </c>
+      <c r="F10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>1341</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1452</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1440</v>
+      </c>
+      <c r="E11" t="s">
+        <v>1341</v>
+      </c>
+      <c r="F11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1452</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1440</v>
+      </c>
+      <c r="E12" t="s">
+        <v>1339</v>
+      </c>
+      <c r="F12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>1348</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1452</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1440</v>
+      </c>
+      <c r="E13" t="s">
+        <v>1348</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>1367</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1452</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1440</v>
+      </c>
+      <c r="E14" t="s">
+        <v>1367</v>
+      </c>
+      <c r="F14">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>1355</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1452</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1440</v>
+      </c>
+      <c r="E15" t="s">
+        <v>1355</v>
+      </c>
+      <c r="F15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1452</v>
+      </c>
+      <c r="D16" t="s">
+        <v>1440</v>
+      </c>
+      <c r="E16" t="s">
+        <v>1342</v>
+      </c>
+      <c r="F16">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>1360</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1452</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1440</v>
+      </c>
+      <c r="E17" t="s">
+        <v>1360</v>
+      </c>
+      <c r="F17">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>1346</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1452</v>
+      </c>
+      <c r="D18" t="s">
+        <v>1440</v>
+      </c>
+      <c r="E18" t="s">
+        <v>1346</v>
+      </c>
+      <c r="F18">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>1353</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1452</v>
+      </c>
+      <c r="D19" t="s">
+        <v>1440</v>
+      </c>
+      <c r="E19" t="s">
+        <v>1353</v>
+      </c>
+      <c r="F19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>1343</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1452</v>
+      </c>
+      <c r="D20" t="s">
+        <v>1440</v>
+      </c>
+      <c r="E20" t="s">
+        <v>1343</v>
+      </c>
+      <c r="F20">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>1344</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1452</v>
+      </c>
+      <c r="D21" t="s">
+        <v>1440</v>
+      </c>
+      <c r="E21" t="s">
+        <v>1344</v>
+      </c>
+      <c r="F21">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>1356</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1452</v>
+      </c>
+      <c r="D22" t="s">
+        <v>1440</v>
+      </c>
+      <c r="E22" t="s">
+        <v>1356</v>
+      </c>
+      <c r="F22">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>1354</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1452</v>
+      </c>
+      <c r="D23" t="s">
+        <v>1440</v>
+      </c>
+      <c r="E23" t="s">
+        <v>1354</v>
+      </c>
+      <c r="F23">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>1349</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1452</v>
+      </c>
+      <c r="D24" t="s">
+        <v>1440</v>
+      </c>
+      <c r="E24" t="s">
+        <v>1349</v>
+      </c>
+      <c r="F24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>1369</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1452</v>
+      </c>
+      <c r="D25" t="s">
+        <v>1440</v>
+      </c>
+      <c r="E25" t="s">
+        <v>1369</v>
+      </c>
+      <c r="F25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>1359</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1452</v>
+      </c>
+      <c r="D26" t="s">
+        <v>1440</v>
+      </c>
+      <c r="E26" t="s">
+        <v>1359</v>
+      </c>
+      <c r="F26">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>1345</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1452</v>
+      </c>
+      <c r="D27" t="s">
+        <v>1440</v>
+      </c>
+      <c r="E27" t="s">
+        <v>1345</v>
+      </c>
+      <c r="F27">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>1364</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1452</v>
+      </c>
+      <c r="D28" t="s">
+        <v>1440</v>
+      </c>
+      <c r="E28" t="s">
+        <v>1364</v>
+      </c>
+      <c r="F28">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>1365</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1452</v>
+      </c>
+      <c r="D29" t="s">
+        <v>1440</v>
+      </c>
+      <c r="E29" t="s">
+        <v>1365</v>
+      </c>
+      <c r="F29">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>1350</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1452</v>
+      </c>
+      <c r="D30" t="s">
+        <v>1440</v>
+      </c>
+      <c r="E30" t="s">
+        <v>1350</v>
+      </c>
+      <c r="F30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>1357</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1452</v>
+      </c>
+      <c r="D31" t="s">
+        <v>1440</v>
+      </c>
+      <c r="E31" t="s">
+        <v>1357</v>
+      </c>
+      <c r="F31">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>1340</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1452</v>
+      </c>
+      <c r="D32" t="s">
+        <v>1440</v>
+      </c>
+      <c r="E32" t="s">
+        <v>1340</v>
+      </c>
+      <c r="F32">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>1361</v>
+      </c>
+      <c r="C33" t="s">
+        <v>1452</v>
+      </c>
+      <c r="D33" t="s">
+        <v>1440</v>
+      </c>
+      <c r="E33" t="s">
+        <v>1361</v>
+      </c>
+      <c r="F33">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>1379</v>
+      </c>
+      <c r="C34" t="s">
+        <v>1453</v>
+      </c>
+      <c r="D34" t="s">
+        <v>1440</v>
+      </c>
+      <c r="E34" t="s">
+        <v>1379</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>1380</v>
+      </c>
+      <c r="C35" t="s">
+        <v>1453</v>
+      </c>
+      <c r="D35" t="s">
+        <v>1440</v>
+      </c>
+      <c r="E35" t="s">
+        <v>1380</v>
+      </c>
+      <c r="F35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>1381</v>
+      </c>
+      <c r="C36" t="s">
+        <v>1453</v>
+      </c>
+      <c r="D36" t="s">
+        <v>1440</v>
+      </c>
+      <c r="E36" t="s">
+        <v>1381</v>
+      </c>
+      <c r="F36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>1382</v>
+      </c>
+      <c r="C37" t="s">
+        <v>1453</v>
+      </c>
+      <c r="D37" t="s">
+        <v>1440</v>
+      </c>
+      <c r="E37" t="s">
+        <v>1382</v>
+      </c>
+      <c r="F37">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>1383</v>
+      </c>
+      <c r="C38" t="s">
+        <v>1453</v>
+      </c>
+      <c r="D38" t="s">
+        <v>1440</v>
+      </c>
+      <c r="E38" t="s">
+        <v>1383</v>
+      </c>
+      <c r="F38">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>1427</v>
+      </c>
+      <c r="C39" t="s">
+        <v>1453</v>
+      </c>
+      <c r="D39" t="s">
+        <v>1440</v>
+      </c>
+      <c r="E39" t="s">
+        <v>1427</v>
+      </c>
+      <c r="F39">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>1384</v>
+      </c>
+      <c r="C40" t="s">
+        <v>1453</v>
+      </c>
+      <c r="D40" t="s">
+        <v>1440</v>
+      </c>
+      <c r="E40" t="s">
+        <v>1384</v>
+      </c>
+      <c r="F40">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>1385</v>
+      </c>
+      <c r="C41" t="s">
+        <v>1453</v>
+      </c>
+      <c r="D41" t="s">
+        <v>1440</v>
+      </c>
+      <c r="E41" t="s">
+        <v>1385</v>
+      </c>
+      <c r="F41">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>1386</v>
+      </c>
+      <c r="C42" t="s">
+        <v>1453</v>
+      </c>
+      <c r="D42" t="s">
+        <v>1440</v>
+      </c>
+      <c r="E42" t="s">
+        <v>1386</v>
+      </c>
+      <c r="F42">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>1387</v>
+      </c>
+      <c r="C43" t="s">
+        <v>1453</v>
+      </c>
+      <c r="D43" t="s">
+        <v>1440</v>
+      </c>
+      <c r="E43" t="s">
+        <v>1387</v>
+      </c>
+      <c r="F43">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>1388</v>
+      </c>
+      <c r="C44" t="s">
+        <v>1453</v>
+      </c>
+      <c r="D44" t="s">
+        <v>1440</v>
+      </c>
+      <c r="E44" t="s">
+        <v>1388</v>
+      </c>
+      <c r="F44">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>1389</v>
+      </c>
+      <c r="C45" t="s">
+        <v>1453</v>
+      </c>
+      <c r="D45" t="s">
+        <v>1440</v>
+      </c>
+      <c r="E45" t="s">
+        <v>1389</v>
+      </c>
+      <c r="F45">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>1393</v>
+      </c>
+      <c r="C46" t="s">
+        <v>1453</v>
+      </c>
+      <c r="D46" t="s">
+        <v>1440</v>
+      </c>
+      <c r="E46" t="s">
+        <v>1393</v>
+      </c>
+      <c r="F46">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>1394</v>
+      </c>
+      <c r="C47" t="s">
+        <v>1453</v>
+      </c>
+      <c r="D47" t="s">
+        <v>1440</v>
+      </c>
+      <c r="E47" t="s">
+        <v>1394</v>
+      </c>
+      <c r="F47">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>1395</v>
+      </c>
+      <c r="C48" t="s">
+        <v>1453</v>
+      </c>
+      <c r="D48" t="s">
+        <v>1440</v>
+      </c>
+      <c r="E48" t="s">
+        <v>1395</v>
+      </c>
+      <c r="F48">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>1396</v>
+      </c>
+      <c r="C49" t="s">
+        <v>1453</v>
+      </c>
+      <c r="D49" t="s">
+        <v>1440</v>
+      </c>
+      <c r="E49" t="s">
+        <v>1396</v>
+      </c>
+      <c r="F49">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>1397</v>
+      </c>
+      <c r="C50" t="s">
+        <v>1453</v>
+      </c>
+      <c r="D50" t="s">
+        <v>1440</v>
+      </c>
+      <c r="E50" t="s">
+        <v>1397</v>
+      </c>
+      <c r="F50">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>1398</v>
+      </c>
+      <c r="C51" t="s">
+        <v>1453</v>
+      </c>
+      <c r="D51" t="s">
+        <v>1440</v>
+      </c>
+      <c r="E51" t="s">
+        <v>1398</v>
+      </c>
+      <c r="F51">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>1399</v>
+      </c>
+      <c r="C52" t="s">
+        <v>1453</v>
+      </c>
+      <c r="D52" t="s">
+        <v>1440</v>
+      </c>
+      <c r="E52" t="s">
+        <v>1399</v>
+      </c>
+      <c r="F52">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>1400</v>
+      </c>
+      <c r="C53" t="s">
+        <v>1453</v>
+      </c>
+      <c r="D53" t="s">
+        <v>1440</v>
+      </c>
+      <c r="E53" t="s">
+        <v>1400</v>
+      </c>
+      <c r="F53">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>1401</v>
+      </c>
+      <c r="C54" t="s">
+        <v>1453</v>
+      </c>
+      <c r="D54" t="s">
+        <v>1440</v>
+      </c>
+      <c r="E54" t="s">
+        <v>1401</v>
+      </c>
+      <c r="F54">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>1428</v>
+      </c>
+      <c r="C55" t="s">
+        <v>1453</v>
+      </c>
+      <c r="D55" t="s">
+        <v>1440</v>
+      </c>
+      <c r="E55" t="s">
+        <v>1428</v>
+      </c>
+      <c r="F55">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>1402</v>
+      </c>
+      <c r="C56" t="s">
+        <v>1453</v>
+      </c>
+      <c r="D56" t="s">
+        <v>1440</v>
+      </c>
+      <c r="E56" t="s">
+        <v>1402</v>
+      </c>
+      <c r="F56">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>1403</v>
+      </c>
+      <c r="C57" t="s">
+        <v>1453</v>
+      </c>
+      <c r="D57" t="s">
+        <v>1440</v>
+      </c>
+      <c r="E57" t="s">
+        <v>1403</v>
+      </c>
+      <c r="F57">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>1404</v>
+      </c>
+      <c r="C58" t="s">
+        <v>1453</v>
+      </c>
+      <c r="D58" t="s">
+        <v>1440</v>
+      </c>
+      <c r="E58" t="s">
+        <v>1404</v>
+      </c>
+      <c r="F58">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>1405</v>
+      </c>
+      <c r="C59" t="s">
+        <v>1453</v>
+      </c>
+      <c r="D59" t="s">
+        <v>1440</v>
+      </c>
+      <c r="E59" t="s">
+        <v>1405</v>
+      </c>
+      <c r="F59">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>1406</v>
+      </c>
+      <c r="C60" t="s">
+        <v>1453</v>
+      </c>
+      <c r="D60" t="s">
+        <v>1440</v>
+      </c>
+      <c r="E60" t="s">
+        <v>1406</v>
+      </c>
+      <c r="F60">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>1407</v>
+      </c>
+      <c r="C61" t="s">
+        <v>1453</v>
+      </c>
+      <c r="D61" t="s">
+        <v>1440</v>
+      </c>
+      <c r="E61" t="s">
+        <v>1407</v>
+      </c>
+      <c r="F61">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>1408</v>
+      </c>
+      <c r="C62" t="s">
+        <v>1453</v>
+      </c>
+      <c r="D62" t="s">
+        <v>1440</v>
+      </c>
+      <c r="E62" t="s">
+        <v>1408</v>
+      </c>
+      <c r="F62">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>1409</v>
+      </c>
+      <c r="C63" t="s">
+        <v>1453</v>
+      </c>
+      <c r="D63" t="s">
+        <v>1440</v>
+      </c>
+      <c r="E63" t="s">
+        <v>1409</v>
+      </c>
+      <c r="F63">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>1410</v>
+      </c>
+      <c r="C64" t="s">
+        <v>1453</v>
+      </c>
+      <c r="D64" t="s">
+        <v>1440</v>
+      </c>
+      <c r="E64" t="s">
+        <v>1410</v>
+      </c>
+      <c r="F64">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>1411</v>
+      </c>
+      <c r="C65" t="s">
+        <v>1453</v>
+      </c>
+      <c r="D65" t="s">
+        <v>1440</v>
+      </c>
+      <c r="E65" t="s">
+        <v>1411</v>
+      </c>
+      <c r="F65">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>1412</v>
+      </c>
+      <c r="C66" t="s">
+        <v>1453</v>
+      </c>
+      <c r="D66" t="s">
+        <v>1440</v>
+      </c>
+      <c r="E66" t="s">
+        <v>1412</v>
+      </c>
+      <c r="F66">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>1413</v>
+      </c>
+      <c r="C67" t="s">
+        <v>1453</v>
+      </c>
+      <c r="D67" t="s">
+        <v>1440</v>
+      </c>
+      <c r="E67" t="s">
+        <v>1413</v>
+      </c>
+      <c r="F67">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>1414</v>
+      </c>
+      <c r="C68" t="s">
+        <v>1453</v>
+      </c>
+      <c r="D68" t="s">
+        <v>1440</v>
+      </c>
+      <c r="E68" t="s">
+        <v>1414</v>
+      </c>
+      <c r="F68">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>1415</v>
+      </c>
+      <c r="C69" t="s">
+        <v>1453</v>
+      </c>
+      <c r="D69" t="s">
+        <v>1440</v>
+      </c>
+      <c r="E69" t="s">
+        <v>1415</v>
+      </c>
+      <c r="F69">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="70" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>1429</v>
+      </c>
+      <c r="C70" t="s">
+        <v>1453</v>
+      </c>
+      <c r="D70" t="s">
+        <v>1440</v>
+      </c>
+      <c r="E70" t="s">
+        <v>1429</v>
+      </c>
+      <c r="F70">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>1416</v>
+      </c>
+      <c r="C71" t="s">
+        <v>1453</v>
+      </c>
+      <c r="D71" t="s">
+        <v>1440</v>
+      </c>
+      <c r="E71" t="s">
+        <v>1416</v>
+      </c>
+      <c r="F71">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="72" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
+        <v>1417</v>
+      </c>
+      <c r="C72" t="s">
+        <v>1453</v>
+      </c>
+      <c r="D72" t="s">
+        <v>1440</v>
+      </c>
+      <c r="E72" t="s">
+        <v>1417</v>
+      </c>
+      <c r="F72">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="73" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
+        <v>1418</v>
+      </c>
+      <c r="C73" t="s">
+        <v>1453</v>
+      </c>
+      <c r="D73" t="s">
+        <v>1440</v>
+      </c>
+      <c r="E73" t="s">
+        <v>1418</v>
+      </c>
+      <c r="F73">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="74" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
+        <v>1419</v>
+      </c>
+      <c r="C74" t="s">
+        <v>1453</v>
+      </c>
+      <c r="D74" t="s">
+        <v>1440</v>
+      </c>
+      <c r="E74" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F74">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="75" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C75" t="s">
+        <v>1453</v>
+      </c>
+      <c r="D75" t="s">
+        <v>1440</v>
+      </c>
+      <c r="E75" t="s">
+        <v>1420</v>
+      </c>
+      <c r="F75">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="76" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
+        <v>1421</v>
+      </c>
+      <c r="C76" t="s">
+        <v>1453</v>
+      </c>
+      <c r="D76" t="s">
+        <v>1440</v>
+      </c>
+      <c r="E76" t="s">
+        <v>1421</v>
+      </c>
+      <c r="F76">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="77" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
+        <v>1422</v>
+      </c>
+      <c r="C77" t="s">
+        <v>1453</v>
+      </c>
+      <c r="D77" t="s">
+        <v>1440</v>
+      </c>
+      <c r="E77" t="s">
+        <v>1422</v>
+      </c>
+      <c r="F77">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="78" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
+        <v>1423</v>
+      </c>
+      <c r="C78" t="s">
+        <v>1453</v>
+      </c>
+      <c r="D78" t="s">
+        <v>1440</v>
+      </c>
+      <c r="E78" t="s">
+        <v>1423</v>
+      </c>
+      <c r="F78">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="79" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
+        <v>1424</v>
+      </c>
+      <c r="C79" t="s">
+        <v>1453</v>
+      </c>
+      <c r="D79" t="s">
+        <v>1440</v>
+      </c>
+      <c r="E79" t="s">
+        <v>1424</v>
+      </c>
+      <c r="F79">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="80" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
+        <v>1425</v>
+      </c>
+      <c r="C80" t="s">
+        <v>1453</v>
+      </c>
+      <c r="D80" t="s">
+        <v>1440</v>
+      </c>
+      <c r="E80" t="s">
+        <v>1425</v>
+      </c>
+      <c r="F80">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="81" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
+        <v>1426</v>
+      </c>
+      <c r="C81" t="s">
+        <v>1453</v>
+      </c>
+      <c r="D81" t="s">
+        <v>1440</v>
+      </c>
+      <c r="E81" t="s">
+        <v>1426</v>
+      </c>
+      <c r="F81">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/resources/Repository Setup.xlsx
+++ b/resources/Repository Setup.xlsx
@@ -4993,7 +4993,7 @@
   <dimension ref="A1:E1085"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10:E10"/>
+      <selection activeCell="A4" sqref="A4:A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/resources/Repository Setup.xlsx
+++ b/resources/Repository Setup.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12585"/>
@@ -4993,7 +4993,7 @@
   <dimension ref="A1:E1085"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A10"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/resources/Repository Setup.xlsx
+++ b/resources/Repository Setup.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12585"/>
@@ -4993,7 +4993,7 @@
   <dimension ref="A1:E1085"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
